--- a/grantova_zadost_labka__naceneni.xlsx
+++ b/grantova_zadost_labka__naceneni.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>Městská senzorická síť – cenový odhad</t>
   </si>
@@ -99,7 +99,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="16"/>
+        <color indexed="14"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://arxiv.org/pdf/1511.09249v1.pdf</t>
@@ -271,22 +271,19 @@
     <t>10499</t>
   </si>
   <si>
-    <t>Odhad nákladů pokud by se nejednalo o pro bono práci</t>
+    <t>suma celkem</t>
+  </si>
+  <si>
+    <t>Odhad nákladů pokud by se nejednalo o pro bono práci (pokud položka již je naceněna, přičti tuto)</t>
   </si>
   <si>
     <t>testování API</t>
   </si>
   <si>
-    <t>testování NeuralNetwork</t>
-  </si>
-  <si>
     <t>výškové práce pro umístění senzorů na budovy</t>
   </si>
   <si>
     <t>penTesting</t>
-  </si>
-  <si>
-    <t>suma celkem</t>
   </si>
 </sst>
 </file>
@@ -296,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -335,7 +332,7 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="16"/>
+      <color indexed="14"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -343,8 +340,13 @@
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +356,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -371,13 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -419,18 +433,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="23"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="24"/>
+        <fgColor indexed="25"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -458,43 +466,43 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="11"/>
+      <top style="medium">
+        <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="11"/>
+      <top style="medium">
+        <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="11"/>
+      <right style="medium">
+        <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="11"/>
+      <top style="medium">
+        <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,7 +516,7 @@
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -517,13 +525,13 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -532,13 +540,43 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -550,10 +588,25 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -562,68 +615,53 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
+      <right style="medium">
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="9"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
+      <top style="medium">
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -635,12 +673,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -650,158 +688,70 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
-      <right style="medium">
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="24"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="24"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="23"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -813,106 +763,121 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="24"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
-      <right style="medium">
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="24"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,7 +887,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -938,274 +903,268 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="12" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="12" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="12" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="15" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="15" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="15" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="11" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="13" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="13" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="13" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="11" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1226,8 +1185,6 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff005392"/>
       <rgbColor rgb="ff801900"/>
       <rgbColor rgb="ffffe4e1"/>
       <rgbColor rgb="ffe6b9b8"/>
@@ -1235,12 +1192,15 @@
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffff99ff"/>
       <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffb9cde5"/>
+      <rgbColor rgb="fffae3e0"/>
       <rgbColor rgb="ff8064a2"/>
       <rgbColor rgb="ffc0504d"/>
       <rgbColor rgb="ff0096ff"/>
-      <rgbColor rgb="ff0066cc"/>
       <rgbColor rgb="ff00cc33"/>
+      <rgbColor rgb="ffb9cde5"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff005392"/>
+      <rgbColor rgb="ff919191"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2317,13 +2277,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="67.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="73.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.35156" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.67188" style="1" customWidth="1"/>
@@ -2336,12 +2296,7 @@
     <col min="11" max="11" width="12.6719" style="1" customWidth="1"/>
     <col min="12" max="12" width="128.352" style="1" customWidth="1"/>
     <col min="13" max="13" width="119.172" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.3516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.3516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.3516" style="1" customWidth="1"/>
-    <col min="19" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="14" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1">
@@ -2360,1622 +2315,1494 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7"/>
     </row>
     <row r="2" ht="40" customHeight="1">
-      <c r="A2" t="s" s="8">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="9">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C2" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="D2" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="E2" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="9">
+      <c r="F2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="9">
+      <c r="G2" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="9">
+      <c r="H2" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="11">
+      <c r="I2" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="11">
+      <c r="J2" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="12">
+      <c r="K2" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="L2" t="s" s="13">
+      <c r="L2" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="M2" t="s" s="14">
+      <c r="M2" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="17"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" t="s" s="18">
+      <c r="A3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="B3" t="s" s="19">
+      <c r="B3" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="14">
         <v>1</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="14">
         <v>47768</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="14">
         <v>57799</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="14">
         <v>57799</v>
       </c>
-      <c r="G3" s="21">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22">
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
         <f>F3+G3+H3</f>
         <v>57799</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="17">
         <f>G3+H3+I3</f>
         <v>57799</v>
       </c>
-      <c r="K3" t="s" s="24">
+      <c r="K3" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="L3" t="s" s="25">
+      <c r="L3" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="M3" t="s" s="26">
+      <c r="M3" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="27">
+      <c r="A4" t="s" s="21">
         <v>19</v>
       </c>
-      <c r="B4" t="s" s="28">
+      <c r="B4" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="23">
         <v>12</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="24">
         <v>3350</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="24">
         <v>4053</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="23">
         <f>E4*12</f>
         <v>48636</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="25">
         <f>C4*E4</f>
         <v>48636</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="25">
         <f>C4*E4</f>
         <v>48636</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="26">
         <f>F4+G4+H4</f>
         <v>145908</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="27">
         <f>F4+G4+H4</f>
         <v>145908</v>
       </c>
-      <c r="K4" t="s" s="25">
+      <c r="K4" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L4" t="s" s="25">
+      <c r="L4" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="17"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" ht="27" customHeight="1">
-      <c r="A5" t="s" s="35">
+      <c r="A5" t="s" s="29">
         <v>23</v>
       </c>
-      <c r="B5" t="s" s="36">
+      <c r="B5" t="s" s="30">
         <v>24</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="23">
         <v>500</v>
       </c>
-      <c r="D5" s="29">
-        <v>0</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
         <v>1000</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="23">
         <f>C5*E5</f>
         <v>500000</v>
       </c>
-      <c r="G5" s="31">
-        <v>0</v>
-      </c>
-      <c r="H5" s="31">
-        <v>0</v>
-      </c>
-      <c r="I5" s="32">
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
         <f>F5+G5+H5</f>
         <v>500000</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="27">
         <f>F5+G5+H5</f>
         <v>500000</v>
       </c>
-      <c r="K5" t="s" s="25">
+      <c r="K5" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L5" t="s" s="25">
+      <c r="L5" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="M5" t="s" s="37">
+      <c r="M5" t="s" s="31">
         <v>26</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="41">
+      <c r="A6" t="s" s="32">
         <v>27</v>
       </c>
-      <c r="B6" t="s" s="42">
+      <c r="B6" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="23">
         <v>1</v>
       </c>
-      <c r="D6" s="29">
-        <v>0</v>
-      </c>
-      <c r="E6" s="29">
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23">
         <v>200000</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="23">
         <v>200000</v>
       </c>
-      <c r="G6" s="31">
-        <v>0</v>
-      </c>
-      <c r="H6" s="31">
-        <v>0</v>
-      </c>
-      <c r="I6" s="43">
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
         <f>F6+G6+H6</f>
         <v>200000</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="34">
         <f>F6+G6+H6</f>
         <v>200000</v>
       </c>
-      <c r="K6" t="s" s="25">
+      <c r="K6" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L6" t="s" s="25">
+      <c r="L6" t="s" s="19">
         <v>28</v>
       </c>
-      <c r="M6" t="s" s="26">
+      <c r="M6" t="s" s="20">
         <v>29</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="47">
+      <c r="A7" t="s" s="35">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="42">
+      <c r="B7" t="s" s="33">
         <v>15</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="23">
         <v>1</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="23">
         <v>107500</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="23">
         <v>107500</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="23">
         <v>107500</v>
       </c>
-      <c r="G7" s="29">
-        <v>0</v>
-      </c>
-      <c r="H7" s="31">
-        <v>0</v>
-      </c>
-      <c r="I7" s="43">
+      <c r="G7" s="23">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34">
         <f>F7+G7+H7</f>
         <v>107500</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="34">
         <f>F7+G7+H7</f>
         <v>107500</v>
       </c>
-      <c r="K7" t="s" s="25">
+      <c r="K7" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="L7" t="s" s="25">
+      <c r="L7" t="s" s="19">
         <v>31</v>
       </c>
-      <c r="M7" t="s" s="26">
+      <c r="M7" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="46"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="48">
+      <c r="A8" t="s" s="36">
         <v>33</v>
       </c>
-      <c r="B8" t="s" s="49">
+      <c r="B8" t="s" s="37">
         <v>34</v>
       </c>
-      <c r="C8" t="s" s="25">
+      <c r="C8" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="D8" s="31">
-        <v>0</v>
-      </c>
-      <c r="E8" s="31">
-        <v>0</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0</v>
-      </c>
-      <c r="G8" s="31">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31">
-        <v>0</v>
-      </c>
-      <c r="I8" s="43">
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34">
         <f>F8+G8+H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="34">
         <f>F8+G8+H8</f>
         <v>0</v>
       </c>
-      <c r="K8" t="s" s="25">
+      <c r="K8" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="46"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="48">
+      <c r="A9" t="s" s="36">
         <v>35</v>
       </c>
-      <c r="B9" t="s" s="51">
+      <c r="B9" t="s" s="39">
         <v>34</v>
       </c>
-      <c r="C9" t="s" s="25">
+      <c r="C9" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="D9" s="31">
-        <v>0</v>
-      </c>
-      <c r="E9" s="31">
-        <v>0</v>
-      </c>
-      <c r="F9" s="31">
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
         <v>50000</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="25">
         <v>50000</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="25">
         <v>50000</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="34">
         <f>F9+G9+H9</f>
         <v>150000</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="34">
         <f>F9+G9+H9</f>
         <v>150000</v>
       </c>
-      <c r="K9" t="s" s="25">
+      <c r="K9" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="46"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="48">
+      <c r="A10" t="s" s="36">
         <v>36</v>
       </c>
-      <c r="B10" t="s" s="51">
+      <c r="B10" t="s" s="39">
         <v>34</v>
       </c>
-      <c r="C10" t="s" s="25">
+      <c r="C10" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="D10" s="31">
-        <v>0</v>
-      </c>
-      <c r="E10" s="31">
-        <v>0</v>
-      </c>
-      <c r="F10" s="31">
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
         <v>30000</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="25">
         <v>30000</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="25">
         <v>30000</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="34">
         <f>F10+G10+H10</f>
         <v>90000</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="34">
         <f>F10+G10+H10</f>
         <v>90000</v>
       </c>
-      <c r="K10" t="s" s="25">
+      <c r="K10" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="46"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="48">
+      <c r="A11" t="s" s="36">
         <v>37</v>
       </c>
-      <c r="B11" t="s" s="51">
+      <c r="B11" t="s" s="39">
         <v>34</v>
       </c>
-      <c r="C11" t="s" s="25">
+      <c r="C11" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="D11" s="31">
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
-        <v>0</v>
-      </c>
-      <c r="F11" s="31">
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
         <v>150000</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="25">
         <v>50000</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="25">
         <v>50000</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="34">
         <f>F11+G11+H11</f>
         <v>250000</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="34">
         <f>F11+G11+H11</f>
         <v>250000</v>
       </c>
-      <c r="K11" t="s" s="25">
+      <c r="K11" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="46"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="52">
+      <c r="A12" t="s" s="40">
         <v>38</v>
       </c>
-      <c r="B12" t="s" s="28">
+      <c r="B12" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="24">
         <v>1</v>
       </c>
-      <c r="D12" t="s" s="53">
+      <c r="D12" t="s" s="41">
         <v>39</v>
       </c>
-      <c r="E12" s="31">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s" s="53">
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s" s="41">
         <v>40</v>
       </c>
-      <c r="G12" s="31">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s" s="53">
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s" s="41">
         <v>40</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="26">
         <f>F12+G12+H12</f>
         <v>48780</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="27">
         <f>F12+G12+H12</f>
         <v>48780</v>
       </c>
-      <c r="K12" t="s" s="25">
+      <c r="K12" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="L12" t="s" s="25">
+      <c r="L12" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="M12" t="s" s="26">
+      <c r="M12" t="s" s="20">
         <v>41</v>
       </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="52">
+      <c r="A13" t="s" s="40">
         <v>42</v>
       </c>
-      <c r="B13" t="s" s="28">
+      <c r="B13" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="24">
         <v>1</v>
       </c>
-      <c r="D13" t="s" s="53">
+      <c r="D13" t="s" s="41">
         <v>43</v>
       </c>
-      <c r="E13" s="31">
-        <v>0</v>
-      </c>
-      <c r="F13" s="29">
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="23">
         <v>15790</v>
       </c>
-      <c r="G13" s="31">
-        <v>0</v>
-      </c>
-      <c r="H13" s="29">
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23">
         <v>15790</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="26">
         <f>F13+G13+H13</f>
         <v>31580</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="27">
         <f>F13+G13+H13</f>
         <v>31580</v>
       </c>
-      <c r="K13" t="s" s="25">
+      <c r="K13" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="L13" t="s" s="25">
+      <c r="L13" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="17"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="35">
+      <c r="A14" t="s" s="42">
         <v>44</v>
       </c>
-      <c r="B14" t="s" s="36">
+      <c r="B14" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="23">
         <v>1</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="24">
         <v>27490</v>
       </c>
-      <c r="E14" s="31">
-        <v>0</v>
-      </c>
-      <c r="F14" s="29">
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
         <f>C14*H14</f>
         <v>22719</v>
       </c>
-      <c r="G14" s="31">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29">
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
         <v>22719</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="26">
         <f>F14+G14+H14</f>
         <v>45438</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="27">
         <f>F14+G14+H14</f>
         <v>45438</v>
       </c>
-      <c r="K14" t="s" s="25">
+      <c r="K14" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="L14" t="s" s="25">
+      <c r="L14" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="M14" t="s" s="57">
+      <c r="M14" t="s" s="43">
         <v>45</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="58">
+      <c r="A15" t="s" s="44">
         <v>46</v>
       </c>
-      <c r="B15" t="s" s="36">
+      <c r="B15" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="23">
         <v>2</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="23">
         <v>7500</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="23">
         <v>7500</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="23">
         <f>C15*E15</f>
         <v>15000</v>
       </c>
-      <c r="G15" s="31">
-        <v>0</v>
-      </c>
-      <c r="H15" s="31">
-        <v>0</v>
-      </c>
-      <c r="I15" s="32">
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
         <f>F15+G15+H15</f>
         <v>15000</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="27">
         <f>F15+G15+H15</f>
         <v>15000</v>
       </c>
-      <c r="K15" t="s" s="25">
+      <c r="K15" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="L15" t="s" s="25">
+      <c r="L15" t="s" s="19">
         <v>47</v>
       </c>
-      <c r="M15" s="50"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="58">
+      <c r="A16" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="B16" t="s" s="36">
+      <c r="B16" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="23">
         <v>2</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="23">
         <v>7418</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="23">
         <v>7418</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="23">
         <f>C16*E16</f>
         <v>14836</v>
       </c>
-      <c r="G16" s="31">
-        <v>0</v>
-      </c>
-      <c r="H16" s="31">
-        <v>0</v>
-      </c>
-      <c r="I16" s="32">
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
         <f>F16+G16+H16</f>
         <v>14836</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="27">
         <f>F16+G16+H16</f>
         <v>14836</v>
       </c>
-      <c r="K16" t="s" s="25">
+      <c r="K16" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="L16" t="s" s="25">
+      <c r="L16" t="s" s="19">
         <v>47</v>
       </c>
-      <c r="M16" s="50"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="17"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="58">
+      <c r="A17" t="s" s="44">
         <v>49</v>
       </c>
-      <c r="B17" t="s" s="36">
+      <c r="B17" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="23">
         <v>1</v>
       </c>
-      <c r="D17" t="s" s="53">
+      <c r="D17" t="s" s="41">
         <v>50</v>
       </c>
-      <c r="E17" s="31">
-        <v>0</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s" s="53">
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s" s="41">
         <v>51</v>
       </c>
-      <c r="H17" s="31">
-        <v>0</v>
-      </c>
-      <c r="I17" s="32">
+      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
         <f>F17+G17+H17</f>
         <v>39990</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="27">
         <f>F17+G17+H17</f>
         <v>39990</v>
       </c>
-      <c r="K17" t="s" s="25">
+      <c r="K17" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="L17" t="s" s="25">
+      <c r="L17" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="M17" t="s" s="57">
+      <c r="M17" t="s" s="43">
         <v>52</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
     </row>
     <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="58">
+      <c r="A18" t="s" s="44">
         <v>53</v>
       </c>
-      <c r="B18" t="s" s="36">
+      <c r="B18" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="23">
         <v>1</v>
       </c>
-      <c r="D18" t="s" s="53">
+      <c r="D18" t="s" s="41">
         <v>54</v>
       </c>
-      <c r="E18" t="s" s="53">
+      <c r="E18" t="s" s="41">
         <v>55</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="23">
         <f>C18*E18</f>
         <v>35690</v>
       </c>
-      <c r="G18" s="31">
-        <v>0</v>
-      </c>
-      <c r="H18" s="31">
-        <v>0</v>
-      </c>
-      <c r="I18" s="32">
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
         <f>F18+G18+H18</f>
         <v>35690</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="27">
         <f>F18+G18+H18</f>
         <v>35690</v>
       </c>
-      <c r="K18" t="s" s="25">
+      <c r="K18" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="L18" t="s" s="25">
+      <c r="L18" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="M18" t="s" s="57">
+      <c r="M18" t="s" s="43">
         <v>56</v>
       </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="58">
+      <c r="A19" t="s" s="44">
         <v>57</v>
       </c>
-      <c r="B19" t="s" s="36">
+      <c r="B19" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="23">
         <v>1</v>
       </c>
-      <c r="D19" t="s" s="53">
+      <c r="D19" t="s" s="41">
         <v>58</v>
       </c>
-      <c r="E19" s="31">
-        <v>0</v>
-      </c>
-      <c r="F19" s="29">
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
         <v>80000</v>
       </c>
-      <c r="G19" t="s" s="53">
+      <c r="G19" t="s" s="41">
         <v>59</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="25">
         <v>80000</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="26">
         <f>F19+G19+H19</f>
         <v>240000</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="17"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="58">
+      <c r="A20" t="s" s="44">
         <v>60</v>
       </c>
-      <c r="B20" t="s" s="36">
+      <c r="B20" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="23">
         <v>1</v>
       </c>
-      <c r="D20" t="s" s="53">
+      <c r="D20" t="s" s="41">
         <v>58</v>
       </c>
-      <c r="E20" t="s" s="53">
+      <c r="E20" t="s" s="41">
         <v>58</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="23">
         <v>200000</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="25">
         <v>200000</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="25">
         <v>200000</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="26">
         <f>F20+G20+H20</f>
         <v>600000</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="17"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="38"/>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="59">
+      <c r="A21" t="s" s="45">
         <v>61</v>
       </c>
-      <c r="B21" t="s" s="36">
+      <c r="B21" t="s" s="30">
         <v>34</v>
       </c>
-      <c r="C21" t="s" s="25">
+      <c r="C21" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="D21" s="31">
-        <v>0</v>
-      </c>
-      <c r="E21" s="31">
-        <v>0</v>
-      </c>
-      <c r="F21" s="31">
+      <c r="D21" s="25">
+        <v>0</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
         <v>50000</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="25">
         <v>50000</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="25">
         <v>80000</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="26">
         <f>F21+G21+H21</f>
         <v>180000</v>
       </c>
-      <c r="J21" s="32">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s" s="25">
+      <c r="J21" s="26">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="17"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="38"/>
     </row>
     <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="60">
+      <c r="A22" t="s" s="46">
         <v>62</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <v>1</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48">
         <f>SUM(F3:F19)</f>
         <v>1327970</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="48">
         <f>SUM(G3:G19)</f>
         <v>178636</v>
       </c>
-      <c r="H22" s="62">
+      <c r="H22" s="48">
         <f>SUM(H3:H19)</f>
         <v>297145</v>
       </c>
-      <c r="I22" s="63">
+      <c r="I22" s="49">
         <f>SUM(I3:I19)</f>
         <v>1972521</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="48">
         <f>SUM(J3:J19)</f>
         <v>1732521</v>
       </c>
-      <c r="K22" s="64"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="17"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="52"/>
     </row>
     <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="67">
+      <c r="A23" t="s" s="53">
         <v>63</v>
       </c>
-      <c r="B23" t="s" s="68">
+      <c r="B23" t="s" s="54">
         <v>15</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="55">
         <v>1</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69">
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55">
         <v>500000</v>
       </c>
-      <c r="G23" s="69">
+      <c r="G23" s="55">
         <v>500000</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="55">
         <v>500000</v>
       </c>
-      <c r="I23" s="70">
-        <v>0</v>
-      </c>
-      <c r="J23" s="69">
+      <c r="I23" s="56">
+        <v>0</v>
+      </c>
+      <c r="J23" s="55">
         <v>500000</v>
       </c>
-      <c r="K23" s="70"/>
-      <c r="L23" t="s" s="71">
+      <c r="K23" s="56"/>
+      <c r="L23" t="s" s="57">
         <v>64</v>
       </c>
-      <c r="M23" s="72"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="48">
+      <c r="A24" t="s" s="36">
         <v>65</v>
       </c>
-      <c r="B24" t="s" s="73">
+      <c r="B24" t="s" s="59">
         <v>34</v>
       </c>
-      <c r="C24" t="s" s="25">
+      <c r="C24" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="D24" s="31">
-        <v>0</v>
-      </c>
-      <c r="E24" s="31">
-        <v>0</v>
-      </c>
-      <c r="F24" s="31">
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0</v>
+      </c>
+      <c r="F24" s="25">
         <v>5000</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="25">
         <v>5000</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="25">
         <v>5000</v>
       </c>
-      <c r="I24" s="43">
-        <v>0</v>
-      </c>
-      <c r="J24" s="43">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s" s="25">
+      <c r="I24" s="34">
+        <v>0</v>
+      </c>
+      <c r="J24" s="34">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="46"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="59">
+      <c r="A25" t="s" s="60">
         <v>66</v>
       </c>
-      <c r="B25" t="s" s="36">
+      <c r="B25" t="s" s="30">
         <v>34</v>
       </c>
-      <c r="C25" t="s" s="25">
+      <c r="C25" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="D25" s="31">
-        <v>0</v>
-      </c>
-      <c r="E25" s="31">
-        <v>0</v>
-      </c>
-      <c r="F25" s="31">
-        <v>0</v>
-      </c>
-      <c r="G25" s="31">
-        <v>0</v>
-      </c>
-      <c r="H25" s="31">
-        <v>0</v>
-      </c>
-      <c r="I25" s="33">
-        <v>0</v>
-      </c>
-      <c r="J25" s="32">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s" s="25">
+      <c r="D25" s="25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
+        <v>0</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="38"/>
     </row>
     <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="59">
+      <c r="A26" t="s" s="60">
         <v>67</v>
       </c>
-      <c r="B26" t="s" s="36">
+      <c r="B26" t="s" s="30">
         <v>34</v>
       </c>
-      <c r="C26" t="s" s="25">
+      <c r="C26" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="D26" s="31">
-        <v>0</v>
-      </c>
-      <c r="E26" s="31">
-        <v>0</v>
-      </c>
-      <c r="F26" s="31">
-        <v>0</v>
-      </c>
-      <c r="G26" s="31">
-        <v>0</v>
-      </c>
-      <c r="H26" s="31">
-        <v>0</v>
-      </c>
-      <c r="I26" s="33">
-        <v>0</v>
-      </c>
-      <c r="J26" s="32">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s" s="25">
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="27">
+        <v>0</v>
+      </c>
+      <c r="J26" s="26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="17"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="38"/>
     </row>
     <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="59">
+      <c r="A27" t="s" s="60">
         <v>68</v>
       </c>
-      <c r="B27" t="s" s="36">
+      <c r="B27" t="s" s="30">
         <v>34</v>
       </c>
-      <c r="C27" t="s" s="25">
+      <c r="C27" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="D27" s="31">
-        <v>0</v>
-      </c>
-      <c r="E27" s="31">
-        <v>0</v>
-      </c>
-      <c r="F27" s="31">
-        <v>0</v>
-      </c>
-      <c r="G27" s="31">
-        <v>0</v>
-      </c>
-      <c r="H27" s="31">
-        <v>0</v>
-      </c>
-      <c r="I27" s="33">
-        <v>0</v>
-      </c>
-      <c r="J27" s="32">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s" s="25">
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
+        <v>0</v>
+      </c>
+      <c r="I27" s="27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="26">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="17"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="38"/>
     </row>
     <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="59">
+      <c r="A28" t="s" s="60">
         <v>69</v>
       </c>
-      <c r="B28" t="s" s="36">
+      <c r="B28" t="s" s="30">
         <v>34</v>
       </c>
-      <c r="C28" t="s" s="25">
+      <c r="C28" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="D28" s="31">
-        <v>0</v>
-      </c>
-      <c r="E28" s="31">
-        <v>0</v>
-      </c>
-      <c r="F28" s="31">
-        <v>0</v>
-      </c>
-      <c r="G28" s="31">
-        <v>0</v>
-      </c>
-      <c r="H28" s="31">
-        <v>0</v>
-      </c>
-      <c r="I28" s="33">
-        <v>0</v>
-      </c>
-      <c r="J28" s="32">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s" s="25">
+      <c r="D28" s="25">
+        <v>0</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0</v>
+      </c>
+      <c r="F28" s="25">
+        <v>0</v>
+      </c>
+      <c r="G28" s="25">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25">
+        <v>0</v>
+      </c>
+      <c r="I28" s="27">
+        <v>0</v>
+      </c>
+      <c r="J28" s="26">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="17"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="38"/>
     </row>
     <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="59">
+      <c r="A29" t="s" s="60">
         <v>70</v>
       </c>
-      <c r="B29" t="s" s="36">
+      <c r="B29" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="25">
         <v>4</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="25">
         <v>25000</v>
       </c>
-      <c r="E29" s="31">
-        <v>0</v>
-      </c>
-      <c r="F29" s="31">
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
         <v>50000</v>
       </c>
-      <c r="G29" s="31">
-        <v>0</v>
-      </c>
-      <c r="H29" s="31">
-        <v>0</v>
-      </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="17"/>
+      <c r="G29" s="25">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="38"/>
     </row>
     <row r="30" ht="27" customHeight="1">
-      <c r="A30" t="s" s="59">
+      <c r="A30" t="s" s="60">
         <v>71</v>
       </c>
-      <c r="B30" t="s" s="36">
+      <c r="B30" t="s" s="30">
         <v>24</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="25">
         <v>1000</v>
       </c>
-      <c r="D30" s="31">
-        <v>0</v>
-      </c>
-      <c r="E30" s="31">
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+      <c r="E30" s="25">
         <v>50000</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="25">
         <v>50000</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="25">
         <v>50000</v>
       </c>
-      <c r="H30" s="31">
-        <v>0</v>
-      </c>
-      <c r="I30" s="33">
-        <v>0</v>
-      </c>
-      <c r="J30" s="32">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s" s="25">
+      <c r="H30" s="25">
+        <v>0</v>
+      </c>
+      <c r="I30" s="27">
+        <v>0</v>
+      </c>
+      <c r="J30" s="26">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="L30" t="s" s="25">
+      <c r="L30" t="s" s="19">
         <v>72</v>
       </c>
-      <c r="M30" s="50"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="17"/>
+      <c r="M30" s="38"/>
     </row>
     <row r="31" ht="27" customHeight="1">
-      <c r="A31" t="s" s="74">
+      <c r="A31" t="s" s="61">
         <v>73</v>
       </c>
-      <c r="B31" t="s" s="28">
+      <c r="B31" t="s" s="22">
         <v>74</v>
       </c>
-      <c r="C31" t="s" s="75">
+      <c r="C31" t="s" s="62">
         <v>75</v>
       </c>
-      <c r="D31" s="31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="33">
-        <v>0</v>
-      </c>
-      <c r="J31" s="32">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s" s="25">
+      <c r="D31" s="25">
+        <v>0</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0</v>
+      </c>
+      <c r="G31" s="25">
+        <v>0</v>
+      </c>
+      <c r="H31" s="25">
+        <v>0</v>
+      </c>
+      <c r="I31" s="27">
+        <v>0</v>
+      </c>
+      <c r="J31" s="26">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="L31" t="s" s="25">
+      <c r="L31" t="s" s="19">
         <v>76</v>
       </c>
-      <c r="M31" s="50"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="17"/>
+      <c r="M31" s="38"/>
     </row>
     <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="74">
+      <c r="A32" t="s" s="61">
         <v>77</v>
       </c>
-      <c r="B32" t="s" s="28">
+      <c r="B32" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="23">
         <v>1</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="23">
         <v>33462.81</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="23">
         <v>40490</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="23">
         <v>40490</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="25">
         <v>20000</v>
       </c>
-      <c r="H32" s="31">
-        <v>0</v>
-      </c>
-      <c r="I32" s="33">
+      <c r="H32" s="25">
+        <v>0</v>
+      </c>
+      <c r="I32" s="27">
         <f>C32+D32</f>
         <v>33463.81</v>
       </c>
-      <c r="J32" s="32">
+      <c r="J32" s="26">
         <f>F32+G32</f>
         <v>60490</v>
       </c>
-      <c r="K32" t="s" s="25">
+      <c r="K32" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="L32" t="s" s="25">
+      <c r="L32" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="M32" t="s" s="26">
+      <c r="M32" t="s" s="20">
         <v>78</v>
       </c>
-      <c r="N32" s="15"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="17"/>
     </row>
     <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="74">
+      <c r="A33" t="s" s="61">
         <v>79</v>
       </c>
-      <c r="B33" t="s" s="28">
+      <c r="B33" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="23">
         <v>1</v>
       </c>
-      <c r="D33" t="s" s="53">
+      <c r="D33" t="s" s="41">
         <v>80</v>
       </c>
-      <c r="E33" t="s" s="53">
+      <c r="E33" t="s" s="41">
         <v>81</v>
       </c>
-      <c r="F33" t="s" s="53">
+      <c r="F33" t="s" s="41">
         <v>81</v>
       </c>
-      <c r="G33" s="31">
-        <v>0</v>
-      </c>
-      <c r="H33" s="31">
-        <v>0</v>
-      </c>
-      <c r="I33" s="33">
+      <c r="G33" s="25">
+        <v>0</v>
+      </c>
+      <c r="H33" s="25">
+        <v>0</v>
+      </c>
+      <c r="I33" s="27">
         <f>C33+D33</f>
         <v>8678</v>
       </c>
-      <c r="J33" s="32">
+      <c r="J33" s="26">
         <f>F33+G33</f>
         <v>10499</v>
       </c>
-      <c r="K33" t="s" s="25">
+      <c r="K33" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="L33" t="s" s="25">
+      <c r="L33" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="M33" s="34"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="17"/>
-    </row>
-    <row r="34" ht="13.65" customHeight="1">
-      <c r="A34" t="s" s="76">
+      <c r="M33" s="28"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c r="A34" t="s" s="63">
         <v>82</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="79"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="80">
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65">
+        <f>SUM(F13:F14)</f>
+        <v>38509</v>
+      </c>
+      <c r="G34" s="65">
+        <f>SUM(G13:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="65">
+        <f>SUM(H13:H14)</f>
+        <v>38509</v>
+      </c>
+      <c r="I34" s="65">
+        <f>SUM(I13:I33)</f>
+        <v>3217196.81</v>
+      </c>
+      <c r="J34" s="66">
+        <f>J13+J14</f>
+        <v>77018</v>
+      </c>
+      <c r="K34" s="67"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="69"/>
+    </row>
+    <row r="35" ht="14.15" customHeight="1">
+      <c r="A35" t="s" s="70">
         <v>83</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="83"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="s" s="80">
+      <c r="B35" s="71"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="73"/>
+    </row>
+    <row r="36" ht="27" customHeight="1">
+      <c r="A36" t="s" s="74">
         <v>84</v>
       </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
+      <c r="B36" t="s" s="75">
+        <v>24</v>
+      </c>
+      <c r="C36" s="76">
+        <v>100</v>
+      </c>
+      <c r="D36" s="77"/>
+      <c r="E36" s="78">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="79">
+        <f>C36*E36</f>
+        <v>100000</v>
+      </c>
+      <c r="G36" s="76"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
       <c r="M36" s="81"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="83"/>
-    </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" t="s" s="48">
+    </row>
+    <row r="37" ht="27" customHeight="1">
+      <c r="A37" t="s" s="82">
         <v>85</v>
       </c>
-      <c r="B37" s="84"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
+      <c r="B37" t="s" s="75">
+        <v>24</v>
+      </c>
+      <c r="C37" s="76">
+        <v>20</v>
+      </c>
+      <c r="D37" s="83"/>
+      <c r="E37" s="78">
+        <v>700</v>
+      </c>
+      <c r="F37" s="79">
+        <f>C37*E37</f>
+        <v>14000</v>
+      </c>
+      <c r="G37" s="76"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
       <c r="M37" s="81"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="83"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="80">
+    </row>
+    <row r="38" ht="27" customHeight="1">
+      <c r="A38" t="s" s="84">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s" s="75">
+        <v>24</v>
+      </c>
+      <c r="C38" s="76">
+        <v>500</v>
+      </c>
+      <c r="D38" s="83"/>
+      <c r="E38" s="78">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="79">
+        <f>C38*E38</f>
+        <v>500000</v>
+      </c>
+      <c r="G38" s="76"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="81"/>
+    </row>
+    <row r="39" ht="27" customHeight="1">
+      <c r="A39" t="s" s="85">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s" s="75">
+        <v>24</v>
+      </c>
+      <c r="C39" s="76">
+        <v>400</v>
+      </c>
+      <c r="D39" s="83"/>
+      <c r="E39" s="78">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="79">
+        <f>C39*E39</f>
+        <v>400000</v>
+      </c>
+      <c r="G39" s="76"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="81"/>
+    </row>
+    <row r="40" ht="27" customHeight="1">
+      <c r="A40" t="s" s="74">
         <v>86</v>
       </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="83"/>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="83"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
+      <c r="B40" t="s" s="75">
+        <v>24</v>
+      </c>
+      <c r="C40" s="76">
+        <v>300</v>
+      </c>
+      <c r="D40" s="86"/>
+      <c r="E40" s="78">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="79">
+        <f>C40*E40</f>
+        <v>300000</v>
+      </c>
+      <c r="G40" s="76"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
       <c r="M40" s="81"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="83"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" t="s" s="85">
-        <v>87</v>
-      </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87">
-        <f>SUM(F22:F23)</f>
-        <v>1827970</v>
-      </c>
-      <c r="G41" s="87">
-        <f>SUM(G22:G23)</f>
-        <v>678636</v>
-      </c>
-      <c r="H41" s="87">
-        <f>SUM(H22:H23)</f>
-        <v>797145</v>
-      </c>
-      <c r="I41" s="87">
-        <f>SUM(I22:I40)</f>
-        <v>2014662.81</v>
-      </c>
-      <c r="J41" s="88">
-        <f>J22+J23</f>
-        <v>2232521</v>
-      </c>
-      <c r="K41" s="89"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="94"/>
+    </row>
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" s="87"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="89"/>
+    </row>
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" s="87"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="89"/>
+    </row>
+    <row r="43" ht="13.65" customHeight="1">
+      <c r="A43" s="90"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/grantova_zadost_labka__naceneni.xlsx
+++ b/grantova_zadost_labka__naceneni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -364,7 +364,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +381,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE4E1"/>
         <bgColor rgb="FFE6E6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -428,7 +434,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3399FF"/>
-        <bgColor rgb="FF33CCCC"/>
+        <bgColor rgb="FF00CCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -438,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -580,13 +586,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="double"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -596,13 +595,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="double"/>
       <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="double"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -636,7 +628,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="101">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -705,7 +697,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -745,15 +737,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -769,67 +757,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -841,16 +781,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -861,19 +797,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -901,159 +881,155 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1110,7 +1086,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3399FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF66CCFF"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -1137,27 +1113,27 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="76.8367346938775"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.02040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.61734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.59183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.4285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.6122448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.4489795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.0255102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.3877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="146.428571428571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="135.918367346939"/>
-    <col collapsed="false" hidden="false" max="1022" min="14" style="1" width="12.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.97959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="76"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="144.84693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="134.316326530612"/>
+    <col collapsed="false" hidden="false" max="1022" min="14" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,7 +3212,7 @@
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
@@ -3266,7 +3242,7 @@
         <v>57799</v>
       </c>
       <c r="J3" s="18" t="n">
-        <f aca="false">G3+H3+I3</f>
+        <f aca="false">F3+G3+H3</f>
         <v>57799</v>
       </c>
       <c r="K3" s="19" t="s">
@@ -4288,7 +4264,7 @@
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
         <v>19</v>
       </c>
@@ -4320,11 +4296,11 @@
         <f aca="false">F4+G4+H4</f>
         <v>145908</v>
       </c>
-      <c r="J4" s="28" t="n">
+      <c r="J4" s="18" t="n">
         <f aca="false">F4+G4+H4</f>
         <v>145908</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="20" t="s">
@@ -5341,11 +5317,11 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="24" t="n">
@@ -5371,17 +5347,17 @@
         <f aca="false">F5+G5+H5</f>
         <v>500000</v>
       </c>
-      <c r="J5" s="28" t="n">
+      <c r="J5" s="18" t="n">
         <f aca="false">F5+G5+H5</f>
         <v>500000</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="28" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="31" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="0"/>
@@ -6394,91 +6370,91 @@
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
     </row>
-    <row r="6" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
+    <row r="6" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="35" t="n">
+      <c r="C6" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="n">
+      <c r="D6" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="35" t="n">
+      <c r="E6" s="34" t="n">
         <v>200000</v>
       </c>
-      <c r="F6" s="35" t="n">
+      <c r="F6" s="34" t="n">
         <v>200000</v>
       </c>
-      <c r="G6" s="36" t="n">
+      <c r="G6" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="37" t="n">
+      <c r="H6" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="38" t="n">
+      <c r="I6" s="37" t="n">
         <f aca="false">F6+G6+H6</f>
         <v>200000</v>
       </c>
-      <c r="J6" s="39" t="n">
+      <c r="J6" s="18" t="n">
         <f aca="false">F6+G6+H6</f>
         <v>200000</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AMI6" s="43"/>
-      <c r="AMJ6" s="43"/>
+      <c r="AMI6" s="41"/>
+      <c r="AMJ6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="35" t="n">
+      <c r="C7" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="35" t="n">
+      <c r="D7" s="34" t="n">
         <v>107500</v>
       </c>
-      <c r="E7" s="35" t="n">
+      <c r="E7" s="34" t="n">
         <v>107500</v>
       </c>
-      <c r="F7" s="35" t="n">
+      <c r="F7" s="34" t="n">
         <v>107500</v>
       </c>
-      <c r="G7" s="35" t="n">
+      <c r="G7" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="37" t="n">
+      <c r="H7" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="38" t="n">
+      <c r="I7" s="37" t="n">
         <f aca="false">F7+G7+H7</f>
         <v>107500</v>
       </c>
-      <c r="J7" s="39" t="n">
+      <c r="J7" s="18" t="n">
         <f aca="false">F7+G7+H7</f>
         <v>107500</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="39" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="0"/>
@@ -7490,175 +7466,175 @@
       <c r="AMF7" s="0"/>
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
-      <c r="AMI7" s="43"/>
-      <c r="AMJ7" s="43"/>
+      <c r="AMI7" s="41"/>
+      <c r="AMJ7" s="41"/>
     </row>
-    <row r="8" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45" t="s">
+    <row r="8" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="47" t="n">
+      <c r="D8" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="47" t="n">
+      <c r="E8" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="47" t="n">
+      <c r="F8" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="48" t="n">
+      <c r="G8" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="49" t="n">
+      <c r="H8" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="50" t="n">
+      <c r="I8" s="48" t="n">
         <f aca="false">F8+G8+H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="51" t="n">
+      <c r="J8" s="18" t="n">
         <f aca="false">F8+G8+H8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="53"/>
-      <c r="AMI8" s="55"/>
-      <c r="AMJ8" s="55"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="50"/>
+      <c r="AMI8" s="52"/>
+      <c r="AMJ8" s="52"/>
     </row>
-    <row r="9" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="56" t="s">
+    <row r="9" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="36" t="n">
+      <c r="D9" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="36" t="n">
+      <c r="E9" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="36" t="n">
+      <c r="F9" s="35" t="n">
         <v>50000</v>
       </c>
-      <c r="G9" s="58" t="n">
+      <c r="G9" s="55" t="n">
         <v>50000</v>
       </c>
-      <c r="H9" s="37" t="n">
+      <c r="H9" s="36" t="n">
         <v>50000</v>
       </c>
-      <c r="I9" s="38" t="n">
+      <c r="I9" s="37" t="n">
         <f aca="false">F9+G9+H9</f>
         <v>150000</v>
       </c>
-      <c r="J9" s="39" t="n">
+      <c r="J9" s="18" t="n">
         <f aca="false">F9+G9+H9</f>
         <v>150000</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="59"/>
-      <c r="AMI9" s="43"/>
-      <c r="AMJ9" s="43"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="56"/>
+      <c r="AMI9" s="41"/>
+      <c r="AMJ9" s="41"/>
     </row>
-    <row r="10" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="56" t="s">
+    <row r="10" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="36" t="n">
+      <c r="D10" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="36" t="n">
+      <c r="E10" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="36" t="n">
+      <c r="F10" s="35" t="n">
         <v>30000</v>
       </c>
-      <c r="G10" s="58" t="n">
+      <c r="G10" s="55" t="n">
         <v>30000</v>
       </c>
-      <c r="H10" s="37" t="n">
+      <c r="H10" s="36" t="n">
         <v>30000</v>
       </c>
-      <c r="I10" s="38" t="n">
+      <c r="I10" s="37" t="n">
         <f aca="false">F10+G10+H10</f>
         <v>90000</v>
       </c>
-      <c r="J10" s="39" t="n">
+      <c r="J10" s="18" t="n">
         <f aca="false">F10+G10+H10</f>
         <v>90000</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="59"/>
-      <c r="AMI10" s="43"/>
-      <c r="AMJ10" s="43"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="56"/>
+      <c r="AMI10" s="41"/>
+      <c r="AMJ10" s="41"/>
     </row>
-    <row r="11" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="56" t="s">
+    <row r="11" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="36" t="n">
+      <c r="D11" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="36" t="n">
+      <c r="E11" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="36" t="n">
+      <c r="F11" s="35" t="n">
         <v>150000</v>
       </c>
-      <c r="G11" s="58" t="n">
+      <c r="G11" s="55" t="n">
         <v>50000</v>
       </c>
-      <c r="H11" s="37" t="n">
+      <c r="H11" s="36" t="n">
         <v>50000</v>
       </c>
-      <c r="I11" s="38" t="n">
+      <c r="I11" s="37" t="n">
         <f aca="false">F11+G11+H11</f>
         <v>250000</v>
       </c>
-      <c r="J11" s="39" t="n">
+      <c r="J11" s="18" t="n">
         <f aca="false">F11+G11+H11</f>
         <v>250000</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="59"/>
-      <c r="AMI11" s="43"/>
-      <c r="AMJ11" s="43"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="56"/>
+      <c r="AMI11" s="41"/>
+      <c r="AMJ11" s="41"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -7667,30 +7643,30 @@
       <c r="C12" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="58" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="59" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="27" t="n">
         <f aca="false">F12+G12+H12</f>
         <v>48780</v>
       </c>
-      <c r="J12" s="28" t="n">
+      <c r="J12" s="18" t="n">
         <f aca="false">F12+G12+H12</f>
         <v>48780</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="28" t="s">
         <v>16</v>
       </c>
       <c r="L12" s="20" t="s">
@@ -8709,8 +8685,8 @@
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="57" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -8719,7 +8695,7 @@
       <c r="C13" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="58" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="20" t="n">
@@ -8731,24 +8707,24 @@
       <c r="G13" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="63" t="n">
+      <c r="H13" s="60" t="n">
         <v>15790</v>
       </c>
       <c r="I13" s="27" t="n">
         <f aca="false">F13+G13+H13</f>
         <v>31580</v>
       </c>
-      <c r="J13" s="28" t="n">
+      <c r="J13" s="18" t="n">
         <f aca="false">F13+G13+H13</f>
         <v>31580</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="28" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="64"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
       <c r="P13" s="0"/>
@@ -9759,11 +9735,11 @@
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="24" t="n">
@@ -9782,24 +9758,24 @@
       <c r="G14" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="63" t="n">
+      <c r="H14" s="60" t="n">
         <v>22719</v>
       </c>
       <c r="I14" s="27" t="n">
         <f aca="false">F14+G14+H14</f>
         <v>45438</v>
       </c>
-      <c r="J14" s="28" t="n">
+      <c r="J14" s="18" t="n">
         <f aca="false">F14+G14+H14</f>
         <v>45438</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="28" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="64" t="s">
+      <c r="M14" s="61" t="s">
         <v>45</v>
       </c>
       <c r="N14" s="0"/>
@@ -10812,11 +10788,11 @@
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="65" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="n">
@@ -10842,17 +10818,17 @@
         <f aca="false">F15+G15+H15</f>
         <v>15000</v>
       </c>
-      <c r="J15" s="28" t="n">
+      <c r="J15" s="18" t="n">
         <f aca="false">F15+G15+H15</f>
         <v>15000</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="28" t="s">
         <v>16</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="64"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
       <c r="P15" s="0"/>
@@ -11863,11 +11839,11 @@
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="65" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="24" t="n">
@@ -11893,17 +11869,17 @@
         <f aca="false">F16+G16+H16</f>
         <v>14836</v>
       </c>
-      <c r="J16" s="28" t="n">
+      <c r="J16" s="18" t="n">
         <f aca="false">F16+G16+H16</f>
         <v>14836</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="28" t="s">
         <v>16</v>
       </c>
       <c r="L16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="64"/>
+      <c r="M16" s="61"/>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
       <c r="P16" s="0"/>
@@ -12914,17 +12890,17 @@
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="65" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="58" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="20" t="n">
@@ -12933,7 +12909,7 @@
       <c r="F17" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="58" t="s">
         <v>51</v>
       </c>
       <c r="H17" s="26" t="n">
@@ -12943,17 +12919,17 @@
         <f aca="false">F17+G17+H17</f>
         <v>39990</v>
       </c>
-      <c r="J17" s="28" t="n">
+      <c r="J17" s="18" t="n">
         <f aca="false">F17+G17+H17</f>
         <v>39990</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="28" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="64" t="s">
+      <c r="M17" s="61" t="s">
         <v>52</v>
       </c>
       <c r="N17" s="0"/>
@@ -13966,20 +13942,20 @@
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="65" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="58" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="24" t="n">
@@ -13992,21 +13968,21 @@
       <c r="H18" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="66" t="n">
+      <c r="I18" s="63" t="n">
         <f aca="false">F18+G18+H18</f>
         <v>35690</v>
       </c>
-      <c r="J18" s="67" t="n">
+      <c r="J18" s="18" t="n">
         <f aca="false">F18+G18+H18</f>
         <v>35690</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="28" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="64" t="s">
+      <c r="M18" s="61" t="s">
         <v>56</v>
       </c>
       <c r="N18" s="0"/>
@@ -15019,40 +14995,40 @@
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="65" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="61"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="20"/>
       <c r="F19" s="24" t="n">
         <v>80000</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="58" t="s">
         <v>58</v>
       </c>
       <c r="H19" s="26" t="n">
         <v>80000</v>
       </c>
-      <c r="I19" s="66" t="n">
+      <c r="I19" s="63" t="n">
         <f aca="false">F19+G19+H19</f>
         <v>240000</v>
       </c>
-      <c r="J19" s="67" t="n">
+      <c r="J19" s="18" t="n">
         <f aca="false">F19+G19+H19</f>
         <v>240000</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="28" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="20"/>
-      <c r="M19" s="64"/>
+      <c r="M19" s="61"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
       <c r="P19" s="0"/>
@@ -16063,18 +16039,18 @@
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="65" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="24" t="n">
         <v>200000</v>
       </c>
@@ -16084,19 +16060,19 @@
       <c r="H20" s="26" t="n">
         <v>200000</v>
       </c>
-      <c r="I20" s="66" t="n">
+      <c r="I20" s="63" t="n">
         <f aca="false">F20+G20+H20</f>
         <v>600000</v>
       </c>
-      <c r="J20" s="67" t="n">
+      <c r="J20" s="18" t="n">
         <f aca="false">F20+G20+H20</f>
         <v>600000</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="28" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="20"/>
-      <c r="M20" s="64"/>
+      <c r="M20" s="61"/>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
       <c r="P20" s="0"/>
@@ -17108,43 +17084,43 @@
       <c r="AMH20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="71" t="n">
+      <c r="D21" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="71" t="n">
+      <c r="E21" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="71" t="n">
+      <c r="F21" s="67" t="n">
         <v>50000</v>
       </c>
-      <c r="G21" s="71" t="n">
+      <c r="G21" s="67" t="n">
         <v>50000</v>
       </c>
-      <c r="H21" s="71" t="n">
+      <c r="H21" s="67" t="n">
         <v>80000</v>
       </c>
-      <c r="I21" s="72" t="n">
+      <c r="I21" s="68" t="n">
         <f aca="false">F21+G21+H21</f>
         <v>180000</v>
       </c>
-      <c r="J21" s="72" t="n">
+      <c r="J21" s="68" t="n">
         <f aca="false">F21+G21+H21</f>
         <v>180000</v>
       </c>
-      <c r="K21" s="70" t="s">
+      <c r="K21" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
       <c r="P21" s="0"/>
@@ -18156,38 +18132,38 @@
       <c r="AMH21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="75" t="n">
+      <c r="B22" s="70"/>
+      <c r="C22" s="71" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75" t="n">
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71" t="n">
         <f aca="false">SUM(F3:F19)</f>
         <v>1327970</v>
       </c>
-      <c r="G22" s="75" t="n">
+      <c r="G22" s="71" t="n">
         <f aca="false">SUM(G3:G19)</f>
         <v>178636</v>
       </c>
-      <c r="H22" s="75" t="n">
+      <c r="H22" s="71" t="n">
         <f aca="false">SUM(H3:H19)</f>
         <v>297145</v>
       </c>
-      <c r="I22" s="75" t="n">
+      <c r="I22" s="71" t="n">
         <f aca="false">SUM(I3:I19)</f>
         <v>1972521</v>
       </c>
-      <c r="J22" s="75" t="n">
+      <c r="J22" s="71" t="n">
         <f aca="false">SUM(J3:J19)</f>
         <v>1972521</v>
       </c>
-      <c r="K22" s="76"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="76"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="72"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
       <c r="P22" s="0"/>
@@ -19198,38 +19174,39 @@
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="78" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="80" t="n">
+      <c r="C23" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80" t="n">
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="77" t="n">
+        <f aca="false">H23+G23+F23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="78" t="n">
         <v>500000</v>
       </c>
-      <c r="G23" s="80" t="n">
-        <v>500000</v>
-      </c>
-      <c r="H23" s="80" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I23" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="82" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K23" s="83"/>
-      <c r="L23" s="84" t="s">
+      <c r="K23" s="79"/>
+      <c r="L23" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="85"/>
+      <c r="M23" s="81"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
       <c r="P23" s="0"/>
@@ -20240,81 +20217,85 @@
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
     </row>
-    <row r="24" s="86" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="68" t="s">
+    <row r="24" s="82" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="71" t="n">
+      <c r="D24" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="71" t="n">
+      <c r="E24" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="71" t="n">
+      <c r="F24" s="67" t="n">
         <v>5000</v>
       </c>
-      <c r="G24" s="71" t="n">
+      <c r="G24" s="67" t="n">
         <v>5000</v>
       </c>
-      <c r="H24" s="71" t="n">
+      <c r="H24" s="67" t="n">
         <v>5000</v>
       </c>
-      <c r="I24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="70" t="s">
+      <c r="I24" s="77" t="n">
+        <f aca="false">H24+G24+F24</f>
+        <v>15000</v>
+      </c>
+      <c r="J24" s="68" t="n">
+        <f aca="false">H24+G24+F24</f>
+        <v>15000</v>
+      </c>
+      <c r="K24" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="AMI24" s="87"/>
-      <c r="AMJ24" s="87"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="AMI24" s="83"/>
+      <c r="AMJ24" s="83"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="71" t="n">
+      <c r="D25" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="71" t="n">
+      <c r="E25" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="71" t="n">
+      <c r="F25" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="71" t="n">
+      <c r="G25" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="71" t="n">
+      <c r="H25" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="72" t="n">
+      <c r="I25" s="77" t="n">
+        <f aca="false">H25+G25+F25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="72" t="n">
+      <c r="J25" s="68" t="n">
+        <f aca="false">H25+G25+F25</f>
         <v>0</v>
       </c>
-      <c r="K25" s="70" t="s">
+      <c r="K25" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
       <c r="P25" s="0"/>
@@ -21326,41 +21307,43 @@
       <c r="AMH25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="71" t="n">
+      <c r="D26" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="71" t="n">
+      <c r="E26" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="71" t="n">
+      <c r="F26" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="71" t="n">
+      <c r="G26" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="H26" s="71" t="n">
+      <c r="H26" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="72" t="n">
+      <c r="I26" s="77" t="n">
+        <f aca="false">H26+G26+F26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="72" t="n">
+      <c r="J26" s="68" t="n">
+        <f aca="false">H26+G26+F26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
       <c r="P26" s="0"/>
@@ -22372,41 +22355,43 @@
       <c r="AMH26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="71" t="n">
+      <c r="D27" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="71" t="n">
+      <c r="E27" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="71" t="n">
+      <c r="F27" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="71" t="n">
+      <c r="G27" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="71" t="n">
+      <c r="H27" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="72" t="n">
+      <c r="I27" s="77" t="n">
+        <f aca="false">H27+G27+F27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="72" t="n">
+      <c r="J27" s="68" t="n">
+        <f aca="false">H27+G27+F27</f>
         <v>0</v>
       </c>
-      <c r="K27" s="70" t="s">
+      <c r="K27" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
       <c r="P27" s="0"/>
@@ -23418,41 +23403,43 @@
       <c r="AMH27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="71" t="n">
+      <c r="D28" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="71" t="n">
+      <c r="E28" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="71" t="n">
+      <c r="F28" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="71" t="n">
+      <c r="G28" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="71" t="n">
+      <c r="H28" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="72" t="n">
+      <c r="I28" s="77" t="n">
+        <f aca="false">H28+G28+F28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="72" t="n">
+      <c r="J28" s="68" t="n">
+        <f aca="false">H28+G28+F28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="70" t="s">
+      <c r="K28" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="0"/>
       <c r="O28" s="0"/>
       <c r="P28" s="0"/>
@@ -24464,35 +24451,41 @@
       <c r="AMH28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="71" t="n">
+      <c r="C29" s="67" t="n">
         <v>4</v>
       </c>
-      <c r="D29" s="71" t="n">
+      <c r="D29" s="67" t="n">
         <v>25000</v>
       </c>
-      <c r="E29" s="71" t="n">
+      <c r="E29" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="71" t="n">
+      <c r="F29" s="67" t="n">
         <v>50000</v>
       </c>
-      <c r="G29" s="71" t="n">
+      <c r="G29" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="H29" s="71" t="n">
+      <c r="H29" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
+      <c r="I29" s="77" t="n">
+        <f aca="false">H29+G29+F29</f>
+        <v>50000</v>
+      </c>
+      <c r="J29" s="68" t="n">
+        <f aca="false">H29+G29+F29</f>
+        <v>50000</v>
+      </c>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
       <c r="P29" s="0"/>
@@ -25503,44 +25496,46 @@
       <c r="AMG29" s="0"/>
       <c r="AMH29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="68" t="s">
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="71" t="n">
+      <c r="C30" s="67" t="n">
         <v>1000</v>
       </c>
-      <c r="D30" s="71" t="n">
+      <c r="D30" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="E30" s="71" t="n">
+      <c r="E30" s="67" t="n">
         <v>50000</v>
       </c>
-      <c r="F30" s="71" t="n">
+      <c r="F30" s="67" t="n">
         <v>50000</v>
       </c>
-      <c r="G30" s="71" t="n">
+      <c r="G30" s="67" t="n">
         <v>50000</v>
       </c>
-      <c r="H30" s="71" t="n">
+      <c r="H30" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="70" t="s">
+      <c r="I30" s="77" t="n">
+        <f aca="false">H30+G30+F30</f>
+        <v>100000</v>
+      </c>
+      <c r="J30" s="68" t="n">
+        <f aca="false">H30+G30+F30</f>
+        <v>100000</v>
+      </c>
+      <c r="K30" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="70" t="s">
+      <c r="L30" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="M30" s="71"/>
+      <c r="M30" s="67"/>
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
       <c r="P30" s="0"/>
@@ -26551,44 +26546,46 @@
       <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="88" t="s">
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="90" t="s">
+      <c r="C31" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="71" t="n">
+      <c r="D31" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="71" t="n">
+      <c r="E31" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="F31" s="71" t="n">
+      <c r="F31" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="71" t="n">
+      <c r="G31" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="71" t="n">
+      <c r="H31" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="72" t="n">
+      <c r="I31" s="77" t="n">
+        <f aca="false">H31+G31+F31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="72" t="n">
+      <c r="J31" s="68" t="n">
+        <f aca="false">H31+G31+F31</f>
         <v>0</v>
       </c>
-      <c r="K31" s="70" t="s">
+      <c r="K31" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="70" t="s">
+      <c r="L31" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="M31" s="71"/>
+      <c r="M31" s="67"/>
       <c r="N31" s="0"/>
       <c r="O31" s="0"/>
       <c r="P31" s="0"/>
@@ -27600,45 +27597,45 @@
       <c r="AMH31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="91" t="n">
+      <c r="C32" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="91" t="n">
+      <c r="D32" s="87" t="n">
         <v>33462.81</v>
       </c>
-      <c r="E32" s="91" t="n">
+      <c r="E32" s="87" t="n">
         <v>40490</v>
       </c>
-      <c r="F32" s="91" t="n">
+      <c r="F32" s="87" t="n">
         <v>40490</v>
       </c>
-      <c r="G32" s="71" t="n">
+      <c r="G32" s="67" t="n">
         <v>20000</v>
       </c>
-      <c r="H32" s="71" t="n">
+      <c r="H32" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="72" t="n">
-        <f aca="false">C32+D32</f>
-        <v>33463.81</v>
-      </c>
-      <c r="J32" s="72" t="n">
-        <f aca="false">F32+G32</f>
+      <c r="I32" s="77" t="n">
+        <f aca="false">H32+G32+F32</f>
         <v>60490</v>
       </c>
-      <c r="K32" s="70" t="s">
+      <c r="J32" s="68" t="n">
+        <f aca="false">H32+G32+F32</f>
+        <v>60490</v>
+      </c>
+      <c r="K32" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="70" t="s">
+      <c r="L32" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="92" t="s">
+      <c r="M32" s="88" t="s">
         <v>77</v>
       </c>
       <c r="N32" s="0"/>
@@ -28652,45 +28649,45 @@
       <c r="AMH32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="91" t="n">
+      <c r="C33" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="93" t="s">
+      <c r="D33" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="93" t="s">
+      <c r="E33" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="71" t="n">
+      <c r="G33" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="H33" s="71" t="n">
+      <c r="H33" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="72" t="n">
-        <f aca="false">C33+D33</f>
-        <v>8678</v>
-      </c>
-      <c r="J33" s="72" t="n">
-        <f aca="false">F33+G33</f>
+      <c r="I33" s="77" t="n">
+        <f aca="false">H33+G33+F33</f>
         <v>10499</v>
       </c>
-      <c r="K33" s="70" t="s">
+      <c r="J33" s="68" t="n">
+        <f aca="false">H33+G33+F33</f>
+        <v>10499</v>
+      </c>
+      <c r="K33" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="70" t="s">
+      <c r="L33" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="M33" s="94"/>
+      <c r="M33" s="90"/>
       <c r="N33" s="0"/>
       <c r="O33" s="0"/>
       <c r="P33" s="0"/>
@@ -29702,36 +29699,36 @@
       <c r="AMH33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="96"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97" t="n">
+      <c r="B34" s="92"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93" t="n">
         <f aca="false">SUM(F13:F14)</f>
         <v>38509</v>
       </c>
-      <c r="G34" s="97" t="n">
+      <c r="G34" s="93" t="n">
         <f aca="false">SUM(G13:G14)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="97" t="n">
+      <c r="H34" s="93" t="n">
         <f aca="false">SUM(H13:H14)</f>
         <v>38509</v>
       </c>
-      <c r="I34" s="97" t="n">
-        <f aca="false">SUM(I13:I33)</f>
-        <v>3217196.81</v>
-      </c>
-      <c r="J34" s="98" t="n">
-        <f aca="false">J13+J14</f>
-        <v>77018</v>
-      </c>
-      <c r="K34" s="98"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="98"/>
+      <c r="I34" s="93" t="n">
+        <f aca="false">SUM(I22:I33)</f>
+        <v>2208510</v>
+      </c>
+      <c r="J34" s="94" t="n">
+        <f aca="false">SUM(J22:J33)</f>
+        <v>2708510</v>
+      </c>
+      <c r="K34" s="94"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="94"/>
       <c r="N34" s="0"/>
       <c r="O34" s="0"/>
       <c r="P34" s="0"/>
@@ -30743,21 +30740,21 @@
       <c r="AMH34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="100" t="s">
+      <c r="A35" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
       <c r="N35" s="0"/>
       <c r="O35" s="0"/>
       <c r="P35" s="0"/>
@@ -31768,41 +31765,41 @@
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="102" t="s">
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="71" t="n">
+      <c r="C36" s="67" t="n">
         <v>100</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="71" t="n">
+      <c r="D36" s="99"/>
+      <c r="E36" s="67" t="n">
         <v>1000</v>
       </c>
-      <c r="F36" s="91" t="n">
+      <c r="F36" s="87" t="n">
         <f aca="false">C36*E36</f>
         <v>100000</v>
       </c>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="91" t="n">
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="87" t="n">
         <f aca="false">C36*E36</f>
         <v>100000</v>
       </c>
-      <c r="J36" s="91" t="n">
-        <f aca="false">D36*F36</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="70" t="s">
+      <c r="J36" s="87" t="n">
+        <f aca="false">I36</f>
+        <v>100000</v>
+      </c>
+      <c r="K36" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="70" t="s">
+      <c r="L36" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="71"/>
+      <c r="M36" s="67"/>
       <c r="N36" s="0"/>
       <c r="O36" s="0"/>
       <c r="P36" s="0"/>
@@ -32813,41 +32810,41 @@
       <c r="AMG36" s="0"/>
       <c r="AMH36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="68" t="s">
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="71" t="n">
+      <c r="C37" s="67" t="n">
         <v>20</v>
       </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="71" t="n">
+      <c r="D37" s="99"/>
+      <c r="E37" s="67" t="n">
         <v>700</v>
       </c>
-      <c r="F37" s="91" t="n">
+      <c r="F37" s="87" t="n">
         <f aca="false">C37*E37</f>
         <v>14000</v>
       </c>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="91" t="n">
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="87" t="n">
         <f aca="false">C37*E37</f>
         <v>14000</v>
       </c>
-      <c r="J37" s="91" t="n">
-        <f aca="false">D37*F37</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="70" t="s">
+      <c r="J37" s="87" t="n">
+        <f aca="false">I37</f>
+        <v>14000</v>
+      </c>
+      <c r="K37" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="70" t="s">
+      <c r="L37" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="71"/>
+      <c r="M37" s="67"/>
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
       <c r="P37" s="0"/>
@@ -33858,41 +33855,41 @@
       <c r="AMG37" s="0"/>
       <c r="AMH37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="102" t="s">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="71" t="n">
+      <c r="C38" s="67" t="n">
         <v>500</v>
       </c>
-      <c r="D38" s="103"/>
-      <c r="E38" s="71" t="n">
+      <c r="D38" s="99"/>
+      <c r="E38" s="67" t="n">
         <v>1000</v>
       </c>
-      <c r="F38" s="91" t="n">
+      <c r="F38" s="87" t="n">
         <f aca="false">C38*E38</f>
         <v>500000</v>
       </c>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="91" t="n">
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="87" t="n">
         <f aca="false">C38*E38</f>
         <v>500000</v>
       </c>
-      <c r="J38" s="91" t="n">
-        <f aca="false">D38*F38</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="70" t="s">
+      <c r="J38" s="87" t="n">
+        <f aca="false">I38</f>
+        <v>500000</v>
+      </c>
+      <c r="K38" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="70" t="s">
+      <c r="L38" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="M38" s="71"/>
+      <c r="M38" s="67"/>
       <c r="N38" s="0"/>
       <c r="O38" s="0"/>
       <c r="P38" s="0"/>
@@ -34903,41 +34900,41 @@
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="104" t="s">
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="71" t="n">
+      <c r="C39" s="67" t="n">
         <v>400</v>
       </c>
-      <c r="D39" s="103"/>
-      <c r="E39" s="71" t="n">
+      <c r="D39" s="99"/>
+      <c r="E39" s="67" t="n">
         <v>1000</v>
       </c>
-      <c r="F39" s="91" t="n">
+      <c r="F39" s="87" t="n">
         <f aca="false">C39*E39</f>
         <v>400000</v>
       </c>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="91" t="n">
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="87" t="n">
         <f aca="false">C39*E39</f>
         <v>400000</v>
       </c>
-      <c r="J39" s="91" t="n">
-        <f aca="false">D39*F39</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="70" t="s">
+      <c r="J39" s="87" t="n">
+        <f aca="false">I39</f>
+        <v>400000</v>
+      </c>
+      <c r="K39" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="70" t="s">
+      <c r="L39" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="71"/>
+      <c r="M39" s="67"/>
       <c r="N39" s="0"/>
       <c r="O39" s="0"/>
       <c r="P39" s="0"/>
@@ -35948,41 +35945,51 @@
       <c r="AMG39" s="0"/>
       <c r="AMH39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="102" t="s">
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="71" t="n">
+      <c r="C40" s="67" t="n">
         <v>300</v>
       </c>
-      <c r="D40" s="103"/>
-      <c r="E40" s="71" t="n">
+      <c r="D40" s="99"/>
+      <c r="E40" s="67" t="n">
         <v>1000</v>
       </c>
-      <c r="F40" s="91" t="n">
+      <c r="F40" s="87" t="n">
         <f aca="false">C40*E40</f>
         <v>300000</v>
       </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="91" t="n">
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="87" t="n">
         <f aca="false">C40*E40</f>
         <v>300000</v>
       </c>
-      <c r="J40" s="91" t="n">
-        <f aca="false">D40*F40</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="70" t="s">
+      <c r="J40" s="87" t="n">
+        <f aca="false">I40</f>
+        <v>300000</v>
+      </c>
+      <c r="K40" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="70" t="s">
+      <c r="L40" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="M40" s="71"/>
+      <c r="M40" s="67"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I41" s="1" t="n">
+        <f aca="false">SUM(I34:I40)</f>
+        <v>3522510</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <f aca="false">SUM(J34:J40)</f>
+        <v>4022510</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/grantova_zadost_labka__naceneni.xlsx
+++ b/grantova_zadost_labka__naceneni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -294,7 +294,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -360,6 +360,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -628,7 +635,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -781,6 +788,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -822,6 +833,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -905,6 +920,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -954,6 +973,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="11" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,14 +1136,14 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="76"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.39795918367347"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6632653061225"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.23469387755102"/>
@@ -6370,7 +6393,7 @@
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
     </row>
-    <row r="6" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="41" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
         <v>27</v>
       </c>
@@ -6399,24 +6422,24 @@
         <f aca="false">F6+G6+H6</f>
         <v>200000</v>
       </c>
-      <c r="J6" s="18" t="n">
+      <c r="J6" s="38" t="n">
         <f aca="false">F6+G6+H6</f>
         <v>200000</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="39" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AMI6" s="41"/>
-      <c r="AMJ6" s="41"/>
+      <c r="AMI6" s="42"/>
+      <c r="AMJ6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="33" t="s">
@@ -6444,17 +6467,17 @@
         <f aca="false">F7+G7+H7</f>
         <v>107500</v>
       </c>
-      <c r="J7" s="18" t="n">
+      <c r="J7" s="38" t="n">
         <f aca="false">F7+G7+H7</f>
         <v>107500</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="39" t="s">
         <v>16</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="40" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="0"/>
@@ -7466,55 +7489,55 @@
       <c r="AMF7" s="0"/>
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
-      <c r="AMI7" s="41"/>
-      <c r="AMJ7" s="41"/>
+      <c r="AMI7" s="42"/>
+      <c r="AMJ7" s="42"/>
     </row>
-    <row r="8" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
+    <row r="8" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="45" t="n">
+      <c r="D8" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="45" t="n">
+      <c r="E8" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="45" t="n">
+      <c r="F8" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="46" t="n">
+      <c r="G8" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="47" t="n">
+      <c r="H8" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="48" t="n">
+      <c r="I8" s="49" t="n">
         <f aca="false">F8+G8+H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="18" t="n">
+      <c r="J8" s="50" t="n">
         <f aca="false">F8+G8+H8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="50"/>
-      <c r="AMI8" s="52"/>
-      <c r="AMJ8" s="52"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="52"/>
+      <c r="AMI8" s="54"/>
+      <c r="AMJ8" s="54"/>
     </row>
-    <row r="9" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="53" t="s">
+    <row r="9" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="56" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="35" t="s">
@@ -7529,7 +7552,7 @@
       <c r="F9" s="35" t="n">
         <v>50000</v>
       </c>
-      <c r="G9" s="55" t="n">
+      <c r="G9" s="57" t="n">
         <v>50000</v>
       </c>
       <c r="H9" s="36" t="n">
@@ -7539,23 +7562,23 @@
         <f aca="false">F9+G9+H9</f>
         <v>150000</v>
       </c>
-      <c r="J9" s="18" t="n">
+      <c r="J9" s="38" t="n">
         <f aca="false">F9+G9+H9</f>
         <v>150000</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="39" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="35"/>
-      <c r="M9" s="56"/>
-      <c r="AMI9" s="41"/>
-      <c r="AMJ9" s="41"/>
+      <c r="M9" s="58"/>
+      <c r="AMI9" s="42"/>
+      <c r="AMJ9" s="42"/>
     </row>
-    <row r="10" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="53" t="s">
+    <row r="10" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="56" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -7570,7 +7593,7 @@
       <c r="F10" s="35" t="n">
         <v>30000</v>
       </c>
-      <c r="G10" s="55" t="n">
+      <c r="G10" s="57" t="n">
         <v>30000</v>
       </c>
       <c r="H10" s="36" t="n">
@@ -7580,23 +7603,23 @@
         <f aca="false">F10+G10+H10</f>
         <v>90000</v>
       </c>
-      <c r="J10" s="18" t="n">
+      <c r="J10" s="38" t="n">
         <f aca="false">F10+G10+H10</f>
         <v>90000</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="39" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="35"/>
-      <c r="M10" s="56"/>
-      <c r="AMI10" s="41"/>
-      <c r="AMJ10" s="41"/>
+      <c r="M10" s="58"/>
+      <c r="AMI10" s="42"/>
+      <c r="AMJ10" s="42"/>
     </row>
-    <row r="11" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="53" t="s">
+    <row r="11" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="56" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -7611,7 +7634,7 @@
       <c r="F11" s="35" t="n">
         <v>150000</v>
       </c>
-      <c r="G11" s="55" t="n">
+      <c r="G11" s="57" t="n">
         <v>50000</v>
       </c>
       <c r="H11" s="36" t="n">
@@ -7621,20 +7644,20 @@
         <f aca="false">F11+G11+H11</f>
         <v>250000</v>
       </c>
-      <c r="J11" s="18" t="n">
+      <c r="J11" s="38" t="n">
         <f aca="false">F11+G11+H11</f>
         <v>250000</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="39" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="35"/>
-      <c r="M11" s="56"/>
-      <c r="AMI11" s="41"/>
-      <c r="AMJ11" s="41"/>
+      <c r="M11" s="58"/>
+      <c r="AMI11" s="42"/>
+      <c r="AMJ11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="59" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -7643,19 +7666,19 @@
       <c r="C12" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="60" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="60" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="61" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="27" t="n">
@@ -8686,7 +8709,7 @@
       <c r="AMH12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -8695,7 +8718,7 @@
       <c r="C13" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="60" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="20" t="n">
@@ -8707,7 +8730,7 @@
       <c r="G13" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="60" t="n">
+      <c r="H13" s="62" t="n">
         <v>15790</v>
       </c>
       <c r="I13" s="27" t="n">
@@ -8724,7 +8747,7 @@
       <c r="L13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="61"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
       <c r="P13" s="0"/>
@@ -9758,7 +9781,7 @@
       <c r="G14" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="60" t="n">
+      <c r="H14" s="62" t="n">
         <v>22719</v>
       </c>
       <c r="I14" s="27" t="n">
@@ -9775,7 +9798,7 @@
       <c r="L14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="61" t="s">
+      <c r="M14" s="63" t="s">
         <v>45</v>
       </c>
       <c r="N14" s="0"/>
@@ -10789,7 +10812,7 @@
       <c r="AMH14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="64" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -10828,7 +10851,7 @@
       <c r="L15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="61"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
       <c r="P15" s="0"/>
@@ -11840,7 +11863,7 @@
       <c r="AMH15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="64" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -11879,7 +11902,7 @@
       <c r="L16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="61"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
       <c r="P16" s="0"/>
@@ -12891,7 +12914,7 @@
       <c r="AMH16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="64" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -12900,7 +12923,7 @@
       <c r="C17" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="60" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="20" t="n">
@@ -12909,7 +12932,7 @@
       <c r="F17" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="60" t="s">
         <v>51</v>
       </c>
       <c r="H17" s="26" t="n">
@@ -12929,7 +12952,7 @@
       <c r="L17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="61" t="s">
+      <c r="M17" s="63" t="s">
         <v>52</v>
       </c>
       <c r="N17" s="0"/>
@@ -13943,7 +13966,7 @@
       <c r="AMH17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="64" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -13952,10 +13975,10 @@
       <c r="C18" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="60" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="24" t="n">
@@ -13968,7 +13991,7 @@
       <c r="H18" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="63" t="n">
+      <c r="I18" s="65" t="n">
         <f aca="false">F18+G18+H18</f>
         <v>35690</v>
       </c>
@@ -13982,7 +14005,7 @@
       <c r="L18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="61" t="s">
+      <c r="M18" s="63" t="s">
         <v>56</v>
       </c>
       <c r="N18" s="0"/>
@@ -14996,7 +15019,7 @@
       <c r="AMH18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="64" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="30" t="s">
@@ -15005,18 +15028,18 @@
       <c r="C19" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="20"/>
       <c r="F19" s="24" t="n">
         <v>80000</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="60" t="s">
         <v>58</v>
       </c>
       <c r="H19" s="26" t="n">
         <v>80000</v>
       </c>
-      <c r="I19" s="63" t="n">
+      <c r="I19" s="65" t="n">
         <f aca="false">F19+G19+H19</f>
         <v>240000</v>
       </c>
@@ -15028,7 +15051,7 @@
         <v>21</v>
       </c>
       <c r="L19" s="20"/>
-      <c r="M19" s="61"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
       <c r="P19" s="0"/>
@@ -16040,7 +16063,7 @@
       <c r="AMH19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="64" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -16049,8 +16072,8 @@
       <c r="C20" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="24" t="n">
         <v>200000</v>
       </c>
@@ -16060,7 +16083,7 @@
       <c r="H20" s="26" t="n">
         <v>200000</v>
       </c>
-      <c r="I20" s="63" t="n">
+      <c r="I20" s="65" t="n">
         <f aca="false">F20+G20+H20</f>
         <v>600000</v>
       </c>
@@ -16072,7 +16095,7 @@
         <v>21</v>
       </c>
       <c r="L20" s="20"/>
-      <c r="M20" s="61"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
       <c r="P20" s="0"/>
@@ -17084,43 +17107,43 @@
       <c r="AMH20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="67" t="n">
+      <c r="D21" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="67" t="n">
+      <c r="E21" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="67" t="n">
+      <c r="F21" s="69" t="n">
         <v>50000</v>
       </c>
-      <c r="G21" s="67" t="n">
+      <c r="G21" s="69" t="n">
         <v>50000</v>
       </c>
-      <c r="H21" s="67" t="n">
+      <c r="H21" s="69" t="n">
         <v>80000</v>
       </c>
-      <c r="I21" s="68" t="n">
+      <c r="I21" s="70" t="n">
         <f aca="false">F21+G21+H21</f>
         <v>180000</v>
       </c>
-      <c r="J21" s="68" t="n">
+      <c r="J21" s="71" t="n">
         <f aca="false">F21+G21+H21</f>
         <v>180000</v>
       </c>
-      <c r="K21" s="66" t="s">
+      <c r="K21" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
       <c r="P21" s="0"/>
@@ -18132,38 +18155,38 @@
       <c r="AMH21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="71" t="n">
+      <c r="B22" s="73"/>
+      <c r="C22" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71" t="n">
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74" t="n">
         <f aca="false">SUM(F3:F19)</f>
         <v>1327970</v>
       </c>
-      <c r="G22" s="71" t="n">
+      <c r="G22" s="74" t="n">
         <f aca="false">SUM(G3:G19)</f>
         <v>178636</v>
       </c>
-      <c r="H22" s="71" t="n">
+      <c r="H22" s="74" t="n">
         <f aca="false">SUM(H3:H19)</f>
         <v>297145</v>
       </c>
-      <c r="I22" s="71" t="n">
+      <c r="I22" s="74" t="n">
         <f aca="false">SUM(I3:I19)</f>
         <v>1972521</v>
       </c>
-      <c r="J22" s="71" t="n">
+      <c r="J22" s="74" t="n">
         <f aca="false">SUM(J3:J19)</f>
         <v>1972521</v>
       </c>
-      <c r="K22" s="72"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="72"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="75"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
       <c r="P22" s="0"/>
@@ -19175,38 +19198,38 @@
       <c r="AMH22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="76" t="n">
+      <c r="C23" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76" t="n">
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="76" t="n">
+      <c r="G23" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="76" t="n">
+      <c r="H23" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="77" t="n">
+      <c r="I23" s="80" t="n">
         <f aca="false">H23+G23+F23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="78" t="n">
+      <c r="J23" s="81" t="n">
         <v>500000</v>
       </c>
-      <c r="K23" s="79"/>
-      <c r="L23" s="80" t="s">
+      <c r="K23" s="82"/>
+      <c r="L23" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="81"/>
+      <c r="M23" s="84"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
       <c r="P23" s="0"/>
@@ -20217,85 +20240,85 @@
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
     </row>
-    <row r="24" s="82" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="64" t="s">
+    <row r="24" s="86" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="67" t="n">
+      <c r="D24" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="67" t="n">
+      <c r="E24" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="67" t="n">
+      <c r="F24" s="69" t="n">
         <v>5000</v>
       </c>
-      <c r="G24" s="67" t="n">
+      <c r="G24" s="69" t="n">
         <v>5000</v>
       </c>
-      <c r="H24" s="67" t="n">
+      <c r="H24" s="69" t="n">
         <v>5000</v>
       </c>
-      <c r="I24" s="77" t="n">
+      <c r="I24" s="85" t="n">
         <f aca="false">H24+G24+F24</f>
         <v>15000</v>
       </c>
-      <c r="J24" s="68" t="n">
+      <c r="J24" s="70" t="n">
         <f aca="false">H24+G24+F24</f>
         <v>15000</v>
       </c>
-      <c r="K24" s="66" t="s">
+      <c r="K24" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="AMI24" s="83"/>
-      <c r="AMJ24" s="83"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="AMI24" s="87"/>
+      <c r="AMJ24" s="87"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="67" t="n">
+      <c r="D25" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="67" t="n">
+      <c r="E25" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="67" t="n">
+      <c r="F25" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="67" t="n">
+      <c r="G25" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="67" t="n">
+      <c r="H25" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="77" t="n">
+      <c r="I25" s="85" t="n">
         <f aca="false">H25+G25+F25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="68" t="n">
+      <c r="J25" s="70" t="n">
         <f aca="false">H25+G25+F25</f>
         <v>0</v>
       </c>
-      <c r="K25" s="66" t="s">
+      <c r="K25" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
       <c r="P25" s="0"/>
@@ -21307,43 +21330,43 @@
       <c r="AMH25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="67" t="n">
+      <c r="D26" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="67" t="n">
+      <c r="E26" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="67" t="n">
+      <c r="F26" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="67" t="n">
+      <c r="G26" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="H26" s="67" t="n">
+      <c r="H26" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="77" t="n">
+      <c r="I26" s="85" t="n">
         <f aca="false">H26+G26+F26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="68" t="n">
+      <c r="J26" s="70" t="n">
         <f aca="false">H26+G26+F26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="66" t="s">
+      <c r="K26" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
       <c r="P26" s="0"/>
@@ -22355,43 +22378,43 @@
       <c r="AMH26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="67" t="n">
+      <c r="D27" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="67" t="n">
+      <c r="E27" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="67" t="n">
+      <c r="F27" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="67" t="n">
+      <c r="G27" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="67" t="n">
+      <c r="H27" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="77" t="n">
+      <c r="I27" s="85" t="n">
         <f aca="false">H27+G27+F27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="68" t="n">
+      <c r="J27" s="70" t="n">
         <f aca="false">H27+G27+F27</f>
         <v>0</v>
       </c>
-      <c r="K27" s="66" t="s">
+      <c r="K27" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
       <c r="P27" s="0"/>
@@ -23403,43 +23426,43 @@
       <c r="AMH27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="67" t="n">
+      <c r="D28" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="67" t="n">
+      <c r="E28" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="67" t="n">
+      <c r="F28" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="67" t="n">
+      <c r="G28" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="67" t="n">
+      <c r="H28" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="77" t="n">
+      <c r="I28" s="85" t="n">
         <f aca="false">H28+G28+F28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="68" t="n">
+      <c r="J28" s="70" t="n">
         <f aca="false">H28+G28+F28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="66" t="s">
+      <c r="K28" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
       <c r="N28" s="0"/>
       <c r="O28" s="0"/>
       <c r="P28" s="0"/>
@@ -24451,41 +24474,42 @@
       <c r="AMH28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="67" t="n">
+      <c r="C29" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="D29" s="67" t="n">
-        <v>25000</v>
-      </c>
-      <c r="E29" s="67" t="n">
+      <c r="D29" s="69" t="n">
+        <v>17871</v>
+      </c>
+      <c r="E29" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="67" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G29" s="67" t="n">
+      <c r="F29" s="69" t="n">
+        <f aca="false">D29*C29</f>
+        <v>71484</v>
+      </c>
+      <c r="G29" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="H29" s="67" t="n">
+      <c r="H29" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="77" t="n">
+      <c r="I29" s="85" t="n">
         <f aca="false">H29+G29+F29</f>
-        <v>50000</v>
-      </c>
-      <c r="J29" s="68" t="n">
+        <v>71484</v>
+      </c>
+      <c r="J29" s="70" t="n">
         <f aca="false">H29+G29+F29</f>
-        <v>50000</v>
-      </c>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
+        <v>71484</v>
+      </c>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
       <c r="P29" s="0"/>
@@ -25496,46 +25520,47 @@
       <c r="AMG29" s="0"/>
       <c r="AMH29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="64" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="67" t="n">
+      <c r="C30" s="69" t="n">
         <v>1000</v>
       </c>
-      <c r="D30" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="67" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F30" s="67" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G30" s="67" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H30" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="77" t="n">
+      <c r="D30" s="69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69" t="n">
+        <f aca="false">D30*C30</f>
+        <v>5000</v>
+      </c>
+      <c r="G30" s="69" t="n">
+        <f aca="false">D30*C30</f>
+        <v>5000</v>
+      </c>
+      <c r="H30" s="69" t="n">
+        <f aca="false">C30*D30</f>
+        <v>5000</v>
+      </c>
+      <c r="I30" s="85" t="n">
         <f aca="false">H30+G30+F30</f>
-        <v>100000</v>
-      </c>
-      <c r="J30" s="68" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J30" s="70" t="n">
         <f aca="false">H30+G30+F30</f>
-        <v>100000</v>
-      </c>
-      <c r="K30" s="66" t="s">
+        <v>15000</v>
+      </c>
+      <c r="K30" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="66" t="s">
+      <c r="L30" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="M30" s="67"/>
+      <c r="M30" s="69"/>
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
       <c r="P30" s="0"/>
@@ -26546,46 +26571,46 @@
       <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="84" t="s">
+    <row r="31" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="67" t="n">
+      <c r="D31" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="67" t="n">
+      <c r="E31" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="F31" s="67" t="n">
+      <c r="F31" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="67" t="n">
+      <c r="G31" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="67" t="n">
+      <c r="H31" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="77" t="n">
+      <c r="I31" s="85" t="n">
         <f aca="false">H31+G31+F31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="68" t="n">
+      <c r="J31" s="70" t="n">
         <f aca="false">H31+G31+F31</f>
         <v>0</v>
       </c>
-      <c r="K31" s="66" t="s">
+      <c r="K31" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="66" t="s">
+      <c r="L31" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="M31" s="67"/>
+      <c r="M31" s="69"/>
       <c r="N31" s="0"/>
       <c r="O31" s="0"/>
       <c r="P31" s="0"/>
@@ -27597,45 +27622,45 @@
       <c r="AMH31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="87" t="n">
+      <c r="C32" s="91" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="87" t="n">
+      <c r="D32" s="91" t="n">
         <v>33462.81</v>
       </c>
-      <c r="E32" s="87" t="n">
+      <c r="E32" s="91" t="n">
         <v>40490</v>
       </c>
-      <c r="F32" s="87" t="n">
+      <c r="F32" s="91" t="n">
         <v>40490</v>
       </c>
-      <c r="G32" s="67" t="n">
+      <c r="G32" s="69" t="n">
         <v>20000</v>
       </c>
-      <c r="H32" s="67" t="n">
+      <c r="H32" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="77" t="n">
+      <c r="I32" s="85" t="n">
         <f aca="false">H32+G32+F32</f>
         <v>60490</v>
       </c>
-      <c r="J32" s="68" t="n">
+      <c r="J32" s="70" t="n">
         <f aca="false">H32+G32+F32</f>
         <v>60490</v>
       </c>
-      <c r="K32" s="66" t="s">
+      <c r="K32" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="66" t="s">
+      <c r="L32" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="88" t="s">
+      <c r="M32" s="92" t="s">
         <v>77</v>
       </c>
       <c r="N32" s="0"/>
@@ -28649,45 +28674,45 @@
       <c r="AMH32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="87" t="n">
+      <c r="C33" s="91" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="89" t="s">
+      <c r="D33" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="89" t="s">
+      <c r="E33" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="89" t="s">
+      <c r="F33" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="67" t="n">
+      <c r="G33" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="H33" s="67" t="n">
+      <c r="H33" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="77" t="n">
+      <c r="I33" s="85" t="n">
         <f aca="false">H33+G33+F33</f>
         <v>10499</v>
       </c>
-      <c r="J33" s="68" t="n">
+      <c r="J33" s="70" t="n">
         <f aca="false">H33+G33+F33</f>
         <v>10499</v>
       </c>
-      <c r="K33" s="66" t="s">
+      <c r="K33" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="66" t="s">
+      <c r="L33" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="M33" s="90"/>
+      <c r="M33" s="94"/>
       <c r="N33" s="0"/>
       <c r="O33" s="0"/>
       <c r="P33" s="0"/>
@@ -29699,36 +29724,36 @@
       <c r="AMH33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93" t="n">
+      <c r="B34" s="96"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97" t="n">
         <f aca="false">SUM(F13:F14)</f>
         <v>38509</v>
       </c>
-      <c r="G34" s="93" t="n">
+      <c r="G34" s="97" t="n">
         <f aca="false">SUM(G13:G14)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="93" t="n">
+      <c r="H34" s="97" t="n">
         <f aca="false">SUM(H13:H14)</f>
         <v>38509</v>
       </c>
-      <c r="I34" s="93" t="n">
+      <c r="I34" s="97" t="n">
         <f aca="false">SUM(I22:I33)</f>
-        <v>2208510</v>
-      </c>
-      <c r="J34" s="94" t="n">
+        <v>2144994</v>
+      </c>
+      <c r="J34" s="98" t="n">
         <f aca="false">SUM(J22:J33)</f>
-        <v>2708510</v>
-      </c>
-      <c r="K34" s="94"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="94"/>
+        <v>2644994</v>
+      </c>
+      <c r="K34" s="98"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="98"/>
       <c r="N34" s="0"/>
       <c r="O34" s="0"/>
       <c r="P34" s="0"/>
@@ -30740,21 +30765,21 @@
       <c r="AMH34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
       <c r="N35" s="0"/>
       <c r="O35" s="0"/>
       <c r="P35" s="0"/>
@@ -31765,41 +31790,41 @@
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="98" t="s">
+    <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="67" t="n">
+      <c r="C36" s="69" t="n">
         <v>100</v>
       </c>
-      <c r="D36" s="99"/>
-      <c r="E36" s="67" t="n">
+      <c r="D36" s="103"/>
+      <c r="E36" s="69" t="n">
         <v>1000</v>
       </c>
-      <c r="F36" s="87" t="n">
+      <c r="F36" s="91" t="n">
         <f aca="false">C36*E36</f>
         <v>100000</v>
       </c>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="87" t="n">
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="91" t="n">
         <f aca="false">C36*E36</f>
         <v>100000</v>
       </c>
-      <c r="J36" s="87" t="n">
+      <c r="J36" s="91" t="n">
         <f aca="false">I36</f>
         <v>100000</v>
       </c>
-      <c r="K36" s="66" t="s">
+      <c r="K36" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="66" t="s">
+      <c r="L36" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="67"/>
+      <c r="M36" s="69"/>
       <c r="N36" s="0"/>
       <c r="O36" s="0"/>
       <c r="P36" s="0"/>
@@ -32810,41 +32835,41 @@
       <c r="AMG36" s="0"/>
       <c r="AMH36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="64" t="s">
+    <row r="37" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="67" t="n">
+      <c r="C37" s="69" t="n">
         <v>20</v>
       </c>
-      <c r="D37" s="99"/>
-      <c r="E37" s="67" t="n">
+      <c r="D37" s="103"/>
+      <c r="E37" s="69" t="n">
         <v>700</v>
       </c>
-      <c r="F37" s="87" t="n">
+      <c r="F37" s="91" t="n">
         <f aca="false">C37*E37</f>
         <v>14000</v>
       </c>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="87" t="n">
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="91" t="n">
         <f aca="false">C37*E37</f>
         <v>14000</v>
       </c>
-      <c r="J37" s="87" t="n">
+      <c r="J37" s="91" t="n">
         <f aca="false">I37</f>
         <v>14000</v>
       </c>
-      <c r="K37" s="66" t="s">
+      <c r="K37" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="66" t="s">
+      <c r="L37" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="67"/>
+      <c r="M37" s="69"/>
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
       <c r="P37" s="0"/>
@@ -33855,41 +33880,41 @@
       <c r="AMG37" s="0"/>
       <c r="AMH37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="98" t="s">
+    <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="67" t="n">
+      <c r="C38" s="69" t="n">
         <v>500</v>
       </c>
-      <c r="D38" s="99"/>
-      <c r="E38" s="67" t="n">
+      <c r="D38" s="103"/>
+      <c r="E38" s="69" t="n">
         <v>1000</v>
       </c>
-      <c r="F38" s="87" t="n">
+      <c r="F38" s="91" t="n">
         <f aca="false">C38*E38</f>
         <v>500000</v>
       </c>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="87" t="n">
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="91" t="n">
         <f aca="false">C38*E38</f>
         <v>500000</v>
       </c>
-      <c r="J38" s="87" t="n">
+      <c r="J38" s="91" t="n">
         <f aca="false">I38</f>
         <v>500000</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="66" t="s">
+      <c r="L38" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="M38" s="67"/>
+      <c r="M38" s="69"/>
       <c r="N38" s="0"/>
       <c r="O38" s="0"/>
       <c r="P38" s="0"/>
@@ -34900,41 +34925,41 @@
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="100" t="s">
+    <row r="39" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="67" t="n">
+      <c r="C39" s="69" t="n">
         <v>400</v>
       </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="67" t="n">
+      <c r="D39" s="103"/>
+      <c r="E39" s="69" t="n">
         <v>1000</v>
       </c>
-      <c r="F39" s="87" t="n">
+      <c r="F39" s="91" t="n">
         <f aca="false">C39*E39</f>
         <v>400000</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="87" t="n">
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="91" t="n">
         <f aca="false">C39*E39</f>
         <v>400000</v>
       </c>
-      <c r="J39" s="87" t="n">
+      <c r="J39" s="91" t="n">
         <f aca="false">I39</f>
         <v>400000</v>
       </c>
-      <c r="K39" s="66" t="s">
+      <c r="K39" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="66" t="s">
+      <c r="L39" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="67"/>
+      <c r="M39" s="69"/>
       <c r="N39" s="0"/>
       <c r="O39" s="0"/>
       <c r="P39" s="0"/>
@@ -35945,50 +35970,50 @@
       <c r="AMG39" s="0"/>
       <c r="AMH39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="98" t="s">
+    <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="67" t="n">
+      <c r="C40" s="69" t="n">
         <v>300</v>
       </c>
-      <c r="D40" s="99"/>
-      <c r="E40" s="67" t="n">
+      <c r="D40" s="103"/>
+      <c r="E40" s="69" t="n">
         <v>1000</v>
       </c>
-      <c r="F40" s="87" t="n">
+      <c r="F40" s="91" t="n">
         <f aca="false">C40*E40</f>
         <v>300000</v>
       </c>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="87" t="n">
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="91" t="n">
         <f aca="false">C40*E40</f>
         <v>300000</v>
       </c>
-      <c r="J40" s="87" t="n">
+      <c r="J40" s="91" t="n">
         <f aca="false">I40</f>
         <v>300000</v>
       </c>
-      <c r="K40" s="66" t="s">
+      <c r="K40" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="66" t="s">
+      <c r="L40" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="M40" s="67"/>
+      <c r="M40" s="69"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I41" s="1" t="n">
         <f aca="false">SUM(I34:I40)</f>
-        <v>3522510</v>
+        <v>3458994</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">SUM(J34:J40)</f>
-        <v>4022510</v>
+        <v>3958994</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/grantova_zadost_labka__naceneni.xlsx
+++ b/grantova_zadost_labka__naceneni.xlsx
@@ -1151,27 +1151,27 @@
   </sheetPr>
   <dimension ref="1:45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I46" activeCellId="0" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="76"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.39795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="144.84693877551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="134.316326530612"/>
-    <col collapsed="false" hidden="false" max="1022" min="14" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.1887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="143.224489795918"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="132.831632653061"/>
+    <col collapsed="false" hidden="false" max="1022" min="14" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6416,7 +6416,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="n">
@@ -6424,17 +6424,17 @@
       </c>
       <c r="F6" s="24" t="n">
         <f aca="false">C6*E6</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="26"/>
       <c r="I6" s="27" t="n">
         <f aca="false">F6+G6+H6</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="J6" s="18" t="n">
         <f aca="false">F6+G6+H6</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="20"/>
@@ -22348,7 +22348,7 @@
       <c r="E26" s="74"/>
       <c r="F26" s="74" t="n">
         <f aca="false">SUM(F3:F23)</f>
-        <v>1752741</v>
+        <v>1852741</v>
       </c>
       <c r="G26" s="74" t="n">
         <f aca="false">SUM(G3:G23)</f>
@@ -22360,11 +22360,11 @@
       </c>
       <c r="I26" s="74" t="n">
         <f aca="false">SUM(I3:I25)</f>
-        <v>3514393</v>
+        <v>3614393</v>
       </c>
       <c r="J26" s="74" t="n">
         <f aca="false">SUM(J3:J25)</f>
-        <v>3514393</v>
+        <v>3614393</v>
       </c>
       <c r="K26" s="75"/>
       <c r="L26" s="76"/>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="I38" s="97" t="n">
         <f aca="false">SUM(I26:I37)</f>
-        <v>3686866</v>
+        <v>3786866</v>
       </c>
       <c r="J38" s="98" t="n">
         <f aca="false">SUM(J26:J37)</f>
-        <v>4186866</v>
+        <v>4286866</v>
       </c>
       <c r="K38" s="98"/>
       <c r="L38" s="99"/>
@@ -40191,11 +40191,11 @@
     <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I45" s="1" t="n">
         <f aca="false">SUM(I38:I44)</f>
-        <v>5000866</v>
+        <v>5100866</v>
       </c>
       <c r="J45" s="1" t="n">
         <f aca="false">SUM(J38:J44)</f>
-        <v>5500866</v>
+        <v>5600866</v>
       </c>
     </row>
   </sheetData>

--- a/grantova_zadost_labka__naceneni.xlsx
+++ b/grantova_zadost_labka__naceneni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -309,7 +309,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -385,6 +385,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -401,14 +415,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE4E1"/>
-        <bgColor rgb="FFE6E6FF"/>
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66CCFF"/>
-        <bgColor rgb="FF99CCFF"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -425,20 +439,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6FF"/>
-        <bgColor rgb="FFFFE4E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFE4E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -455,8 +457,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6FF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF3399FF"/>
-        <bgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -465,8 +473,14 @@
         <bgColor rgb="FF801900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -621,6 +635,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="double"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="double"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -650,7 +685,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="119">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -915,27 +950,87 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -943,132 +1038,128 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1097,11 +1188,11 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFE4E1"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFE6E6FF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1122,9 +1213,9 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99FF"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3399FF"/>
-      <rgbColor rgb="FF66CCFF"/>
+      <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -1151,30 +1242,30 @@
   </sheetPr>
   <dimension ref="1:45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I46" activeCellId="0" sqref="I46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C12" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E:E"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.1887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="143.224489795918"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="132.831632653061"/>
-    <col collapsed="false" hidden="false" max="1022" min="14" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="80.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.41836734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.08163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.28061224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.81632653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.95408163265306"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.484693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="152.964285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="106.663265306122"/>
+    <col collapsed="false" hidden="false" max="972" min="14" style="1" width="13.1683673469388"/>
+    <col collapsed="false" hidden="false" max="974" min="973" style="0" width="8.97959183673469"/>
+    <col collapsed="false" hidden="false" max="1022" min="975" style="0" width="13.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.97959183673469"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2149,58 +2240,8 @@
       <c r="AKH1" s="0"/>
       <c r="AKI1" s="0"/>
       <c r="AKJ1" s="0"/>
-      <c r="AKK1" s="0"/>
-      <c r="AKL1" s="0"/>
-      <c r="AKM1" s="0"/>
-      <c r="AKN1" s="0"/>
-      <c r="AKO1" s="0"/>
-      <c r="AKP1" s="0"/>
-      <c r="AKQ1" s="0"/>
-      <c r="AKR1" s="0"/>
-      <c r="AKS1" s="0"/>
-      <c r="AKT1" s="0"/>
-      <c r="AKU1" s="0"/>
-      <c r="AKV1" s="0"/>
-      <c r="AKW1" s="0"/>
-      <c r="AKX1" s="0"/>
-      <c r="AKY1" s="0"/>
-      <c r="AKZ1" s="0"/>
-      <c r="ALA1" s="0"/>
-      <c r="ALB1" s="0"/>
-      <c r="ALC1" s="0"/>
-      <c r="ALD1" s="0"/>
-      <c r="ALE1" s="0"/>
-      <c r="ALF1" s="0"/>
-      <c r="ALG1" s="0"/>
-      <c r="ALH1" s="0"/>
-      <c r="ALI1" s="0"/>
-      <c r="ALJ1" s="0"/>
-      <c r="ALK1" s="0"/>
-      <c r="ALL1" s="0"/>
-      <c r="ALM1" s="0"/>
-      <c r="ALN1" s="0"/>
-      <c r="ALO1" s="0"/>
-      <c r="ALP1" s="0"/>
-      <c r="ALQ1" s="0"/>
-      <c r="ALR1" s="0"/>
-      <c r="ALS1" s="0"/>
-      <c r="ALT1" s="0"/>
-      <c r="ALU1" s="0"/>
-      <c r="ALV1" s="0"/>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3199,58 +3240,8 @@
       <c r="AKH2" s="0"/>
       <c r="AKI2" s="0"/>
       <c r="AKJ2" s="0"/>
-      <c r="AKK2" s="0"/>
-      <c r="AKL2" s="0"/>
-      <c r="AKM2" s="0"/>
-      <c r="AKN2" s="0"/>
-      <c r="AKO2" s="0"/>
-      <c r="AKP2" s="0"/>
-      <c r="AKQ2" s="0"/>
-      <c r="AKR2" s="0"/>
-      <c r="AKS2" s="0"/>
-      <c r="AKT2" s="0"/>
-      <c r="AKU2" s="0"/>
-      <c r="AKV2" s="0"/>
-      <c r="AKW2" s="0"/>
-      <c r="AKX2" s="0"/>
-      <c r="AKY2" s="0"/>
-      <c r="AKZ2" s="0"/>
-      <c r="ALA2" s="0"/>
-      <c r="ALB2" s="0"/>
-      <c r="ALC2" s="0"/>
-      <c r="ALD2" s="0"/>
-      <c r="ALE2" s="0"/>
-      <c r="ALF2" s="0"/>
-      <c r="ALG2" s="0"/>
-      <c r="ALH2" s="0"/>
-      <c r="ALI2" s="0"/>
-      <c r="ALJ2" s="0"/>
-      <c r="ALK2" s="0"/>
-      <c r="ALL2" s="0"/>
-      <c r="ALM2" s="0"/>
-      <c r="ALN2" s="0"/>
-      <c r="ALO2" s="0"/>
-      <c r="ALP2" s="0"/>
-      <c r="ALQ2" s="0"/>
-      <c r="ALR2" s="0"/>
-      <c r="ALS2" s="0"/>
-      <c r="ALT2" s="0"/>
-      <c r="ALU2" s="0"/>
-      <c r="ALV2" s="0"/>
-      <c r="ALW2" s="0"/>
-      <c r="ALX2" s="0"/>
-      <c r="ALY2" s="0"/>
-      <c r="ALZ2" s="0"/>
-      <c r="AMA2" s="0"/>
-      <c r="AMB2" s="0"/>
-      <c r="AMC2" s="0"/>
-      <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
@@ -4251,58 +4242,8 @@
       <c r="AKH3" s="0"/>
       <c r="AKI3" s="0"/>
       <c r="AKJ3" s="0"/>
-      <c r="AKK3" s="0"/>
-      <c r="AKL3" s="0"/>
-      <c r="AKM3" s="0"/>
-      <c r="AKN3" s="0"/>
-      <c r="AKO3" s="0"/>
-      <c r="AKP3" s="0"/>
-      <c r="AKQ3" s="0"/>
-      <c r="AKR3" s="0"/>
-      <c r="AKS3" s="0"/>
-      <c r="AKT3" s="0"/>
-      <c r="AKU3" s="0"/>
-      <c r="AKV3" s="0"/>
-      <c r="AKW3" s="0"/>
-      <c r="AKX3" s="0"/>
-      <c r="AKY3" s="0"/>
-      <c r="AKZ3" s="0"/>
-      <c r="ALA3" s="0"/>
-      <c r="ALB3" s="0"/>
-      <c r="ALC3" s="0"/>
-      <c r="ALD3" s="0"/>
-      <c r="ALE3" s="0"/>
-      <c r="ALF3" s="0"/>
-      <c r="ALG3" s="0"/>
-      <c r="ALH3" s="0"/>
-      <c r="ALI3" s="0"/>
-      <c r="ALJ3" s="0"/>
-      <c r="ALK3" s="0"/>
-      <c r="ALL3" s="0"/>
-      <c r="ALM3" s="0"/>
-      <c r="ALN3" s="0"/>
-      <c r="ALO3" s="0"/>
-      <c r="ALP3" s="0"/>
-      <c r="ALQ3" s="0"/>
-      <c r="ALR3" s="0"/>
-      <c r="ALS3" s="0"/>
-      <c r="ALT3" s="0"/>
-      <c r="ALU3" s="0"/>
-      <c r="ALV3" s="0"/>
-      <c r="ALW3" s="0"/>
-      <c r="ALX3" s="0"/>
-      <c r="ALY3" s="0"/>
-      <c r="ALZ3" s="0"/>
-      <c r="AMA3" s="0"/>
-      <c r="AMB3" s="0"/>
-      <c r="AMC3" s="0"/>
-      <c r="AMD3" s="0"/>
-      <c r="AME3" s="0"/>
-      <c r="AMF3" s="0"/>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
         <v>19</v>
       </c>
@@ -5304,58 +5245,8 @@
       <c r="AKH4" s="0"/>
       <c r="AKI4" s="0"/>
       <c r="AKJ4" s="0"/>
-      <c r="AKK4" s="0"/>
-      <c r="AKL4" s="0"/>
-      <c r="AKM4" s="0"/>
-      <c r="AKN4" s="0"/>
-      <c r="AKO4" s="0"/>
-      <c r="AKP4" s="0"/>
-      <c r="AKQ4" s="0"/>
-      <c r="AKR4" s="0"/>
-      <c r="AKS4" s="0"/>
-      <c r="AKT4" s="0"/>
-      <c r="AKU4" s="0"/>
-      <c r="AKV4" s="0"/>
-      <c r="AKW4" s="0"/>
-      <c r="AKX4" s="0"/>
-      <c r="AKY4" s="0"/>
-      <c r="AKZ4" s="0"/>
-      <c r="ALA4" s="0"/>
-      <c r="ALB4" s="0"/>
-      <c r="ALC4" s="0"/>
-      <c r="ALD4" s="0"/>
-      <c r="ALE4" s="0"/>
-      <c r="ALF4" s="0"/>
-      <c r="ALG4" s="0"/>
-      <c r="ALH4" s="0"/>
-      <c r="ALI4" s="0"/>
-      <c r="ALJ4" s="0"/>
-      <c r="ALK4" s="0"/>
-      <c r="ALL4" s="0"/>
-      <c r="ALM4" s="0"/>
-      <c r="ALN4" s="0"/>
-      <c r="ALO4" s="0"/>
-      <c r="ALP4" s="0"/>
-      <c r="ALQ4" s="0"/>
-      <c r="ALR4" s="0"/>
-      <c r="ALS4" s="0"/>
-      <c r="ALT4" s="0"/>
-      <c r="ALU4" s="0"/>
-      <c r="ALV4" s="0"/>
-      <c r="ALW4" s="0"/>
-      <c r="ALX4" s="0"/>
-      <c r="ALY4" s="0"/>
-      <c r="ALZ4" s="0"/>
-      <c r="AMA4" s="0"/>
-      <c r="AMB4" s="0"/>
-      <c r="AMC4" s="0"/>
-      <c r="AMD4" s="0"/>
-      <c r="AME4" s="0"/>
-      <c r="AMF4" s="0"/>
-      <c r="AMG4" s="0"/>
-      <c r="AMH4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
         <v>23</v>
       </c>
@@ -6357,58 +6248,8 @@
       <c r="AKH5" s="0"/>
       <c r="AKI5" s="0"/>
       <c r="AKJ5" s="0"/>
-      <c r="AKK5" s="0"/>
-      <c r="AKL5" s="0"/>
-      <c r="AKM5" s="0"/>
-      <c r="AKN5" s="0"/>
-      <c r="AKO5" s="0"/>
-      <c r="AKP5" s="0"/>
-      <c r="AKQ5" s="0"/>
-      <c r="AKR5" s="0"/>
-      <c r="AKS5" s="0"/>
-      <c r="AKT5" s="0"/>
-      <c r="AKU5" s="0"/>
-      <c r="AKV5" s="0"/>
-      <c r="AKW5" s="0"/>
-      <c r="AKX5" s="0"/>
-      <c r="AKY5" s="0"/>
-      <c r="AKZ5" s="0"/>
-      <c r="ALA5" s="0"/>
-      <c r="ALB5" s="0"/>
-      <c r="ALC5" s="0"/>
-      <c r="ALD5" s="0"/>
-      <c r="ALE5" s="0"/>
-      <c r="ALF5" s="0"/>
-      <c r="ALG5" s="0"/>
-      <c r="ALH5" s="0"/>
-      <c r="ALI5" s="0"/>
-      <c r="ALJ5" s="0"/>
-      <c r="ALK5" s="0"/>
-      <c r="ALL5" s="0"/>
-      <c r="ALM5" s="0"/>
-      <c r="ALN5" s="0"/>
-      <c r="ALO5" s="0"/>
-      <c r="ALP5" s="0"/>
-      <c r="ALQ5" s="0"/>
-      <c r="ALR5" s="0"/>
-      <c r="ALS5" s="0"/>
-      <c r="ALT5" s="0"/>
-      <c r="ALU5" s="0"/>
-      <c r="ALV5" s="0"/>
-      <c r="ALW5" s="0"/>
-      <c r="ALX5" s="0"/>
-      <c r="ALY5" s="0"/>
-      <c r="ALZ5" s="0"/>
-      <c r="AMA5" s="0"/>
-      <c r="AMB5" s="0"/>
-      <c r="AMC5" s="0"/>
-      <c r="AMD5" s="0"/>
-      <c r="AME5" s="0"/>
-      <c r="AMF5" s="0"/>
-      <c r="AMG5" s="0"/>
-      <c r="AMH5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
         <v>27</v>
       </c>
@@ -7398,58 +7239,8 @@
       <c r="AKH6" s="0"/>
       <c r="AKI6" s="0"/>
       <c r="AKJ6" s="0"/>
-      <c r="AKK6" s="0"/>
-      <c r="AKL6" s="0"/>
-      <c r="AKM6" s="0"/>
-      <c r="AKN6" s="0"/>
-      <c r="AKO6" s="0"/>
-      <c r="AKP6" s="0"/>
-      <c r="AKQ6" s="0"/>
-      <c r="AKR6" s="0"/>
-      <c r="AKS6" s="0"/>
-      <c r="AKT6" s="0"/>
-      <c r="AKU6" s="0"/>
-      <c r="AKV6" s="0"/>
-      <c r="AKW6" s="0"/>
-      <c r="AKX6" s="0"/>
-      <c r="AKY6" s="0"/>
-      <c r="AKZ6" s="0"/>
-      <c r="ALA6" s="0"/>
-      <c r="ALB6" s="0"/>
-      <c r="ALC6" s="0"/>
-      <c r="ALD6" s="0"/>
-      <c r="ALE6" s="0"/>
-      <c r="ALF6" s="0"/>
-      <c r="ALG6" s="0"/>
-      <c r="ALH6" s="0"/>
-      <c r="ALI6" s="0"/>
-      <c r="ALJ6" s="0"/>
-      <c r="ALK6" s="0"/>
-      <c r="ALL6" s="0"/>
-      <c r="ALM6" s="0"/>
-      <c r="ALN6" s="0"/>
-      <c r="ALO6" s="0"/>
-      <c r="ALP6" s="0"/>
-      <c r="ALQ6" s="0"/>
-      <c r="ALR6" s="0"/>
-      <c r="ALS6" s="0"/>
-      <c r="ALT6" s="0"/>
-      <c r="ALU6" s="0"/>
-      <c r="ALV6" s="0"/>
-      <c r="ALW6" s="0"/>
-      <c r="ALX6" s="0"/>
-      <c r="ALY6" s="0"/>
-      <c r="ALZ6" s="0"/>
-      <c r="AMA6" s="0"/>
-      <c r="AMB6" s="0"/>
-      <c r="AMC6" s="0"/>
-      <c r="AMD6" s="0"/>
-      <c r="AME6" s="0"/>
-      <c r="AMF6" s="0"/>
-      <c r="AMG6" s="0"/>
-      <c r="AMH6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
@@ -8442,58 +8233,8 @@
       <c r="AKH7" s="0"/>
       <c r="AKI7" s="0"/>
       <c r="AKJ7" s="0"/>
-      <c r="AKK7" s="0"/>
-      <c r="AKL7" s="0"/>
-      <c r="AKM7" s="0"/>
-      <c r="AKN7" s="0"/>
-      <c r="AKO7" s="0"/>
-      <c r="AKP7" s="0"/>
-      <c r="AKQ7" s="0"/>
-      <c r="AKR7" s="0"/>
-      <c r="AKS7" s="0"/>
-      <c r="AKT7" s="0"/>
-      <c r="AKU7" s="0"/>
-      <c r="AKV7" s="0"/>
-      <c r="AKW7" s="0"/>
-      <c r="AKX7" s="0"/>
-      <c r="AKY7" s="0"/>
-      <c r="AKZ7" s="0"/>
-      <c r="ALA7" s="0"/>
-      <c r="ALB7" s="0"/>
-      <c r="ALC7" s="0"/>
-      <c r="ALD7" s="0"/>
-      <c r="ALE7" s="0"/>
-      <c r="ALF7" s="0"/>
-      <c r="ALG7" s="0"/>
-      <c r="ALH7" s="0"/>
-      <c r="ALI7" s="0"/>
-      <c r="ALJ7" s="0"/>
-      <c r="ALK7" s="0"/>
-      <c r="ALL7" s="0"/>
-      <c r="ALM7" s="0"/>
-      <c r="ALN7" s="0"/>
-      <c r="ALO7" s="0"/>
-      <c r="ALP7" s="0"/>
-      <c r="ALQ7" s="0"/>
-      <c r="ALR7" s="0"/>
-      <c r="ALS7" s="0"/>
-      <c r="ALT7" s="0"/>
-      <c r="ALU7" s="0"/>
-      <c r="ALV7" s="0"/>
-      <c r="ALW7" s="0"/>
-      <c r="ALX7" s="0"/>
-      <c r="ALY7" s="0"/>
-      <c r="ALZ7" s="0"/>
-      <c r="AMA7" s="0"/>
-      <c r="AMB7" s="0"/>
-      <c r="AMC7" s="0"/>
-      <c r="AMD7" s="0"/>
-      <c r="AME7" s="0"/>
-      <c r="AMF7" s="0"/>
-      <c r="AMG7" s="0"/>
-      <c r="AMH7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
         <v>29</v>
       </c>
@@ -9483,58 +9224,8 @@
       <c r="AKH8" s="0"/>
       <c r="AKI8" s="0"/>
       <c r="AKJ8" s="0"/>
-      <c r="AKK8" s="0"/>
-      <c r="AKL8" s="0"/>
-      <c r="AKM8" s="0"/>
-      <c r="AKN8" s="0"/>
-      <c r="AKO8" s="0"/>
-      <c r="AKP8" s="0"/>
-      <c r="AKQ8" s="0"/>
-      <c r="AKR8" s="0"/>
-      <c r="AKS8" s="0"/>
-      <c r="AKT8" s="0"/>
-      <c r="AKU8" s="0"/>
-      <c r="AKV8" s="0"/>
-      <c r="AKW8" s="0"/>
-      <c r="AKX8" s="0"/>
-      <c r="AKY8" s="0"/>
-      <c r="AKZ8" s="0"/>
-      <c r="ALA8" s="0"/>
-      <c r="ALB8" s="0"/>
-      <c r="ALC8" s="0"/>
-      <c r="ALD8" s="0"/>
-      <c r="ALE8" s="0"/>
-      <c r="ALF8" s="0"/>
-      <c r="ALG8" s="0"/>
-      <c r="ALH8" s="0"/>
-      <c r="ALI8" s="0"/>
-      <c r="ALJ8" s="0"/>
-      <c r="ALK8" s="0"/>
-      <c r="ALL8" s="0"/>
-      <c r="ALM8" s="0"/>
-      <c r="ALN8" s="0"/>
-      <c r="ALO8" s="0"/>
-      <c r="ALP8" s="0"/>
-      <c r="ALQ8" s="0"/>
-      <c r="ALR8" s="0"/>
-      <c r="ALS8" s="0"/>
-      <c r="ALT8" s="0"/>
-      <c r="ALU8" s="0"/>
-      <c r="ALV8" s="0"/>
-      <c r="ALW8" s="0"/>
-      <c r="ALX8" s="0"/>
-      <c r="ALY8" s="0"/>
-      <c r="ALZ8" s="0"/>
-      <c r="AMA8" s="0"/>
-      <c r="AMB8" s="0"/>
-      <c r="AMC8" s="0"/>
-      <c r="AMD8" s="0"/>
-      <c r="AME8" s="0"/>
-      <c r="AMF8" s="0"/>
-      <c r="AMG8" s="0"/>
-      <c r="AMH8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
         <v>30</v>
       </c>
@@ -10524,58 +10215,8 @@
       <c r="AKH9" s="0"/>
       <c r="AKI9" s="0"/>
       <c r="AKJ9" s="0"/>
-      <c r="AKK9" s="0"/>
-      <c r="AKL9" s="0"/>
-      <c r="AKM9" s="0"/>
-      <c r="AKN9" s="0"/>
-      <c r="AKO9" s="0"/>
-      <c r="AKP9" s="0"/>
-      <c r="AKQ9" s="0"/>
-      <c r="AKR9" s="0"/>
-      <c r="AKS9" s="0"/>
-      <c r="AKT9" s="0"/>
-      <c r="AKU9" s="0"/>
-      <c r="AKV9" s="0"/>
-      <c r="AKW9" s="0"/>
-      <c r="AKX9" s="0"/>
-      <c r="AKY9" s="0"/>
-      <c r="AKZ9" s="0"/>
-      <c r="ALA9" s="0"/>
-      <c r="ALB9" s="0"/>
-      <c r="ALC9" s="0"/>
-      <c r="ALD9" s="0"/>
-      <c r="ALE9" s="0"/>
-      <c r="ALF9" s="0"/>
-      <c r="ALG9" s="0"/>
-      <c r="ALH9" s="0"/>
-      <c r="ALI9" s="0"/>
-      <c r="ALJ9" s="0"/>
-      <c r="ALK9" s="0"/>
-      <c r="ALL9" s="0"/>
-      <c r="ALM9" s="0"/>
-      <c r="ALN9" s="0"/>
-      <c r="ALO9" s="0"/>
-      <c r="ALP9" s="0"/>
-      <c r="ALQ9" s="0"/>
-      <c r="ALR9" s="0"/>
-      <c r="ALS9" s="0"/>
-      <c r="ALT9" s="0"/>
-      <c r="ALU9" s="0"/>
-      <c r="ALV9" s="0"/>
-      <c r="ALW9" s="0"/>
-      <c r="ALX9" s="0"/>
-      <c r="ALY9" s="0"/>
-      <c r="ALZ9" s="0"/>
-      <c r="AMA9" s="0"/>
-      <c r="AMB9" s="0"/>
-      <c r="AMC9" s="0"/>
-      <c r="AMD9" s="0"/>
-      <c r="AME9" s="0"/>
-      <c r="AMF9" s="0"/>
-      <c r="AMG9" s="0"/>
-      <c r="AMH9" s="0"/>
     </row>
-    <row r="10" s="41" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="41" customFormat="true" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="s">
         <v>31</v>
       </c>
@@ -10617,8 +10258,58 @@
       <c r="M10" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AMI10" s="42"/>
-      <c r="AMJ10" s="42"/>
+      <c r="AKK10" s="42"/>
+      <c r="AKL10" s="42"/>
+      <c r="AKM10" s="0"/>
+      <c r="AKN10" s="0"/>
+      <c r="AKO10" s="0"/>
+      <c r="AKP10" s="0"/>
+      <c r="AKQ10" s="0"/>
+      <c r="AKR10" s="0"/>
+      <c r="AKS10" s="0"/>
+      <c r="AKT10" s="0"/>
+      <c r="AKU10" s="0"/>
+      <c r="AKV10" s="0"/>
+      <c r="AKW10" s="0"/>
+      <c r="AKX10" s="0"/>
+      <c r="AKY10" s="0"/>
+      <c r="AKZ10" s="0"/>
+      <c r="ALA10" s="0"/>
+      <c r="ALB10" s="0"/>
+      <c r="ALC10" s="0"/>
+      <c r="ALD10" s="0"/>
+      <c r="ALE10" s="0"/>
+      <c r="ALF10" s="0"/>
+      <c r="ALG10" s="0"/>
+      <c r="ALH10" s="0"/>
+      <c r="ALI10" s="0"/>
+      <c r="ALJ10" s="0"/>
+      <c r="ALK10" s="0"/>
+      <c r="ALL10" s="0"/>
+      <c r="ALM10" s="0"/>
+      <c r="ALN10" s="0"/>
+      <c r="ALO10" s="0"/>
+      <c r="ALP10" s="0"/>
+      <c r="ALQ10" s="0"/>
+      <c r="ALR10" s="0"/>
+      <c r="ALS10" s="0"/>
+      <c r="ALT10" s="0"/>
+      <c r="ALU10" s="0"/>
+      <c r="ALV10" s="0"/>
+      <c r="ALW10" s="0"/>
+      <c r="ALX10" s="0"/>
+      <c r="ALY10" s="0"/>
+      <c r="ALZ10" s="0"/>
+      <c r="AMA10" s="0"/>
+      <c r="AMB10" s="0"/>
+      <c r="AMC10" s="0"/>
+      <c r="AMD10" s="0"/>
+      <c r="AME10" s="0"/>
+      <c r="AMF10" s="0"/>
+      <c r="AMG10" s="0"/>
+      <c r="AMH10" s="0"/>
+      <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="43" t="s">
@@ -11621,58 +11312,8 @@
       <c r="AKH11" s="0"/>
       <c r="AKI11" s="0"/>
       <c r="AKJ11" s="0"/>
-      <c r="AKK11" s="0"/>
-      <c r="AKL11" s="0"/>
-      <c r="AKM11" s="0"/>
-      <c r="AKN11" s="0"/>
-      <c r="AKO11" s="0"/>
-      <c r="AKP11" s="0"/>
-      <c r="AKQ11" s="0"/>
-      <c r="AKR11" s="0"/>
-      <c r="AKS11" s="0"/>
-      <c r="AKT11" s="0"/>
-      <c r="AKU11" s="0"/>
-      <c r="AKV11" s="0"/>
-      <c r="AKW11" s="0"/>
-      <c r="AKX11" s="0"/>
-      <c r="AKY11" s="0"/>
-      <c r="AKZ11" s="0"/>
-      <c r="ALA11" s="0"/>
-      <c r="ALB11" s="0"/>
-      <c r="ALC11" s="0"/>
-      <c r="ALD11" s="0"/>
-      <c r="ALE11" s="0"/>
-      <c r="ALF11" s="0"/>
-      <c r="ALG11" s="0"/>
-      <c r="ALH11" s="0"/>
-      <c r="ALI11" s="0"/>
-      <c r="ALJ11" s="0"/>
-      <c r="ALK11" s="0"/>
-      <c r="ALL11" s="0"/>
-      <c r="ALM11" s="0"/>
-      <c r="ALN11" s="0"/>
-      <c r="ALO11" s="0"/>
-      <c r="ALP11" s="0"/>
-      <c r="ALQ11" s="0"/>
-      <c r="ALR11" s="0"/>
-      <c r="ALS11" s="0"/>
-      <c r="ALT11" s="0"/>
-      <c r="ALU11" s="0"/>
-      <c r="ALV11" s="0"/>
-      <c r="ALW11" s="0"/>
-      <c r="ALX11" s="0"/>
-      <c r="ALY11" s="0"/>
-      <c r="ALZ11" s="0"/>
-      <c r="AMA11" s="0"/>
-      <c r="AMB11" s="0"/>
-      <c r="AMC11" s="0"/>
-      <c r="AMD11" s="0"/>
-      <c r="AME11" s="0"/>
-      <c r="AMF11" s="0"/>
-      <c r="AMG11" s="0"/>
-      <c r="AMH11" s="0"/>
-      <c r="AMI11" s="42"/>
-      <c r="AMJ11" s="42"/>
+      <c r="AKK11" s="42"/>
+      <c r="AKL11" s="42"/>
     </row>
     <row r="12" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
@@ -11712,8 +11353,58 @@
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="52"/>
-      <c r="AMI12" s="54"/>
-      <c r="AMJ12" s="54"/>
+      <c r="AKK12" s="54"/>
+      <c r="AKL12" s="54"/>
+      <c r="AKM12" s="0"/>
+      <c r="AKN12" s="0"/>
+      <c r="AKO12" s="0"/>
+      <c r="AKP12" s="0"/>
+      <c r="AKQ12" s="0"/>
+      <c r="AKR12" s="0"/>
+      <c r="AKS12" s="0"/>
+      <c r="AKT12" s="0"/>
+      <c r="AKU12" s="0"/>
+      <c r="AKV12" s="0"/>
+      <c r="AKW12" s="0"/>
+      <c r="AKX12" s="0"/>
+      <c r="AKY12" s="0"/>
+      <c r="AKZ12" s="0"/>
+      <c r="ALA12" s="0"/>
+      <c r="ALB12" s="0"/>
+      <c r="ALC12" s="0"/>
+      <c r="ALD12" s="0"/>
+      <c r="ALE12" s="0"/>
+      <c r="ALF12" s="0"/>
+      <c r="ALG12" s="0"/>
+      <c r="ALH12" s="0"/>
+      <c r="ALI12" s="0"/>
+      <c r="ALJ12" s="0"/>
+      <c r="ALK12" s="0"/>
+      <c r="ALL12" s="0"/>
+      <c r="ALM12" s="0"/>
+      <c r="ALN12" s="0"/>
+      <c r="ALO12" s="0"/>
+      <c r="ALP12" s="0"/>
+      <c r="ALQ12" s="0"/>
+      <c r="ALR12" s="0"/>
+      <c r="ALS12" s="0"/>
+      <c r="ALT12" s="0"/>
+      <c r="ALU12" s="0"/>
+      <c r="ALV12" s="0"/>
+      <c r="ALW12" s="0"/>
+      <c r="ALX12" s="0"/>
+      <c r="ALY12" s="0"/>
+      <c r="ALZ12" s="0"/>
+      <c r="AMA12" s="0"/>
+      <c r="AMB12" s="0"/>
+      <c r="AMC12" s="0"/>
+      <c r="AMD12" s="0"/>
+      <c r="AME12" s="0"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="55" t="s">
@@ -11753,8 +11444,58 @@
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="58"/>
-      <c r="AMI13" s="42"/>
-      <c r="AMJ13" s="42"/>
+      <c r="AKK13" s="42"/>
+      <c r="AKL13" s="42"/>
+      <c r="AKM13" s="0"/>
+      <c r="AKN13" s="0"/>
+      <c r="AKO13" s="0"/>
+      <c r="AKP13" s="0"/>
+      <c r="AKQ13" s="0"/>
+      <c r="AKR13" s="0"/>
+      <c r="AKS13" s="0"/>
+      <c r="AKT13" s="0"/>
+      <c r="AKU13" s="0"/>
+      <c r="AKV13" s="0"/>
+      <c r="AKW13" s="0"/>
+      <c r="AKX13" s="0"/>
+      <c r="AKY13" s="0"/>
+      <c r="AKZ13" s="0"/>
+      <c r="ALA13" s="0"/>
+      <c r="ALB13" s="0"/>
+      <c r="ALC13" s="0"/>
+      <c r="ALD13" s="0"/>
+      <c r="ALE13" s="0"/>
+      <c r="ALF13" s="0"/>
+      <c r="ALG13" s="0"/>
+      <c r="ALH13" s="0"/>
+      <c r="ALI13" s="0"/>
+      <c r="ALJ13" s="0"/>
+      <c r="ALK13" s="0"/>
+      <c r="ALL13" s="0"/>
+      <c r="ALM13" s="0"/>
+      <c r="ALN13" s="0"/>
+      <c r="ALO13" s="0"/>
+      <c r="ALP13" s="0"/>
+      <c r="ALQ13" s="0"/>
+      <c r="ALR13" s="0"/>
+      <c r="ALS13" s="0"/>
+      <c r="ALT13" s="0"/>
+      <c r="ALU13" s="0"/>
+      <c r="ALV13" s="0"/>
+      <c r="ALW13" s="0"/>
+      <c r="ALX13" s="0"/>
+      <c r="ALY13" s="0"/>
+      <c r="ALZ13" s="0"/>
+      <c r="AMA13" s="0"/>
+      <c r="AMB13" s="0"/>
+      <c r="AMC13" s="0"/>
+      <c r="AMD13" s="0"/>
+      <c r="AME13" s="0"/>
+      <c r="AMF13" s="0"/>
+      <c r="AMG13" s="0"/>
+      <c r="AMH13" s="0"/>
+      <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="55" t="s">
@@ -11794,8 +11535,58 @@
       </c>
       <c r="L14" s="35"/>
       <c r="M14" s="58"/>
-      <c r="AMI14" s="42"/>
-      <c r="AMJ14" s="42"/>
+      <c r="AKK14" s="42"/>
+      <c r="AKL14" s="42"/>
+      <c r="AKM14" s="0"/>
+      <c r="AKN14" s="0"/>
+      <c r="AKO14" s="0"/>
+      <c r="AKP14" s="0"/>
+      <c r="AKQ14" s="0"/>
+      <c r="AKR14" s="0"/>
+      <c r="AKS14" s="0"/>
+      <c r="AKT14" s="0"/>
+      <c r="AKU14" s="0"/>
+      <c r="AKV14" s="0"/>
+      <c r="AKW14" s="0"/>
+      <c r="AKX14" s="0"/>
+      <c r="AKY14" s="0"/>
+      <c r="AKZ14" s="0"/>
+      <c r="ALA14" s="0"/>
+      <c r="ALB14" s="0"/>
+      <c r="ALC14" s="0"/>
+      <c r="ALD14" s="0"/>
+      <c r="ALE14" s="0"/>
+      <c r="ALF14" s="0"/>
+      <c r="ALG14" s="0"/>
+      <c r="ALH14" s="0"/>
+      <c r="ALI14" s="0"/>
+      <c r="ALJ14" s="0"/>
+      <c r="ALK14" s="0"/>
+      <c r="ALL14" s="0"/>
+      <c r="ALM14" s="0"/>
+      <c r="ALN14" s="0"/>
+      <c r="ALO14" s="0"/>
+      <c r="ALP14" s="0"/>
+      <c r="ALQ14" s="0"/>
+      <c r="ALR14" s="0"/>
+      <c r="ALS14" s="0"/>
+      <c r="ALT14" s="0"/>
+      <c r="ALU14" s="0"/>
+      <c r="ALV14" s="0"/>
+      <c r="ALW14" s="0"/>
+      <c r="ALX14" s="0"/>
+      <c r="ALY14" s="0"/>
+      <c r="ALZ14" s="0"/>
+      <c r="AMA14" s="0"/>
+      <c r="AMB14" s="0"/>
+      <c r="AMC14" s="0"/>
+      <c r="AMD14" s="0"/>
+      <c r="AME14" s="0"/>
+      <c r="AMF14" s="0"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="55" t="s">
@@ -11835,10 +11626,60 @@
       </c>
       <c r="L15" s="35"/>
       <c r="M15" s="58"/>
-      <c r="AMI15" s="42"/>
-      <c r="AMJ15" s="42"/>
+      <c r="AKK15" s="42"/>
+      <c r="AKL15" s="42"/>
+      <c r="AKM15" s="0"/>
+      <c r="AKN15" s="0"/>
+      <c r="AKO15" s="0"/>
+      <c r="AKP15" s="0"/>
+      <c r="AKQ15" s="0"/>
+      <c r="AKR15" s="0"/>
+      <c r="AKS15" s="0"/>
+      <c r="AKT15" s="0"/>
+      <c r="AKU15" s="0"/>
+      <c r="AKV15" s="0"/>
+      <c r="AKW15" s="0"/>
+      <c r="AKX15" s="0"/>
+      <c r="AKY15" s="0"/>
+      <c r="AKZ15" s="0"/>
+      <c r="ALA15" s="0"/>
+      <c r="ALB15" s="0"/>
+      <c r="ALC15" s="0"/>
+      <c r="ALD15" s="0"/>
+      <c r="ALE15" s="0"/>
+      <c r="ALF15" s="0"/>
+      <c r="ALG15" s="0"/>
+      <c r="ALH15" s="0"/>
+      <c r="ALI15" s="0"/>
+      <c r="ALJ15" s="0"/>
+      <c r="ALK15" s="0"/>
+      <c r="ALL15" s="0"/>
+      <c r="ALM15" s="0"/>
+      <c r="ALN15" s="0"/>
+      <c r="ALO15" s="0"/>
+      <c r="ALP15" s="0"/>
+      <c r="ALQ15" s="0"/>
+      <c r="ALR15" s="0"/>
+      <c r="ALS15" s="0"/>
+      <c r="ALT15" s="0"/>
+      <c r="ALU15" s="0"/>
+      <c r="ALV15" s="0"/>
+      <c r="ALW15" s="0"/>
+      <c r="ALX15" s="0"/>
+      <c r="ALY15" s="0"/>
+      <c r="ALZ15" s="0"/>
+      <c r="AMA15" s="0"/>
+      <c r="AMB15" s="0"/>
+      <c r="AMC15" s="0"/>
+      <c r="AMD15" s="0"/>
+      <c r="AME15" s="0"/>
+      <c r="AMF15" s="0"/>
+      <c r="AMG15" s="0"/>
+      <c r="AMH15" s="0"/>
+      <c r="AMI15" s="0"/>
+      <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="59" t="s">
         <v>42</v>
       </c>
@@ -12839,58 +12680,8 @@
       <c r="AKH16" s="0"/>
       <c r="AKI16" s="0"/>
       <c r="AKJ16" s="0"/>
-      <c r="AKK16" s="0"/>
-      <c r="AKL16" s="0"/>
-      <c r="AKM16" s="0"/>
-      <c r="AKN16" s="0"/>
-      <c r="AKO16" s="0"/>
-      <c r="AKP16" s="0"/>
-      <c r="AKQ16" s="0"/>
-      <c r="AKR16" s="0"/>
-      <c r="AKS16" s="0"/>
-      <c r="AKT16" s="0"/>
-      <c r="AKU16" s="0"/>
-      <c r="AKV16" s="0"/>
-      <c r="AKW16" s="0"/>
-      <c r="AKX16" s="0"/>
-      <c r="AKY16" s="0"/>
-      <c r="AKZ16" s="0"/>
-      <c r="ALA16" s="0"/>
-      <c r="ALB16" s="0"/>
-      <c r="ALC16" s="0"/>
-      <c r="ALD16" s="0"/>
-      <c r="ALE16" s="0"/>
-      <c r="ALF16" s="0"/>
-      <c r="ALG16" s="0"/>
-      <c r="ALH16" s="0"/>
-      <c r="ALI16" s="0"/>
-      <c r="ALJ16" s="0"/>
-      <c r="ALK16" s="0"/>
-      <c r="ALL16" s="0"/>
-      <c r="ALM16" s="0"/>
-      <c r="ALN16" s="0"/>
-      <c r="ALO16" s="0"/>
-      <c r="ALP16" s="0"/>
-      <c r="ALQ16" s="0"/>
-      <c r="ALR16" s="0"/>
-      <c r="ALS16" s="0"/>
-      <c r="ALT16" s="0"/>
-      <c r="ALU16" s="0"/>
-      <c r="ALV16" s="0"/>
-      <c r="ALW16" s="0"/>
-      <c r="ALX16" s="0"/>
-      <c r="ALY16" s="0"/>
-      <c r="ALZ16" s="0"/>
-      <c r="AMA16" s="0"/>
-      <c r="AMB16" s="0"/>
-      <c r="AMC16" s="0"/>
-      <c r="AMD16" s="0"/>
-      <c r="AME16" s="0"/>
-      <c r="AMF16" s="0"/>
-      <c r="AMG16" s="0"/>
-      <c r="AMH16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="59" t="s">
         <v>47</v>
       </c>
@@ -13889,58 +13680,8 @@
       <c r="AKH17" s="0"/>
       <c r="AKI17" s="0"/>
       <c r="AKJ17" s="0"/>
-      <c r="AKK17" s="0"/>
-      <c r="AKL17" s="0"/>
-      <c r="AKM17" s="0"/>
-      <c r="AKN17" s="0"/>
-      <c r="AKO17" s="0"/>
-      <c r="AKP17" s="0"/>
-      <c r="AKQ17" s="0"/>
-      <c r="AKR17" s="0"/>
-      <c r="AKS17" s="0"/>
-      <c r="AKT17" s="0"/>
-      <c r="AKU17" s="0"/>
-      <c r="AKV17" s="0"/>
-      <c r="AKW17" s="0"/>
-      <c r="AKX17" s="0"/>
-      <c r="AKY17" s="0"/>
-      <c r="AKZ17" s="0"/>
-      <c r="ALA17" s="0"/>
-      <c r="ALB17" s="0"/>
-      <c r="ALC17" s="0"/>
-      <c r="ALD17" s="0"/>
-      <c r="ALE17" s="0"/>
-      <c r="ALF17" s="0"/>
-      <c r="ALG17" s="0"/>
-      <c r="ALH17" s="0"/>
-      <c r="ALI17" s="0"/>
-      <c r="ALJ17" s="0"/>
-      <c r="ALK17" s="0"/>
-      <c r="ALL17" s="0"/>
-      <c r="ALM17" s="0"/>
-      <c r="ALN17" s="0"/>
-      <c r="ALO17" s="0"/>
-      <c r="ALP17" s="0"/>
-      <c r="ALQ17" s="0"/>
-      <c r="ALR17" s="0"/>
-      <c r="ALS17" s="0"/>
-      <c r="ALT17" s="0"/>
-      <c r="ALU17" s="0"/>
-      <c r="ALV17" s="0"/>
-      <c r="ALW17" s="0"/>
-      <c r="ALX17" s="0"/>
-      <c r="ALY17" s="0"/>
-      <c r="ALZ17" s="0"/>
-      <c r="AMA17" s="0"/>
-      <c r="AMB17" s="0"/>
-      <c r="AMC17" s="0"/>
-      <c r="AMD17" s="0"/>
-      <c r="AME17" s="0"/>
-      <c r="AMF17" s="0"/>
-      <c r="AMG17" s="0"/>
-      <c r="AMH17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
         <v>49</v>
       </c>
@@ -14942,58 +14683,8 @@
       <c r="AKH18" s="0"/>
       <c r="AKI18" s="0"/>
       <c r="AKJ18" s="0"/>
-      <c r="AKK18" s="0"/>
-      <c r="AKL18" s="0"/>
-      <c r="AKM18" s="0"/>
-      <c r="AKN18" s="0"/>
-      <c r="AKO18" s="0"/>
-      <c r="AKP18" s="0"/>
-      <c r="AKQ18" s="0"/>
-      <c r="AKR18" s="0"/>
-      <c r="AKS18" s="0"/>
-      <c r="AKT18" s="0"/>
-      <c r="AKU18" s="0"/>
-      <c r="AKV18" s="0"/>
-      <c r="AKW18" s="0"/>
-      <c r="AKX18" s="0"/>
-      <c r="AKY18" s="0"/>
-      <c r="AKZ18" s="0"/>
-      <c r="ALA18" s="0"/>
-      <c r="ALB18" s="0"/>
-      <c r="ALC18" s="0"/>
-      <c r="ALD18" s="0"/>
-      <c r="ALE18" s="0"/>
-      <c r="ALF18" s="0"/>
-      <c r="ALG18" s="0"/>
-      <c r="ALH18" s="0"/>
-      <c r="ALI18" s="0"/>
-      <c r="ALJ18" s="0"/>
-      <c r="ALK18" s="0"/>
-      <c r="ALL18" s="0"/>
-      <c r="ALM18" s="0"/>
-      <c r="ALN18" s="0"/>
-      <c r="ALO18" s="0"/>
-      <c r="ALP18" s="0"/>
-      <c r="ALQ18" s="0"/>
-      <c r="ALR18" s="0"/>
-      <c r="ALS18" s="0"/>
-      <c r="ALT18" s="0"/>
-      <c r="ALU18" s="0"/>
-      <c r="ALV18" s="0"/>
-      <c r="ALW18" s="0"/>
-      <c r="ALX18" s="0"/>
-      <c r="ALY18" s="0"/>
-      <c r="ALZ18" s="0"/>
-      <c r="AMA18" s="0"/>
-      <c r="AMB18" s="0"/>
-      <c r="AMC18" s="0"/>
-      <c r="AMD18" s="0"/>
-      <c r="AME18" s="0"/>
-      <c r="AMF18" s="0"/>
-      <c r="AMG18" s="0"/>
-      <c r="AMH18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="64" t="s">
         <v>51</v>
       </c>
@@ -15993,58 +15684,8 @@
       <c r="AKH19" s="0"/>
       <c r="AKI19" s="0"/>
       <c r="AKJ19" s="0"/>
-      <c r="AKK19" s="0"/>
-      <c r="AKL19" s="0"/>
-      <c r="AKM19" s="0"/>
-      <c r="AKN19" s="0"/>
-      <c r="AKO19" s="0"/>
-      <c r="AKP19" s="0"/>
-      <c r="AKQ19" s="0"/>
-      <c r="AKR19" s="0"/>
-      <c r="AKS19" s="0"/>
-      <c r="AKT19" s="0"/>
-      <c r="AKU19" s="0"/>
-      <c r="AKV19" s="0"/>
-      <c r="AKW19" s="0"/>
-      <c r="AKX19" s="0"/>
-      <c r="AKY19" s="0"/>
-      <c r="AKZ19" s="0"/>
-      <c r="ALA19" s="0"/>
-      <c r="ALB19" s="0"/>
-      <c r="ALC19" s="0"/>
-      <c r="ALD19" s="0"/>
-      <c r="ALE19" s="0"/>
-      <c r="ALF19" s="0"/>
-      <c r="ALG19" s="0"/>
-      <c r="ALH19" s="0"/>
-      <c r="ALI19" s="0"/>
-      <c r="ALJ19" s="0"/>
-      <c r="ALK19" s="0"/>
-      <c r="ALL19" s="0"/>
-      <c r="ALM19" s="0"/>
-      <c r="ALN19" s="0"/>
-      <c r="ALO19" s="0"/>
-      <c r="ALP19" s="0"/>
-      <c r="ALQ19" s="0"/>
-      <c r="ALR19" s="0"/>
-      <c r="ALS19" s="0"/>
-      <c r="ALT19" s="0"/>
-      <c r="ALU19" s="0"/>
-      <c r="ALV19" s="0"/>
-      <c r="ALW19" s="0"/>
-      <c r="ALX19" s="0"/>
-      <c r="ALY19" s="0"/>
-      <c r="ALZ19" s="0"/>
-      <c r="AMA19" s="0"/>
-      <c r="AMB19" s="0"/>
-      <c r="AMC19" s="0"/>
-      <c r="AMD19" s="0"/>
-      <c r="AME19" s="0"/>
-      <c r="AMF19" s="0"/>
-      <c r="AMG19" s="0"/>
-      <c r="AMH19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="64" t="s">
         <v>53</v>
       </c>
@@ -17044,58 +16685,8 @@
       <c r="AKH20" s="0"/>
       <c r="AKI20" s="0"/>
       <c r="AKJ20" s="0"/>
-      <c r="AKK20" s="0"/>
-      <c r="AKL20" s="0"/>
-      <c r="AKM20" s="0"/>
-      <c r="AKN20" s="0"/>
-      <c r="AKO20" s="0"/>
-      <c r="AKP20" s="0"/>
-      <c r="AKQ20" s="0"/>
-      <c r="AKR20" s="0"/>
-      <c r="AKS20" s="0"/>
-      <c r="AKT20" s="0"/>
-      <c r="AKU20" s="0"/>
-      <c r="AKV20" s="0"/>
-      <c r="AKW20" s="0"/>
-      <c r="AKX20" s="0"/>
-      <c r="AKY20" s="0"/>
-      <c r="AKZ20" s="0"/>
-      <c r="ALA20" s="0"/>
-      <c r="ALB20" s="0"/>
-      <c r="ALC20" s="0"/>
-      <c r="ALD20" s="0"/>
-      <c r="ALE20" s="0"/>
-      <c r="ALF20" s="0"/>
-      <c r="ALG20" s="0"/>
-      <c r="ALH20" s="0"/>
-      <c r="ALI20" s="0"/>
-      <c r="ALJ20" s="0"/>
-      <c r="ALK20" s="0"/>
-      <c r="ALL20" s="0"/>
-      <c r="ALM20" s="0"/>
-      <c r="ALN20" s="0"/>
-      <c r="ALO20" s="0"/>
-      <c r="ALP20" s="0"/>
-      <c r="ALQ20" s="0"/>
-      <c r="ALR20" s="0"/>
-      <c r="ALS20" s="0"/>
-      <c r="ALT20" s="0"/>
-      <c r="ALU20" s="0"/>
-      <c r="ALV20" s="0"/>
-      <c r="ALW20" s="0"/>
-      <c r="ALX20" s="0"/>
-      <c r="ALY20" s="0"/>
-      <c r="ALZ20" s="0"/>
-      <c r="AMA20" s="0"/>
-      <c r="AMB20" s="0"/>
-      <c r="AMC20" s="0"/>
-      <c r="AMD20" s="0"/>
-      <c r="AME20" s="0"/>
-      <c r="AMF20" s="0"/>
-      <c r="AMG20" s="0"/>
-      <c r="AMH20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="64" t="s">
         <v>54</v>
       </c>
@@ -18096,58 +17687,8 @@
       <c r="AKH21" s="0"/>
       <c r="AKI21" s="0"/>
       <c r="AKJ21" s="0"/>
-      <c r="AKK21" s="0"/>
-      <c r="AKL21" s="0"/>
-      <c r="AKM21" s="0"/>
-      <c r="AKN21" s="0"/>
-      <c r="AKO21" s="0"/>
-      <c r="AKP21" s="0"/>
-      <c r="AKQ21" s="0"/>
-      <c r="AKR21" s="0"/>
-      <c r="AKS21" s="0"/>
-      <c r="AKT21" s="0"/>
-      <c r="AKU21" s="0"/>
-      <c r="AKV21" s="0"/>
-      <c r="AKW21" s="0"/>
-      <c r="AKX21" s="0"/>
-      <c r="AKY21" s="0"/>
-      <c r="AKZ21" s="0"/>
-      <c r="ALA21" s="0"/>
-      <c r="ALB21" s="0"/>
-      <c r="ALC21" s="0"/>
-      <c r="ALD21" s="0"/>
-      <c r="ALE21" s="0"/>
-      <c r="ALF21" s="0"/>
-      <c r="ALG21" s="0"/>
-      <c r="ALH21" s="0"/>
-      <c r="ALI21" s="0"/>
-      <c r="ALJ21" s="0"/>
-      <c r="ALK21" s="0"/>
-      <c r="ALL21" s="0"/>
-      <c r="ALM21" s="0"/>
-      <c r="ALN21" s="0"/>
-      <c r="ALO21" s="0"/>
-      <c r="ALP21" s="0"/>
-      <c r="ALQ21" s="0"/>
-      <c r="ALR21" s="0"/>
-      <c r="ALS21" s="0"/>
-      <c r="ALT21" s="0"/>
-      <c r="ALU21" s="0"/>
-      <c r="ALV21" s="0"/>
-      <c r="ALW21" s="0"/>
-      <c r="ALX21" s="0"/>
-      <c r="ALY21" s="0"/>
-      <c r="ALZ21" s="0"/>
-      <c r="AMA21" s="0"/>
-      <c r="AMB21" s="0"/>
-      <c r="AMC21" s="0"/>
-      <c r="AMD21" s="0"/>
-      <c r="AME21" s="0"/>
-      <c r="AMF21" s="0"/>
-      <c r="AMG21" s="0"/>
-      <c r="AMH21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="64" t="s">
         <v>58</v>
       </c>
@@ -19149,58 +18690,8 @@
       <c r="AKH22" s="0"/>
       <c r="AKI22" s="0"/>
       <c r="AKJ22" s="0"/>
-      <c r="AKK22" s="0"/>
-      <c r="AKL22" s="0"/>
-      <c r="AKM22" s="0"/>
-      <c r="AKN22" s="0"/>
-      <c r="AKO22" s="0"/>
-      <c r="AKP22" s="0"/>
-      <c r="AKQ22" s="0"/>
-      <c r="AKR22" s="0"/>
-      <c r="AKS22" s="0"/>
-      <c r="AKT22" s="0"/>
-      <c r="AKU22" s="0"/>
-      <c r="AKV22" s="0"/>
-      <c r="AKW22" s="0"/>
-      <c r="AKX22" s="0"/>
-      <c r="AKY22" s="0"/>
-      <c r="AKZ22" s="0"/>
-      <c r="ALA22" s="0"/>
-      <c r="ALB22" s="0"/>
-      <c r="ALC22" s="0"/>
-      <c r="ALD22" s="0"/>
-      <c r="ALE22" s="0"/>
-      <c r="ALF22" s="0"/>
-      <c r="ALG22" s="0"/>
-      <c r="ALH22" s="0"/>
-      <c r="ALI22" s="0"/>
-      <c r="ALJ22" s="0"/>
-      <c r="ALK22" s="0"/>
-      <c r="ALL22" s="0"/>
-      <c r="ALM22" s="0"/>
-      <c r="ALN22" s="0"/>
-      <c r="ALO22" s="0"/>
-      <c r="ALP22" s="0"/>
-      <c r="ALQ22" s="0"/>
-      <c r="ALR22" s="0"/>
-      <c r="ALS22" s="0"/>
-      <c r="ALT22" s="0"/>
-      <c r="ALU22" s="0"/>
-      <c r="ALV22" s="0"/>
-      <c r="ALW22" s="0"/>
-      <c r="ALX22" s="0"/>
-      <c r="ALY22" s="0"/>
-      <c r="ALZ22" s="0"/>
-      <c r="AMA22" s="0"/>
-      <c r="AMB22" s="0"/>
-      <c r="AMC22" s="0"/>
-      <c r="AMD22" s="0"/>
-      <c r="AME22" s="0"/>
-      <c r="AMF22" s="0"/>
-      <c r="AMG22" s="0"/>
-      <c r="AMH22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="64" t="s">
         <v>62</v>
       </c>
@@ -20193,58 +19684,8 @@
       <c r="AKH23" s="0"/>
       <c r="AKI23" s="0"/>
       <c r="AKJ23" s="0"/>
-      <c r="AKK23" s="0"/>
-      <c r="AKL23" s="0"/>
-      <c r="AKM23" s="0"/>
-      <c r="AKN23" s="0"/>
-      <c r="AKO23" s="0"/>
-      <c r="AKP23" s="0"/>
-      <c r="AKQ23" s="0"/>
-      <c r="AKR23" s="0"/>
-      <c r="AKS23" s="0"/>
-      <c r="AKT23" s="0"/>
-      <c r="AKU23" s="0"/>
-      <c r="AKV23" s="0"/>
-      <c r="AKW23" s="0"/>
-      <c r="AKX23" s="0"/>
-      <c r="AKY23" s="0"/>
-      <c r="AKZ23" s="0"/>
-      <c r="ALA23" s="0"/>
-      <c r="ALB23" s="0"/>
-      <c r="ALC23" s="0"/>
-      <c r="ALD23" s="0"/>
-      <c r="ALE23" s="0"/>
-      <c r="ALF23" s="0"/>
-      <c r="ALG23" s="0"/>
-      <c r="ALH23" s="0"/>
-      <c r="ALI23" s="0"/>
-      <c r="ALJ23" s="0"/>
-      <c r="ALK23" s="0"/>
-      <c r="ALL23" s="0"/>
-      <c r="ALM23" s="0"/>
-      <c r="ALN23" s="0"/>
-      <c r="ALO23" s="0"/>
-      <c r="ALP23" s="0"/>
-      <c r="ALQ23" s="0"/>
-      <c r="ALR23" s="0"/>
-      <c r="ALS23" s="0"/>
-      <c r="ALT23" s="0"/>
-      <c r="ALU23" s="0"/>
-      <c r="ALV23" s="0"/>
-      <c r="ALW23" s="0"/>
-      <c r="ALX23" s="0"/>
-      <c r="ALY23" s="0"/>
-      <c r="ALZ23" s="0"/>
-      <c r="AMA23" s="0"/>
-      <c r="AMB23" s="0"/>
-      <c r="AMC23" s="0"/>
-      <c r="AMD23" s="0"/>
-      <c r="AME23" s="0"/>
-      <c r="AMF23" s="0"/>
-      <c r="AMG23" s="0"/>
-      <c r="AMH23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="64" t="s">
         <v>64</v>
       </c>
@@ -20257,21 +19698,21 @@
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
       <c r="F24" s="24" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G24" s="20" t="n">
-        <v>200000</v>
-      </c>
-      <c r="H24" s="26" t="n">
-        <v>200000</v>
+        <v>350000</v>
+      </c>
+      <c r="G24" s="24" t="n">
+        <v>350000</v>
+      </c>
+      <c r="H24" s="24" t="n">
+        <v>350000</v>
       </c>
       <c r="I24" s="65" t="n">
         <f aca="false">F24+G24+H24</f>
-        <v>600000</v>
+        <v>1050000</v>
       </c>
       <c r="J24" s="18" t="n">
         <f aca="false">F24+G24+H24</f>
-        <v>600000</v>
+        <v>1050000</v>
       </c>
       <c r="K24" s="28" t="s">
         <v>21</v>
@@ -21237,56 +20678,6 @@
       <c r="AKH24" s="0"/>
       <c r="AKI24" s="0"/>
       <c r="AKJ24" s="0"/>
-      <c r="AKK24" s="0"/>
-      <c r="AKL24" s="0"/>
-      <c r="AKM24" s="0"/>
-      <c r="AKN24" s="0"/>
-      <c r="AKO24" s="0"/>
-      <c r="AKP24" s="0"/>
-      <c r="AKQ24" s="0"/>
-      <c r="AKR24" s="0"/>
-      <c r="AKS24" s="0"/>
-      <c r="AKT24" s="0"/>
-      <c r="AKU24" s="0"/>
-      <c r="AKV24" s="0"/>
-      <c r="AKW24" s="0"/>
-      <c r="AKX24" s="0"/>
-      <c r="AKY24" s="0"/>
-      <c r="AKZ24" s="0"/>
-      <c r="ALA24" s="0"/>
-      <c r="ALB24" s="0"/>
-      <c r="ALC24" s="0"/>
-      <c r="ALD24" s="0"/>
-      <c r="ALE24" s="0"/>
-      <c r="ALF24" s="0"/>
-      <c r="ALG24" s="0"/>
-      <c r="ALH24" s="0"/>
-      <c r="ALI24" s="0"/>
-      <c r="ALJ24" s="0"/>
-      <c r="ALK24" s="0"/>
-      <c r="ALL24" s="0"/>
-      <c r="ALM24" s="0"/>
-      <c r="ALN24" s="0"/>
-      <c r="ALO24" s="0"/>
-      <c r="ALP24" s="0"/>
-      <c r="ALQ24" s="0"/>
-      <c r="ALR24" s="0"/>
-      <c r="ALS24" s="0"/>
-      <c r="ALT24" s="0"/>
-      <c r="ALU24" s="0"/>
-      <c r="ALV24" s="0"/>
-      <c r="ALW24" s="0"/>
-      <c r="ALX24" s="0"/>
-      <c r="ALY24" s="0"/>
-      <c r="ALZ24" s="0"/>
-      <c r="AMA24" s="0"/>
-      <c r="AMB24" s="0"/>
-      <c r="AMC24" s="0"/>
-      <c r="AMD24" s="0"/>
-      <c r="AME24" s="0"/>
-      <c r="AMF24" s="0"/>
-      <c r="AMG24" s="0"/>
-      <c r="AMH24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="66" t="s">
@@ -22285,56 +21676,6 @@
       <c r="AKH25" s="0"/>
       <c r="AKI25" s="0"/>
       <c r="AKJ25" s="0"/>
-      <c r="AKK25" s="0"/>
-      <c r="AKL25" s="0"/>
-      <c r="AKM25" s="0"/>
-      <c r="AKN25" s="0"/>
-      <c r="AKO25" s="0"/>
-      <c r="AKP25" s="0"/>
-      <c r="AKQ25" s="0"/>
-      <c r="AKR25" s="0"/>
-      <c r="AKS25" s="0"/>
-      <c r="AKT25" s="0"/>
-      <c r="AKU25" s="0"/>
-      <c r="AKV25" s="0"/>
-      <c r="AKW25" s="0"/>
-      <c r="AKX25" s="0"/>
-      <c r="AKY25" s="0"/>
-      <c r="AKZ25" s="0"/>
-      <c r="ALA25" s="0"/>
-      <c r="ALB25" s="0"/>
-      <c r="ALC25" s="0"/>
-      <c r="ALD25" s="0"/>
-      <c r="ALE25" s="0"/>
-      <c r="ALF25" s="0"/>
-      <c r="ALG25" s="0"/>
-      <c r="ALH25" s="0"/>
-      <c r="ALI25" s="0"/>
-      <c r="ALJ25" s="0"/>
-      <c r="ALK25" s="0"/>
-      <c r="ALL25" s="0"/>
-      <c r="ALM25" s="0"/>
-      <c r="ALN25" s="0"/>
-      <c r="ALO25" s="0"/>
-      <c r="ALP25" s="0"/>
-      <c r="ALQ25" s="0"/>
-      <c r="ALR25" s="0"/>
-      <c r="ALS25" s="0"/>
-      <c r="ALT25" s="0"/>
-      <c r="ALU25" s="0"/>
-      <c r="ALV25" s="0"/>
-      <c r="ALW25" s="0"/>
-      <c r="ALX25" s="0"/>
-      <c r="ALY25" s="0"/>
-      <c r="ALZ25" s="0"/>
-      <c r="AMA25" s="0"/>
-      <c r="AMB25" s="0"/>
-      <c r="AMC25" s="0"/>
-      <c r="AMD25" s="0"/>
-      <c r="AME25" s="0"/>
-      <c r="AMF25" s="0"/>
-      <c r="AMG25" s="0"/>
-      <c r="AMH25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="72" t="s">
@@ -22358,17 +21699,17 @@
         <f aca="false">SUM(H3:H23)</f>
         <v>458636</v>
       </c>
-      <c r="I26" s="74" t="n">
+      <c r="I26" s="75" t="n">
         <f aca="false">SUM(I3:I25)</f>
-        <v>3614393</v>
-      </c>
-      <c r="J26" s="74" t="n">
+        <v>4064393</v>
+      </c>
+      <c r="J26" s="76" t="n">
         <f aca="false">SUM(J3:J25)</f>
-        <v>3614393</v>
-      </c>
-      <c r="K26" s="75"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="75"/>
+        <v>4064393</v>
+      </c>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="77"/>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
       <c r="P26" s="0"/>
@@ -23328,90 +22669,40 @@
       <c r="AKH26" s="0"/>
       <c r="AKI26" s="0"/>
       <c r="AKJ26" s="0"/>
-      <c r="AKK26" s="0"/>
-      <c r="AKL26" s="0"/>
-      <c r="AKM26" s="0"/>
-      <c r="AKN26" s="0"/>
-      <c r="AKO26" s="0"/>
-      <c r="AKP26" s="0"/>
-      <c r="AKQ26" s="0"/>
-      <c r="AKR26" s="0"/>
-      <c r="AKS26" s="0"/>
-      <c r="AKT26" s="0"/>
-      <c r="AKU26" s="0"/>
-      <c r="AKV26" s="0"/>
-      <c r="AKW26" s="0"/>
-      <c r="AKX26" s="0"/>
-      <c r="AKY26" s="0"/>
-      <c r="AKZ26" s="0"/>
-      <c r="ALA26" s="0"/>
-      <c r="ALB26" s="0"/>
-      <c r="ALC26" s="0"/>
-      <c r="ALD26" s="0"/>
-      <c r="ALE26" s="0"/>
-      <c r="ALF26" s="0"/>
-      <c r="ALG26" s="0"/>
-      <c r="ALH26" s="0"/>
-      <c r="ALI26" s="0"/>
-      <c r="ALJ26" s="0"/>
-      <c r="ALK26" s="0"/>
-      <c r="ALL26" s="0"/>
-      <c r="ALM26" s="0"/>
-      <c r="ALN26" s="0"/>
-      <c r="ALO26" s="0"/>
-      <c r="ALP26" s="0"/>
-      <c r="ALQ26" s="0"/>
-      <c r="ALR26" s="0"/>
-      <c r="ALS26" s="0"/>
-      <c r="ALT26" s="0"/>
-      <c r="ALU26" s="0"/>
-      <c r="ALV26" s="0"/>
-      <c r="ALW26" s="0"/>
-      <c r="ALX26" s="0"/>
-      <c r="ALY26" s="0"/>
-      <c r="ALZ26" s="0"/>
-      <c r="AMA26" s="0"/>
-      <c r="AMB26" s="0"/>
-      <c r="AMC26" s="0"/>
-      <c r="AMD26" s="0"/>
-      <c r="AME26" s="0"/>
-      <c r="AMF26" s="0"/>
-      <c r="AMG26" s="0"/>
-      <c r="AMH26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="79" t="n">
+      <c r="C27" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79" t="n">
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="79" t="n">
+      <c r="G27" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="79" t="n">
+      <c r="H27" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="80" t="n">
+      <c r="I27" s="82" t="n">
         <f aca="false">H27+G27+F27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="81" t="n">
+      <c r="J27" s="83" t="n">
         <v>500000</v>
       </c>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83" t="s">
+      <c r="K27" s="84"/>
+      <c r="L27" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="84"/>
+      <c r="M27" s="86"/>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
       <c r="P27" s="0"/>
@@ -24371,59 +23662,9 @@
       <c r="AKH27" s="0"/>
       <c r="AKI27" s="0"/>
       <c r="AKJ27" s="0"/>
-      <c r="AKK27" s="0"/>
-      <c r="AKL27" s="0"/>
-      <c r="AKM27" s="0"/>
-      <c r="AKN27" s="0"/>
-      <c r="AKO27" s="0"/>
-      <c r="AKP27" s="0"/>
-      <c r="AKQ27" s="0"/>
-      <c r="AKR27" s="0"/>
-      <c r="AKS27" s="0"/>
-      <c r="AKT27" s="0"/>
-      <c r="AKU27" s="0"/>
-      <c r="AKV27" s="0"/>
-      <c r="AKW27" s="0"/>
-      <c r="AKX27" s="0"/>
-      <c r="AKY27" s="0"/>
-      <c r="AKZ27" s="0"/>
-      <c r="ALA27" s="0"/>
-      <c r="ALB27" s="0"/>
-      <c r="ALC27" s="0"/>
-      <c r="ALD27" s="0"/>
-      <c r="ALE27" s="0"/>
-      <c r="ALF27" s="0"/>
-      <c r="ALG27" s="0"/>
-      <c r="ALH27" s="0"/>
-      <c r="ALI27" s="0"/>
-      <c r="ALJ27" s="0"/>
-      <c r="ALK27" s="0"/>
-      <c r="ALL27" s="0"/>
-      <c r="ALM27" s="0"/>
-      <c r="ALN27" s="0"/>
-      <c r="ALO27" s="0"/>
-      <c r="ALP27" s="0"/>
-      <c r="ALQ27" s="0"/>
-      <c r="ALR27" s="0"/>
-      <c r="ALS27" s="0"/>
-      <c r="ALT27" s="0"/>
-      <c r="ALU27" s="0"/>
-      <c r="ALV27" s="0"/>
-      <c r="ALW27" s="0"/>
-      <c r="ALX27" s="0"/>
-      <c r="ALY27" s="0"/>
-      <c r="ALZ27" s="0"/>
-      <c r="AMA27" s="0"/>
-      <c r="AMB27" s="0"/>
-      <c r="AMC27" s="0"/>
-      <c r="AMD27" s="0"/>
-      <c r="AME27" s="0"/>
-      <c r="AMF27" s="0"/>
-      <c r="AMG27" s="0"/>
-      <c r="AMH27" s="0"/>
     </row>
-    <row r="28" s="86" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="66" t="s">
+    <row r="28" s="90" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="87" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="67" t="s">
@@ -24447,11 +23688,11 @@
       <c r="H28" s="69" t="n">
         <v>5000</v>
       </c>
-      <c r="I28" s="85" t="n">
+      <c r="I28" s="88" t="n">
         <f aca="false">H28+G28+F28</f>
         <v>15000</v>
       </c>
-      <c r="J28" s="70" t="n">
+      <c r="J28" s="89" t="n">
         <f aca="false">H28+G28+F28</f>
         <v>15000</v>
       </c>
@@ -24460,11 +23701,61 @@
       </c>
       <c r="L28" s="69"/>
       <c r="M28" s="69"/>
-      <c r="AMI28" s="87"/>
-      <c r="AMJ28" s="87"/>
+      <c r="AKK28" s="91"/>
+      <c r="AKL28" s="91"/>
+      <c r="AKM28" s="0"/>
+      <c r="AKN28" s="0"/>
+      <c r="AKO28" s="0"/>
+      <c r="AKP28" s="0"/>
+      <c r="AKQ28" s="0"/>
+      <c r="AKR28" s="0"/>
+      <c r="AKS28" s="0"/>
+      <c r="AKT28" s="0"/>
+      <c r="AKU28" s="0"/>
+      <c r="AKV28" s="0"/>
+      <c r="AKW28" s="0"/>
+      <c r="AKX28" s="0"/>
+      <c r="AKY28" s="0"/>
+      <c r="AKZ28" s="0"/>
+      <c r="ALA28" s="0"/>
+      <c r="ALB28" s="0"/>
+      <c r="ALC28" s="0"/>
+      <c r="ALD28" s="0"/>
+      <c r="ALE28" s="0"/>
+      <c r="ALF28" s="0"/>
+      <c r="ALG28" s="0"/>
+      <c r="ALH28" s="0"/>
+      <c r="ALI28" s="0"/>
+      <c r="ALJ28" s="0"/>
+      <c r="ALK28" s="0"/>
+      <c r="ALL28" s="0"/>
+      <c r="ALM28" s="0"/>
+      <c r="ALN28" s="0"/>
+      <c r="ALO28" s="0"/>
+      <c r="ALP28" s="0"/>
+      <c r="ALQ28" s="0"/>
+      <c r="ALR28" s="0"/>
+      <c r="ALS28" s="0"/>
+      <c r="ALT28" s="0"/>
+      <c r="ALU28" s="0"/>
+      <c r="ALV28" s="0"/>
+      <c r="ALW28" s="0"/>
+      <c r="ALX28" s="0"/>
+      <c r="ALY28" s="0"/>
+      <c r="ALZ28" s="0"/>
+      <c r="AMA28" s="0"/>
+      <c r="AMB28" s="0"/>
+      <c r="AMC28" s="0"/>
+      <c r="AMD28" s="0"/>
+      <c r="AME28" s="0"/>
+      <c r="AMF28" s="0"/>
+      <c r="AMG28" s="0"/>
+      <c r="AMH28" s="0"/>
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="87" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="67" t="s">
@@ -24488,11 +23779,11 @@
       <c r="H29" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="85" t="n">
+      <c r="I29" s="88" t="n">
         <f aca="false">H29+G29+F29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="70" t="n">
+      <c r="J29" s="89" t="n">
         <f aca="false">H29+G29+F29</f>
         <v>0</v>
       </c>
@@ -25460,59 +24751,9 @@
       <c r="AKH29" s="0"/>
       <c r="AKI29" s="0"/>
       <c r="AKJ29" s="0"/>
-      <c r="AKK29" s="0"/>
-      <c r="AKL29" s="0"/>
-      <c r="AKM29" s="0"/>
-      <c r="AKN29" s="0"/>
-      <c r="AKO29" s="0"/>
-      <c r="AKP29" s="0"/>
-      <c r="AKQ29" s="0"/>
-      <c r="AKR29" s="0"/>
-      <c r="AKS29" s="0"/>
-      <c r="AKT29" s="0"/>
-      <c r="AKU29" s="0"/>
-      <c r="AKV29" s="0"/>
-      <c r="AKW29" s="0"/>
-      <c r="AKX29" s="0"/>
-      <c r="AKY29" s="0"/>
-      <c r="AKZ29" s="0"/>
-      <c r="ALA29" s="0"/>
-      <c r="ALB29" s="0"/>
-      <c r="ALC29" s="0"/>
-      <c r="ALD29" s="0"/>
-      <c r="ALE29" s="0"/>
-      <c r="ALF29" s="0"/>
-      <c r="ALG29" s="0"/>
-      <c r="ALH29" s="0"/>
-      <c r="ALI29" s="0"/>
-      <c r="ALJ29" s="0"/>
-      <c r="ALK29" s="0"/>
-      <c r="ALL29" s="0"/>
-      <c r="ALM29" s="0"/>
-      <c r="ALN29" s="0"/>
-      <c r="ALO29" s="0"/>
-      <c r="ALP29" s="0"/>
-      <c r="ALQ29" s="0"/>
-      <c r="ALR29" s="0"/>
-      <c r="ALS29" s="0"/>
-      <c r="ALT29" s="0"/>
-      <c r="ALU29" s="0"/>
-      <c r="ALV29" s="0"/>
-      <c r="ALW29" s="0"/>
-      <c r="ALX29" s="0"/>
-      <c r="ALY29" s="0"/>
-      <c r="ALZ29" s="0"/>
-      <c r="AMA29" s="0"/>
-      <c r="AMB29" s="0"/>
-      <c r="AMC29" s="0"/>
-      <c r="AMD29" s="0"/>
-      <c r="AME29" s="0"/>
-      <c r="AMF29" s="0"/>
-      <c r="AMG29" s="0"/>
-      <c r="AMH29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="87" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="67" t="s">
@@ -25536,11 +24777,11 @@
       <c r="H30" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="85" t="n">
+      <c r="I30" s="88" t="n">
         <f aca="false">H30+G30+F30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="70" t="n">
+      <c r="J30" s="89" t="n">
         <f aca="false">H30+G30+F30</f>
         <v>0</v>
       </c>
@@ -26508,59 +25749,9 @@
       <c r="AKH30" s="0"/>
       <c r="AKI30" s="0"/>
       <c r="AKJ30" s="0"/>
-      <c r="AKK30" s="0"/>
-      <c r="AKL30" s="0"/>
-      <c r="AKM30" s="0"/>
-      <c r="AKN30" s="0"/>
-      <c r="AKO30" s="0"/>
-      <c r="AKP30" s="0"/>
-      <c r="AKQ30" s="0"/>
-      <c r="AKR30" s="0"/>
-      <c r="AKS30" s="0"/>
-      <c r="AKT30" s="0"/>
-      <c r="AKU30" s="0"/>
-      <c r="AKV30" s="0"/>
-      <c r="AKW30" s="0"/>
-      <c r="AKX30" s="0"/>
-      <c r="AKY30" s="0"/>
-      <c r="AKZ30" s="0"/>
-      <c r="ALA30" s="0"/>
-      <c r="ALB30" s="0"/>
-      <c r="ALC30" s="0"/>
-      <c r="ALD30" s="0"/>
-      <c r="ALE30" s="0"/>
-      <c r="ALF30" s="0"/>
-      <c r="ALG30" s="0"/>
-      <c r="ALH30" s="0"/>
-      <c r="ALI30" s="0"/>
-      <c r="ALJ30" s="0"/>
-      <c r="ALK30" s="0"/>
-      <c r="ALL30" s="0"/>
-      <c r="ALM30" s="0"/>
-      <c r="ALN30" s="0"/>
-      <c r="ALO30" s="0"/>
-      <c r="ALP30" s="0"/>
-      <c r="ALQ30" s="0"/>
-      <c r="ALR30" s="0"/>
-      <c r="ALS30" s="0"/>
-      <c r="ALT30" s="0"/>
-      <c r="ALU30" s="0"/>
-      <c r="ALV30" s="0"/>
-      <c r="ALW30" s="0"/>
-      <c r="ALX30" s="0"/>
-      <c r="ALY30" s="0"/>
-      <c r="ALZ30" s="0"/>
-      <c r="AMA30" s="0"/>
-      <c r="AMB30" s="0"/>
-      <c r="AMC30" s="0"/>
-      <c r="AMD30" s="0"/>
-      <c r="AME30" s="0"/>
-      <c r="AMF30" s="0"/>
-      <c r="AMG30" s="0"/>
-      <c r="AMH30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="87" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="67" t="s">
@@ -26584,11 +25775,11 @@
       <c r="H31" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="85" t="n">
+      <c r="I31" s="88" t="n">
         <f aca="false">H31+G31+F31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="70" t="n">
+      <c r="J31" s="89" t="n">
         <f aca="false">H31+G31+F31</f>
         <v>0</v>
       </c>
@@ -27556,59 +26747,9 @@
       <c r="AKH31" s="0"/>
       <c r="AKI31" s="0"/>
       <c r="AKJ31" s="0"/>
-      <c r="AKK31" s="0"/>
-      <c r="AKL31" s="0"/>
-      <c r="AKM31" s="0"/>
-      <c r="AKN31" s="0"/>
-      <c r="AKO31" s="0"/>
-      <c r="AKP31" s="0"/>
-      <c r="AKQ31" s="0"/>
-      <c r="AKR31" s="0"/>
-      <c r="AKS31" s="0"/>
-      <c r="AKT31" s="0"/>
-      <c r="AKU31" s="0"/>
-      <c r="AKV31" s="0"/>
-      <c r="AKW31" s="0"/>
-      <c r="AKX31" s="0"/>
-      <c r="AKY31" s="0"/>
-      <c r="AKZ31" s="0"/>
-      <c r="ALA31" s="0"/>
-      <c r="ALB31" s="0"/>
-      <c r="ALC31" s="0"/>
-      <c r="ALD31" s="0"/>
-      <c r="ALE31" s="0"/>
-      <c r="ALF31" s="0"/>
-      <c r="ALG31" s="0"/>
-      <c r="ALH31" s="0"/>
-      <c r="ALI31" s="0"/>
-      <c r="ALJ31" s="0"/>
-      <c r="ALK31" s="0"/>
-      <c r="ALL31" s="0"/>
-      <c r="ALM31" s="0"/>
-      <c r="ALN31" s="0"/>
-      <c r="ALO31" s="0"/>
-      <c r="ALP31" s="0"/>
-      <c r="ALQ31" s="0"/>
-      <c r="ALR31" s="0"/>
-      <c r="ALS31" s="0"/>
-      <c r="ALT31" s="0"/>
-      <c r="ALU31" s="0"/>
-      <c r="ALV31" s="0"/>
-      <c r="ALW31" s="0"/>
-      <c r="ALX31" s="0"/>
-      <c r="ALY31" s="0"/>
-      <c r="ALZ31" s="0"/>
-      <c r="AMA31" s="0"/>
-      <c r="AMB31" s="0"/>
-      <c r="AMC31" s="0"/>
-      <c r="AMD31" s="0"/>
-      <c r="AME31" s="0"/>
-      <c r="AMF31" s="0"/>
-      <c r="AMG31" s="0"/>
-      <c r="AMH31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="87" t="s">
         <v>73</v>
       </c>
       <c r="B32" s="67" t="s">
@@ -27632,11 +26773,11 @@
       <c r="H32" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="85" t="n">
+      <c r="I32" s="88" t="n">
         <f aca="false">H32+G32+F32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="70" t="n">
+      <c r="J32" s="89" t="n">
         <f aca="false">H32+G32+F32</f>
         <v>0</v>
       </c>
@@ -28604,59 +27745,9 @@
       <c r="AKH32" s="0"/>
       <c r="AKI32" s="0"/>
       <c r="AKJ32" s="0"/>
-      <c r="AKK32" s="0"/>
-      <c r="AKL32" s="0"/>
-      <c r="AKM32" s="0"/>
-      <c r="AKN32" s="0"/>
-      <c r="AKO32" s="0"/>
-      <c r="AKP32" s="0"/>
-      <c r="AKQ32" s="0"/>
-      <c r="AKR32" s="0"/>
-      <c r="AKS32" s="0"/>
-      <c r="AKT32" s="0"/>
-      <c r="AKU32" s="0"/>
-      <c r="AKV32" s="0"/>
-      <c r="AKW32" s="0"/>
-      <c r="AKX32" s="0"/>
-      <c r="AKY32" s="0"/>
-      <c r="AKZ32" s="0"/>
-      <c r="ALA32" s="0"/>
-      <c r="ALB32" s="0"/>
-      <c r="ALC32" s="0"/>
-      <c r="ALD32" s="0"/>
-      <c r="ALE32" s="0"/>
-      <c r="ALF32" s="0"/>
-      <c r="ALG32" s="0"/>
-      <c r="ALH32" s="0"/>
-      <c r="ALI32" s="0"/>
-      <c r="ALJ32" s="0"/>
-      <c r="ALK32" s="0"/>
-      <c r="ALL32" s="0"/>
-      <c r="ALM32" s="0"/>
-      <c r="ALN32" s="0"/>
-      <c r="ALO32" s="0"/>
-      <c r="ALP32" s="0"/>
-      <c r="ALQ32" s="0"/>
-      <c r="ALR32" s="0"/>
-      <c r="ALS32" s="0"/>
-      <c r="ALT32" s="0"/>
-      <c r="ALU32" s="0"/>
-      <c r="ALV32" s="0"/>
-      <c r="ALW32" s="0"/>
-      <c r="ALX32" s="0"/>
-      <c r="ALY32" s="0"/>
-      <c r="ALZ32" s="0"/>
-      <c r="AMA32" s="0"/>
-      <c r="AMB32" s="0"/>
-      <c r="AMC32" s="0"/>
-      <c r="AMD32" s="0"/>
-      <c r="AME32" s="0"/>
-      <c r="AMF32" s="0"/>
-      <c r="AMG32" s="0"/>
-      <c r="AMH32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="87" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="67" t="s">
@@ -28681,11 +27772,11 @@
       <c r="H33" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="85" t="n">
+      <c r="I33" s="88" t="n">
         <f aca="false">H33+G33+F33</f>
         <v>71484</v>
       </c>
-      <c r="J33" s="70" t="n">
+      <c r="J33" s="89" t="n">
         <f aca="false">H33+G33+F33</f>
         <v>71484</v>
       </c>
@@ -29651,59 +28742,9 @@
       <c r="AKH33" s="0"/>
       <c r="AKI33" s="0"/>
       <c r="AKJ33" s="0"/>
-      <c r="AKK33" s="0"/>
-      <c r="AKL33" s="0"/>
-      <c r="AKM33" s="0"/>
-      <c r="AKN33" s="0"/>
-      <c r="AKO33" s="0"/>
-      <c r="AKP33" s="0"/>
-      <c r="AKQ33" s="0"/>
-      <c r="AKR33" s="0"/>
-      <c r="AKS33" s="0"/>
-      <c r="AKT33" s="0"/>
-      <c r="AKU33" s="0"/>
-      <c r="AKV33" s="0"/>
-      <c r="AKW33" s="0"/>
-      <c r="AKX33" s="0"/>
-      <c r="AKY33" s="0"/>
-      <c r="AKZ33" s="0"/>
-      <c r="ALA33" s="0"/>
-      <c r="ALB33" s="0"/>
-      <c r="ALC33" s="0"/>
-      <c r="ALD33" s="0"/>
-      <c r="ALE33" s="0"/>
-      <c r="ALF33" s="0"/>
-      <c r="ALG33" s="0"/>
-      <c r="ALH33" s="0"/>
-      <c r="ALI33" s="0"/>
-      <c r="ALJ33" s="0"/>
-      <c r="ALK33" s="0"/>
-      <c r="ALL33" s="0"/>
-      <c r="ALM33" s="0"/>
-      <c r="ALN33" s="0"/>
-      <c r="ALO33" s="0"/>
-      <c r="ALP33" s="0"/>
-      <c r="ALQ33" s="0"/>
-      <c r="ALR33" s="0"/>
-      <c r="ALS33" s="0"/>
-      <c r="ALT33" s="0"/>
-      <c r="ALU33" s="0"/>
-      <c r="ALV33" s="0"/>
-      <c r="ALW33" s="0"/>
-      <c r="ALX33" s="0"/>
-      <c r="ALY33" s="0"/>
-      <c r="ALZ33" s="0"/>
-      <c r="AMA33" s="0"/>
-      <c r="AMB33" s="0"/>
-      <c r="AMC33" s="0"/>
-      <c r="AMD33" s="0"/>
-      <c r="AME33" s="0"/>
-      <c r="AMF33" s="0"/>
-      <c r="AMG33" s="0"/>
-      <c r="AMH33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="87" t="s">
         <v>75</v>
       </c>
       <c r="B34" s="67" t="s">
@@ -29728,11 +28769,11 @@
         <f aca="false">C34*D34</f>
         <v>5000</v>
       </c>
-      <c r="I34" s="85" t="n">
+      <c r="I34" s="88" t="n">
         <f aca="false">H34+G34+F34</f>
         <v>15000</v>
       </c>
-      <c r="J34" s="70" t="n">
+      <c r="J34" s="89" t="n">
         <f aca="false">H34+G34+F34</f>
         <v>15000</v>
       </c>
@@ -30702,65 +29743,15 @@
       <c r="AKH34" s="0"/>
       <c r="AKI34" s="0"/>
       <c r="AKJ34" s="0"/>
-      <c r="AKK34" s="0"/>
-      <c r="AKL34" s="0"/>
-      <c r="AKM34" s="0"/>
-      <c r="AKN34" s="0"/>
-      <c r="AKO34" s="0"/>
-      <c r="AKP34" s="0"/>
-      <c r="AKQ34" s="0"/>
-      <c r="AKR34" s="0"/>
-      <c r="AKS34" s="0"/>
-      <c r="AKT34" s="0"/>
-      <c r="AKU34" s="0"/>
-      <c r="AKV34" s="0"/>
-      <c r="AKW34" s="0"/>
-      <c r="AKX34" s="0"/>
-      <c r="AKY34" s="0"/>
-      <c r="AKZ34" s="0"/>
-      <c r="ALA34" s="0"/>
-      <c r="ALB34" s="0"/>
-      <c r="ALC34" s="0"/>
-      <c r="ALD34" s="0"/>
-      <c r="ALE34" s="0"/>
-      <c r="ALF34" s="0"/>
-      <c r="ALG34" s="0"/>
-      <c r="ALH34" s="0"/>
-      <c r="ALI34" s="0"/>
-      <c r="ALJ34" s="0"/>
-      <c r="ALK34" s="0"/>
-      <c r="ALL34" s="0"/>
-      <c r="ALM34" s="0"/>
-      <c r="ALN34" s="0"/>
-      <c r="ALO34" s="0"/>
-      <c r="ALP34" s="0"/>
-      <c r="ALQ34" s="0"/>
-      <c r="ALR34" s="0"/>
-      <c r="ALS34" s="0"/>
-      <c r="ALT34" s="0"/>
-      <c r="ALU34" s="0"/>
-      <c r="ALV34" s="0"/>
-      <c r="ALW34" s="0"/>
-      <c r="ALX34" s="0"/>
-      <c r="ALY34" s="0"/>
-      <c r="ALZ34" s="0"/>
-      <c r="AMA34" s="0"/>
-      <c r="AMB34" s="0"/>
-      <c r="AMC34" s="0"/>
-      <c r="AMD34" s="0"/>
-      <c r="AME34" s="0"/>
-      <c r="AMF34" s="0"/>
-      <c r="AMG34" s="0"/>
-      <c r="AMH34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="88" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="90" t="s">
+      <c r="C35" s="94" t="s">
         <v>79</v>
       </c>
       <c r="D35" s="69" t="n">
@@ -30778,11 +29769,11 @@
       <c r="H35" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="85" t="n">
+      <c r="I35" s="88" t="n">
         <f aca="false">H35+G35+F35</f>
         <v>0</v>
       </c>
-      <c r="J35" s="70" t="n">
+      <c r="J35" s="89" t="n">
         <f aca="false">H35+G35+F35</f>
         <v>0</v>
       </c>
@@ -31752,74 +30743,24 @@
       <c r="AKH35" s="0"/>
       <c r="AKI35" s="0"/>
       <c r="AKJ35" s="0"/>
-      <c r="AKK35" s="0"/>
-      <c r="AKL35" s="0"/>
-      <c r="AKM35" s="0"/>
-      <c r="AKN35" s="0"/>
-      <c r="AKO35" s="0"/>
-      <c r="AKP35" s="0"/>
-      <c r="AKQ35" s="0"/>
-      <c r="AKR35" s="0"/>
-      <c r="AKS35" s="0"/>
-      <c r="AKT35" s="0"/>
-      <c r="AKU35" s="0"/>
-      <c r="AKV35" s="0"/>
-      <c r="AKW35" s="0"/>
-      <c r="AKX35" s="0"/>
-      <c r="AKY35" s="0"/>
-      <c r="AKZ35" s="0"/>
-      <c r="ALA35" s="0"/>
-      <c r="ALB35" s="0"/>
-      <c r="ALC35" s="0"/>
-      <c r="ALD35" s="0"/>
-      <c r="ALE35" s="0"/>
-      <c r="ALF35" s="0"/>
-      <c r="ALG35" s="0"/>
-      <c r="ALH35" s="0"/>
-      <c r="ALI35" s="0"/>
-      <c r="ALJ35" s="0"/>
-      <c r="ALK35" s="0"/>
-      <c r="ALL35" s="0"/>
-      <c r="ALM35" s="0"/>
-      <c r="ALN35" s="0"/>
-      <c r="ALO35" s="0"/>
-      <c r="ALP35" s="0"/>
-      <c r="ALQ35" s="0"/>
-      <c r="ALR35" s="0"/>
-      <c r="ALS35" s="0"/>
-      <c r="ALT35" s="0"/>
-      <c r="ALU35" s="0"/>
-      <c r="ALV35" s="0"/>
-      <c r="ALW35" s="0"/>
-      <c r="ALX35" s="0"/>
-      <c r="ALY35" s="0"/>
-      <c r="ALZ35" s="0"/>
-      <c r="AMA35" s="0"/>
-      <c r="AMB35" s="0"/>
-      <c r="AMC35" s="0"/>
-      <c r="AMD35" s="0"/>
-      <c r="AME35" s="0"/>
-      <c r="AMF35" s="0"/>
-      <c r="AMG35" s="0"/>
-      <c r="AMH35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="91" t="n">
+      <c r="C36" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="91" t="n">
+      <c r="D36" s="95" t="n">
         <v>33462.81</v>
       </c>
-      <c r="E36" s="91" t="n">
+      <c r="E36" s="95" t="n">
         <v>40490</v>
       </c>
-      <c r="F36" s="91" t="n">
+      <c r="F36" s="95" t="n">
         <v>40490</v>
       </c>
       <c r="G36" s="69" t="n">
@@ -31828,11 +30769,11 @@
       <c r="H36" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="85" t="n">
+      <c r="I36" s="88" t="n">
         <f aca="false">H36+G36+F36</f>
         <v>60490</v>
       </c>
-      <c r="J36" s="70" t="n">
+      <c r="J36" s="89" t="n">
         <f aca="false">H36+G36+F36</f>
         <v>60490</v>
       </c>
@@ -31842,7 +30783,7 @@
       <c r="L36" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="M36" s="92" t="s">
+      <c r="M36" s="96" t="s">
         <v>82</v>
       </c>
       <c r="N36" s="0"/>
@@ -32804,74 +31745,24 @@
       <c r="AKH36" s="0"/>
       <c r="AKI36" s="0"/>
       <c r="AKJ36" s="0"/>
-      <c r="AKK36" s="0"/>
-      <c r="AKL36" s="0"/>
-      <c r="AKM36" s="0"/>
-      <c r="AKN36" s="0"/>
-      <c r="AKO36" s="0"/>
-      <c r="AKP36" s="0"/>
-      <c r="AKQ36" s="0"/>
-      <c r="AKR36" s="0"/>
-      <c r="AKS36" s="0"/>
-      <c r="AKT36" s="0"/>
-      <c r="AKU36" s="0"/>
-      <c r="AKV36" s="0"/>
-      <c r="AKW36" s="0"/>
-      <c r="AKX36" s="0"/>
-      <c r="AKY36" s="0"/>
-      <c r="AKZ36" s="0"/>
-      <c r="ALA36" s="0"/>
-      <c r="ALB36" s="0"/>
-      <c r="ALC36" s="0"/>
-      <c r="ALD36" s="0"/>
-      <c r="ALE36" s="0"/>
-      <c r="ALF36" s="0"/>
-      <c r="ALG36" s="0"/>
-      <c r="ALH36" s="0"/>
-      <c r="ALI36" s="0"/>
-      <c r="ALJ36" s="0"/>
-      <c r="ALK36" s="0"/>
-      <c r="ALL36" s="0"/>
-      <c r="ALM36" s="0"/>
-      <c r="ALN36" s="0"/>
-      <c r="ALO36" s="0"/>
-      <c r="ALP36" s="0"/>
-      <c r="ALQ36" s="0"/>
-      <c r="ALR36" s="0"/>
-      <c r="ALS36" s="0"/>
-      <c r="ALT36" s="0"/>
-      <c r="ALU36" s="0"/>
-      <c r="ALV36" s="0"/>
-      <c r="ALW36" s="0"/>
-      <c r="ALX36" s="0"/>
-      <c r="ALY36" s="0"/>
-      <c r="ALZ36" s="0"/>
-      <c r="AMA36" s="0"/>
-      <c r="AMB36" s="0"/>
-      <c r="AMC36" s="0"/>
-      <c r="AMD36" s="0"/>
-      <c r="AME36" s="0"/>
-      <c r="AMF36" s="0"/>
-      <c r="AMG36" s="0"/>
-      <c r="AMH36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="91" t="n">
+      <c r="C37" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="93" t="s">
+      <c r="D37" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="93" t="s">
+      <c r="E37" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="93" t="s">
+      <c r="F37" s="97" t="s">
         <v>85</v>
       </c>
       <c r="G37" s="69" t="n">
@@ -32880,11 +31771,11 @@
       <c r="H37" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="85" t="n">
+      <c r="I37" s="88" t="n">
         <f aca="false">H37+G37+F37</f>
         <v>10499</v>
       </c>
-      <c r="J37" s="70" t="n">
+      <c r="J37" s="89" t="n">
         <f aca="false">H37+G37+F37</f>
         <v>10499</v>
       </c>
@@ -32894,7 +31785,7 @@
       <c r="L37" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="94"/>
+      <c r="M37" s="98"/>
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
       <c r="P37" s="0"/>
@@ -33854,1049 +32745,38 @@
       <c r="AKH37" s="0"/>
       <c r="AKI37" s="0"/>
       <c r="AKJ37" s="0"/>
-      <c r="AKK37" s="0"/>
-      <c r="AKL37" s="0"/>
-      <c r="AKM37" s="0"/>
-      <c r="AKN37" s="0"/>
-      <c r="AKO37" s="0"/>
-      <c r="AKP37" s="0"/>
-      <c r="AKQ37" s="0"/>
-      <c r="AKR37" s="0"/>
-      <c r="AKS37" s="0"/>
-      <c r="AKT37" s="0"/>
-      <c r="AKU37" s="0"/>
-      <c r="AKV37" s="0"/>
-      <c r="AKW37" s="0"/>
-      <c r="AKX37" s="0"/>
-      <c r="AKY37" s="0"/>
-      <c r="AKZ37" s="0"/>
-      <c r="ALA37" s="0"/>
-      <c r="ALB37" s="0"/>
-      <c r="ALC37" s="0"/>
-      <c r="ALD37" s="0"/>
-      <c r="ALE37" s="0"/>
-      <c r="ALF37" s="0"/>
-      <c r="ALG37" s="0"/>
-      <c r="ALH37" s="0"/>
-      <c r="ALI37" s="0"/>
-      <c r="ALJ37" s="0"/>
-      <c r="ALK37" s="0"/>
-      <c r="ALL37" s="0"/>
-      <c r="ALM37" s="0"/>
-      <c r="ALN37" s="0"/>
-      <c r="ALO37" s="0"/>
-      <c r="ALP37" s="0"/>
-      <c r="ALQ37" s="0"/>
-      <c r="ALR37" s="0"/>
-      <c r="ALS37" s="0"/>
-      <c r="ALT37" s="0"/>
-      <c r="ALU37" s="0"/>
-      <c r="ALV37" s="0"/>
-      <c r="ALW37" s="0"/>
-      <c r="ALX37" s="0"/>
-      <c r="ALY37" s="0"/>
-      <c r="ALZ37" s="0"/>
-      <c r="AMA37" s="0"/>
-      <c r="AMB37" s="0"/>
-      <c r="AMC37" s="0"/>
-      <c r="AMD37" s="0"/>
-      <c r="AME37" s="0"/>
-      <c r="AMF37" s="0"/>
-      <c r="AMG37" s="0"/>
-      <c r="AMH37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="95" t="s">
+    <row r="38" s="106" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="96"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97" t="n">
+      <c r="B38" s="100"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101" t="n">
         <f aca="false">SUM(F17:F18)</f>
         <v>43280</v>
       </c>
-      <c r="G38" s="97" t="n">
+      <c r="G38" s="101" t="n">
         <f aca="false">SUM(G17:G18)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="97" t="n">
+      <c r="H38" s="101" t="n">
         <f aca="false">SUM(H17:H18)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="97" t="n">
+      <c r="I38" s="102" t="n">
         <f aca="false">SUM(I26:I37)</f>
-        <v>3786866</v>
-      </c>
-      <c r="J38" s="98" t="n">
+        <v>4236866</v>
+      </c>
+      <c r="J38" s="103" t="n">
         <f aca="false">SUM(J26:J37)</f>
-        <v>4286866</v>
-      </c>
-      <c r="K38" s="98"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="0"/>
-      <c r="O38" s="0"/>
-      <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
-      <c r="R38" s="0"/>
-      <c r="S38" s="0"/>
-      <c r="T38" s="0"/>
-      <c r="U38" s="0"/>
-      <c r="V38" s="0"/>
-      <c r="W38" s="0"/>
-      <c r="X38" s="0"/>
-      <c r="Y38" s="0"/>
-      <c r="Z38" s="0"/>
-      <c r="AA38" s="0"/>
-      <c r="AB38" s="0"/>
-      <c r="AC38" s="0"/>
-      <c r="AD38" s="0"/>
-      <c r="AE38" s="0"/>
-      <c r="AF38" s="0"/>
-      <c r="AG38" s="0"/>
-      <c r="AH38" s="0"/>
-      <c r="AI38" s="0"/>
-      <c r="AJ38" s="0"/>
-      <c r="AK38" s="0"/>
-      <c r="AL38" s="0"/>
-      <c r="AM38" s="0"/>
-      <c r="AN38" s="0"/>
-      <c r="AO38" s="0"/>
-      <c r="AP38" s="0"/>
-      <c r="AQ38" s="0"/>
-      <c r="AR38" s="0"/>
-      <c r="AS38" s="0"/>
-      <c r="AT38" s="0"/>
-      <c r="AU38" s="0"/>
-      <c r="AV38" s="0"/>
-      <c r="AW38" s="0"/>
-      <c r="AX38" s="0"/>
-      <c r="AY38" s="0"/>
-      <c r="AZ38" s="0"/>
-      <c r="BA38" s="0"/>
-      <c r="BB38" s="0"/>
-      <c r="BC38" s="0"/>
-      <c r="BD38" s="0"/>
-      <c r="BE38" s="0"/>
-      <c r="BF38" s="0"/>
-      <c r="BG38" s="0"/>
-      <c r="BH38" s="0"/>
-      <c r="BI38" s="0"/>
-      <c r="BJ38" s="0"/>
-      <c r="BK38" s="0"/>
-      <c r="BL38" s="0"/>
-      <c r="BM38" s="0"/>
-      <c r="BN38" s="0"/>
-      <c r="BO38" s="0"/>
-      <c r="BP38" s="0"/>
-      <c r="BQ38" s="0"/>
-      <c r="BR38" s="0"/>
-      <c r="BS38" s="0"/>
-      <c r="BT38" s="0"/>
-      <c r="BU38" s="0"/>
-      <c r="BV38" s="0"/>
-      <c r="BW38" s="0"/>
-      <c r="BX38" s="0"/>
-      <c r="BY38" s="0"/>
-      <c r="BZ38" s="0"/>
-      <c r="CA38" s="0"/>
-      <c r="CB38" s="0"/>
-      <c r="CC38" s="0"/>
-      <c r="CD38" s="0"/>
-      <c r="CE38" s="0"/>
-      <c r="CF38" s="0"/>
-      <c r="CG38" s="0"/>
-      <c r="CH38" s="0"/>
-      <c r="CI38" s="0"/>
-      <c r="CJ38" s="0"/>
-      <c r="CK38" s="0"/>
-      <c r="CL38" s="0"/>
-      <c r="CM38" s="0"/>
-      <c r="CN38" s="0"/>
-      <c r="CO38" s="0"/>
-      <c r="CP38" s="0"/>
-      <c r="CQ38" s="0"/>
-      <c r="CR38" s="0"/>
-      <c r="CS38" s="0"/>
-      <c r="CT38" s="0"/>
-      <c r="CU38" s="0"/>
-      <c r="CV38" s="0"/>
-      <c r="CW38" s="0"/>
-      <c r="CX38" s="0"/>
-      <c r="CY38" s="0"/>
-      <c r="CZ38" s="0"/>
-      <c r="DA38" s="0"/>
-      <c r="DB38" s="0"/>
-      <c r="DC38" s="0"/>
-      <c r="DD38" s="0"/>
-      <c r="DE38" s="0"/>
-      <c r="DF38" s="0"/>
-      <c r="DG38" s="0"/>
-      <c r="DH38" s="0"/>
-      <c r="DI38" s="0"/>
-      <c r="DJ38" s="0"/>
-      <c r="DK38" s="0"/>
-      <c r="DL38" s="0"/>
-      <c r="DM38" s="0"/>
-      <c r="DN38" s="0"/>
-      <c r="DO38" s="0"/>
-      <c r="DP38" s="0"/>
-      <c r="DQ38" s="0"/>
-      <c r="DR38" s="0"/>
-      <c r="DS38" s="0"/>
-      <c r="DT38" s="0"/>
-      <c r="DU38" s="0"/>
-      <c r="DV38" s="0"/>
-      <c r="DW38" s="0"/>
-      <c r="DX38" s="0"/>
-      <c r="DY38" s="0"/>
-      <c r="DZ38" s="0"/>
-      <c r="EA38" s="0"/>
-      <c r="EB38" s="0"/>
-      <c r="EC38" s="0"/>
-      <c r="ED38" s="0"/>
-      <c r="EE38" s="0"/>
-      <c r="EF38" s="0"/>
-      <c r="EG38" s="0"/>
-      <c r="EH38" s="0"/>
-      <c r="EI38" s="0"/>
-      <c r="EJ38" s="0"/>
-      <c r="EK38" s="0"/>
-      <c r="EL38" s="0"/>
-      <c r="EM38" s="0"/>
-      <c r="EN38" s="0"/>
-      <c r="EO38" s="0"/>
-      <c r="EP38" s="0"/>
-      <c r="EQ38" s="0"/>
-      <c r="ER38" s="0"/>
-      <c r="ES38" s="0"/>
-      <c r="ET38" s="0"/>
-      <c r="EU38" s="0"/>
-      <c r="EV38" s="0"/>
-      <c r="EW38" s="0"/>
-      <c r="EX38" s="0"/>
-      <c r="EY38" s="0"/>
-      <c r="EZ38" s="0"/>
-      <c r="FA38" s="0"/>
-      <c r="FB38" s="0"/>
-      <c r="FC38" s="0"/>
-      <c r="FD38" s="0"/>
-      <c r="FE38" s="0"/>
-      <c r="FF38" s="0"/>
-      <c r="FG38" s="0"/>
-      <c r="FH38" s="0"/>
-      <c r="FI38" s="0"/>
-      <c r="FJ38" s="0"/>
-      <c r="FK38" s="0"/>
-      <c r="FL38" s="0"/>
-      <c r="FM38" s="0"/>
-      <c r="FN38" s="0"/>
-      <c r="FO38" s="0"/>
-      <c r="FP38" s="0"/>
-      <c r="FQ38" s="0"/>
-      <c r="FR38" s="0"/>
-      <c r="FS38" s="0"/>
-      <c r="FT38" s="0"/>
-      <c r="FU38" s="0"/>
-      <c r="FV38" s="0"/>
-      <c r="FW38" s="0"/>
-      <c r="FX38" s="0"/>
-      <c r="FY38" s="0"/>
-      <c r="FZ38" s="0"/>
-      <c r="GA38" s="0"/>
-      <c r="GB38" s="0"/>
-      <c r="GC38" s="0"/>
-      <c r="GD38" s="0"/>
-      <c r="GE38" s="0"/>
-      <c r="GF38" s="0"/>
-      <c r="GG38" s="0"/>
-      <c r="GH38" s="0"/>
-      <c r="GI38" s="0"/>
-      <c r="GJ38" s="0"/>
-      <c r="GK38" s="0"/>
-      <c r="GL38" s="0"/>
-      <c r="GM38" s="0"/>
-      <c r="GN38" s="0"/>
-      <c r="GO38" s="0"/>
-      <c r="GP38" s="0"/>
-      <c r="GQ38" s="0"/>
-      <c r="GR38" s="0"/>
-      <c r="GS38" s="0"/>
-      <c r="GT38" s="0"/>
-      <c r="GU38" s="0"/>
-      <c r="GV38" s="0"/>
-      <c r="GW38" s="0"/>
-      <c r="GX38" s="0"/>
-      <c r="GY38" s="0"/>
-      <c r="GZ38" s="0"/>
-      <c r="HA38" s="0"/>
-      <c r="HB38" s="0"/>
-      <c r="HC38" s="0"/>
-      <c r="HD38" s="0"/>
-      <c r="HE38" s="0"/>
-      <c r="HF38" s="0"/>
-      <c r="HG38" s="0"/>
-      <c r="HH38" s="0"/>
-      <c r="HI38" s="0"/>
-      <c r="HJ38" s="0"/>
-      <c r="HK38" s="0"/>
-      <c r="HL38" s="0"/>
-      <c r="HM38" s="0"/>
-      <c r="HN38" s="0"/>
-      <c r="HO38" s="0"/>
-      <c r="HP38" s="0"/>
-      <c r="HQ38" s="0"/>
-      <c r="HR38" s="0"/>
-      <c r="HS38" s="0"/>
-      <c r="HT38" s="0"/>
-      <c r="HU38" s="0"/>
-      <c r="HV38" s="0"/>
-      <c r="HW38" s="0"/>
-      <c r="HX38" s="0"/>
-      <c r="HY38" s="0"/>
-      <c r="HZ38" s="0"/>
-      <c r="IA38" s="0"/>
-      <c r="IB38" s="0"/>
-      <c r="IC38" s="0"/>
-      <c r="ID38" s="0"/>
-      <c r="IE38" s="0"/>
-      <c r="IF38" s="0"/>
-      <c r="IG38" s="0"/>
-      <c r="IH38" s="0"/>
-      <c r="II38" s="0"/>
-      <c r="IJ38" s="0"/>
-      <c r="IK38" s="0"/>
-      <c r="IL38" s="0"/>
-      <c r="IM38" s="0"/>
-      <c r="IN38" s="0"/>
-      <c r="IO38" s="0"/>
-      <c r="IP38" s="0"/>
-      <c r="IQ38" s="0"/>
-      <c r="IR38" s="0"/>
-      <c r="IS38" s="0"/>
-      <c r="IT38" s="0"/>
-      <c r="IU38" s="0"/>
-      <c r="IV38" s="0"/>
-      <c r="IW38" s="0"/>
-      <c r="IX38" s="0"/>
-      <c r="IY38" s="0"/>
-      <c r="IZ38" s="0"/>
-      <c r="JA38" s="0"/>
-      <c r="JB38" s="0"/>
-      <c r="JC38" s="0"/>
-      <c r="JD38" s="0"/>
-      <c r="JE38" s="0"/>
-      <c r="JF38" s="0"/>
-      <c r="JG38" s="0"/>
-      <c r="JH38" s="0"/>
-      <c r="JI38" s="0"/>
-      <c r="JJ38" s="0"/>
-      <c r="JK38" s="0"/>
-      <c r="JL38" s="0"/>
-      <c r="JM38" s="0"/>
-      <c r="JN38" s="0"/>
-      <c r="JO38" s="0"/>
-      <c r="JP38" s="0"/>
-      <c r="JQ38" s="0"/>
-      <c r="JR38" s="0"/>
-      <c r="JS38" s="0"/>
-      <c r="JT38" s="0"/>
-      <c r="JU38" s="0"/>
-      <c r="JV38" s="0"/>
-      <c r="JW38" s="0"/>
-      <c r="JX38" s="0"/>
-      <c r="JY38" s="0"/>
-      <c r="JZ38" s="0"/>
-      <c r="KA38" s="0"/>
-      <c r="KB38" s="0"/>
-      <c r="KC38" s="0"/>
-      <c r="KD38" s="0"/>
-      <c r="KE38" s="0"/>
-      <c r="KF38" s="0"/>
-      <c r="KG38" s="0"/>
-      <c r="KH38" s="0"/>
-      <c r="KI38" s="0"/>
-      <c r="KJ38" s="0"/>
-      <c r="KK38" s="0"/>
-      <c r="KL38" s="0"/>
-      <c r="KM38" s="0"/>
-      <c r="KN38" s="0"/>
-      <c r="KO38" s="0"/>
-      <c r="KP38" s="0"/>
-      <c r="KQ38" s="0"/>
-      <c r="KR38" s="0"/>
-      <c r="KS38" s="0"/>
-      <c r="KT38" s="0"/>
-      <c r="KU38" s="0"/>
-      <c r="KV38" s="0"/>
-      <c r="KW38" s="0"/>
-      <c r="KX38" s="0"/>
-      <c r="KY38" s="0"/>
-      <c r="KZ38" s="0"/>
-      <c r="LA38" s="0"/>
-      <c r="LB38" s="0"/>
-      <c r="LC38" s="0"/>
-      <c r="LD38" s="0"/>
-      <c r="LE38" s="0"/>
-      <c r="LF38" s="0"/>
-      <c r="LG38" s="0"/>
-      <c r="LH38" s="0"/>
-      <c r="LI38" s="0"/>
-      <c r="LJ38" s="0"/>
-      <c r="LK38" s="0"/>
-      <c r="LL38" s="0"/>
-      <c r="LM38" s="0"/>
-      <c r="LN38" s="0"/>
-      <c r="LO38" s="0"/>
-      <c r="LP38" s="0"/>
-      <c r="LQ38" s="0"/>
-      <c r="LR38" s="0"/>
-      <c r="LS38" s="0"/>
-      <c r="LT38" s="0"/>
-      <c r="LU38" s="0"/>
-      <c r="LV38" s="0"/>
-      <c r="LW38" s="0"/>
-      <c r="LX38" s="0"/>
-      <c r="LY38" s="0"/>
-      <c r="LZ38" s="0"/>
-      <c r="MA38" s="0"/>
-      <c r="MB38" s="0"/>
-      <c r="MC38" s="0"/>
-      <c r="MD38" s="0"/>
-      <c r="ME38" s="0"/>
-      <c r="MF38" s="0"/>
-      <c r="MG38" s="0"/>
-      <c r="MH38" s="0"/>
-      <c r="MI38" s="0"/>
-      <c r="MJ38" s="0"/>
-      <c r="MK38" s="0"/>
-      <c r="ML38" s="0"/>
-      <c r="MM38" s="0"/>
-      <c r="MN38" s="0"/>
-      <c r="MO38" s="0"/>
-      <c r="MP38" s="0"/>
-      <c r="MQ38" s="0"/>
-      <c r="MR38" s="0"/>
-      <c r="MS38" s="0"/>
-      <c r="MT38" s="0"/>
-      <c r="MU38" s="0"/>
-      <c r="MV38" s="0"/>
-      <c r="MW38" s="0"/>
-      <c r="MX38" s="0"/>
-      <c r="MY38" s="0"/>
-      <c r="MZ38" s="0"/>
-      <c r="NA38" s="0"/>
-      <c r="NB38" s="0"/>
-      <c r="NC38" s="0"/>
-      <c r="ND38" s="0"/>
-      <c r="NE38" s="0"/>
-      <c r="NF38" s="0"/>
-      <c r="NG38" s="0"/>
-      <c r="NH38" s="0"/>
-      <c r="NI38" s="0"/>
-      <c r="NJ38" s="0"/>
-      <c r="NK38" s="0"/>
-      <c r="NL38" s="0"/>
-      <c r="NM38" s="0"/>
-      <c r="NN38" s="0"/>
-      <c r="NO38" s="0"/>
-      <c r="NP38" s="0"/>
-      <c r="NQ38" s="0"/>
-      <c r="NR38" s="0"/>
-      <c r="NS38" s="0"/>
-      <c r="NT38" s="0"/>
-      <c r="NU38" s="0"/>
-      <c r="NV38" s="0"/>
-      <c r="NW38" s="0"/>
-      <c r="NX38" s="0"/>
-      <c r="NY38" s="0"/>
-      <c r="NZ38" s="0"/>
-      <c r="OA38" s="0"/>
-      <c r="OB38" s="0"/>
-      <c r="OC38" s="0"/>
-      <c r="OD38" s="0"/>
-      <c r="OE38" s="0"/>
-      <c r="OF38" s="0"/>
-      <c r="OG38" s="0"/>
-      <c r="OH38" s="0"/>
-      <c r="OI38" s="0"/>
-      <c r="OJ38" s="0"/>
-      <c r="OK38" s="0"/>
-      <c r="OL38" s="0"/>
-      <c r="OM38" s="0"/>
-      <c r="ON38" s="0"/>
-      <c r="OO38" s="0"/>
-      <c r="OP38" s="0"/>
-      <c r="OQ38" s="0"/>
-      <c r="OR38" s="0"/>
-      <c r="OS38" s="0"/>
-      <c r="OT38" s="0"/>
-      <c r="OU38" s="0"/>
-      <c r="OV38" s="0"/>
-      <c r="OW38" s="0"/>
-      <c r="OX38" s="0"/>
-      <c r="OY38" s="0"/>
-      <c r="OZ38" s="0"/>
-      <c r="PA38" s="0"/>
-      <c r="PB38" s="0"/>
-      <c r="PC38" s="0"/>
-      <c r="PD38" s="0"/>
-      <c r="PE38" s="0"/>
-      <c r="PF38" s="0"/>
-      <c r="PG38" s="0"/>
-      <c r="PH38" s="0"/>
-      <c r="PI38" s="0"/>
-      <c r="PJ38" s="0"/>
-      <c r="PK38" s="0"/>
-      <c r="PL38" s="0"/>
-      <c r="PM38" s="0"/>
-      <c r="PN38" s="0"/>
-      <c r="PO38" s="0"/>
-      <c r="PP38" s="0"/>
-      <c r="PQ38" s="0"/>
-      <c r="PR38" s="0"/>
-      <c r="PS38" s="0"/>
-      <c r="PT38" s="0"/>
-      <c r="PU38" s="0"/>
-      <c r="PV38" s="0"/>
-      <c r="PW38" s="0"/>
-      <c r="PX38" s="0"/>
-      <c r="PY38" s="0"/>
-      <c r="PZ38" s="0"/>
-      <c r="QA38" s="0"/>
-      <c r="QB38" s="0"/>
-      <c r="QC38" s="0"/>
-      <c r="QD38" s="0"/>
-      <c r="QE38" s="0"/>
-      <c r="QF38" s="0"/>
-      <c r="QG38" s="0"/>
-      <c r="QH38" s="0"/>
-      <c r="QI38" s="0"/>
-      <c r="QJ38" s="0"/>
-      <c r="QK38" s="0"/>
-      <c r="QL38" s="0"/>
-      <c r="QM38" s="0"/>
-      <c r="QN38" s="0"/>
-      <c r="QO38" s="0"/>
-      <c r="QP38" s="0"/>
-      <c r="QQ38" s="0"/>
-      <c r="QR38" s="0"/>
-      <c r="QS38" s="0"/>
-      <c r="QT38" s="0"/>
-      <c r="QU38" s="0"/>
-      <c r="QV38" s="0"/>
-      <c r="QW38" s="0"/>
-      <c r="QX38" s="0"/>
-      <c r="QY38" s="0"/>
-      <c r="QZ38" s="0"/>
-      <c r="RA38" s="0"/>
-      <c r="RB38" s="0"/>
-      <c r="RC38" s="0"/>
-      <c r="RD38" s="0"/>
-      <c r="RE38" s="0"/>
-      <c r="RF38" s="0"/>
-      <c r="RG38" s="0"/>
-      <c r="RH38" s="0"/>
-      <c r="RI38" s="0"/>
-      <c r="RJ38" s="0"/>
-      <c r="RK38" s="0"/>
-      <c r="RL38" s="0"/>
-      <c r="RM38" s="0"/>
-      <c r="RN38" s="0"/>
-      <c r="RO38" s="0"/>
-      <c r="RP38" s="0"/>
-      <c r="RQ38" s="0"/>
-      <c r="RR38" s="0"/>
-      <c r="RS38" s="0"/>
-      <c r="RT38" s="0"/>
-      <c r="RU38" s="0"/>
-      <c r="RV38" s="0"/>
-      <c r="RW38" s="0"/>
-      <c r="RX38" s="0"/>
-      <c r="RY38" s="0"/>
-      <c r="RZ38" s="0"/>
-      <c r="SA38" s="0"/>
-      <c r="SB38" s="0"/>
-      <c r="SC38" s="0"/>
-      <c r="SD38" s="0"/>
-      <c r="SE38" s="0"/>
-      <c r="SF38" s="0"/>
-      <c r="SG38" s="0"/>
-      <c r="SH38" s="0"/>
-      <c r="SI38" s="0"/>
-      <c r="SJ38" s="0"/>
-      <c r="SK38" s="0"/>
-      <c r="SL38" s="0"/>
-      <c r="SM38" s="0"/>
-      <c r="SN38" s="0"/>
-      <c r="SO38" s="0"/>
-      <c r="SP38" s="0"/>
-      <c r="SQ38" s="0"/>
-      <c r="SR38" s="0"/>
-      <c r="SS38" s="0"/>
-      <c r="ST38" s="0"/>
-      <c r="SU38" s="0"/>
-      <c r="SV38" s="0"/>
-      <c r="SW38" s="0"/>
-      <c r="SX38" s="0"/>
-      <c r="SY38" s="0"/>
-      <c r="SZ38" s="0"/>
-      <c r="TA38" s="0"/>
-      <c r="TB38" s="0"/>
-      <c r="TC38" s="0"/>
-      <c r="TD38" s="0"/>
-      <c r="TE38" s="0"/>
-      <c r="TF38" s="0"/>
-      <c r="TG38" s="0"/>
-      <c r="TH38" s="0"/>
-      <c r="TI38" s="0"/>
-      <c r="TJ38" s="0"/>
-      <c r="TK38" s="0"/>
-      <c r="TL38" s="0"/>
-      <c r="TM38" s="0"/>
-      <c r="TN38" s="0"/>
-      <c r="TO38" s="0"/>
-      <c r="TP38" s="0"/>
-      <c r="TQ38" s="0"/>
-      <c r="TR38" s="0"/>
-      <c r="TS38" s="0"/>
-      <c r="TT38" s="0"/>
-      <c r="TU38" s="0"/>
-      <c r="TV38" s="0"/>
-      <c r="TW38" s="0"/>
-      <c r="TX38" s="0"/>
-      <c r="TY38" s="0"/>
-      <c r="TZ38" s="0"/>
-      <c r="UA38" s="0"/>
-      <c r="UB38" s="0"/>
-      <c r="UC38" s="0"/>
-      <c r="UD38" s="0"/>
-      <c r="UE38" s="0"/>
-      <c r="UF38" s="0"/>
-      <c r="UG38" s="0"/>
-      <c r="UH38" s="0"/>
-      <c r="UI38" s="0"/>
-      <c r="UJ38" s="0"/>
-      <c r="UK38" s="0"/>
-      <c r="UL38" s="0"/>
-      <c r="UM38" s="0"/>
-      <c r="UN38" s="0"/>
-      <c r="UO38" s="0"/>
-      <c r="UP38" s="0"/>
-      <c r="UQ38" s="0"/>
-      <c r="UR38" s="0"/>
-      <c r="US38" s="0"/>
-      <c r="UT38" s="0"/>
-      <c r="UU38" s="0"/>
-      <c r="UV38" s="0"/>
-      <c r="UW38" s="0"/>
-      <c r="UX38" s="0"/>
-      <c r="UY38" s="0"/>
-      <c r="UZ38" s="0"/>
-      <c r="VA38" s="0"/>
-      <c r="VB38" s="0"/>
-      <c r="VC38" s="0"/>
-      <c r="VD38" s="0"/>
-      <c r="VE38" s="0"/>
-      <c r="VF38" s="0"/>
-      <c r="VG38" s="0"/>
-      <c r="VH38" s="0"/>
-      <c r="VI38" s="0"/>
-      <c r="VJ38" s="0"/>
-      <c r="VK38" s="0"/>
-      <c r="VL38" s="0"/>
-      <c r="VM38" s="0"/>
-      <c r="VN38" s="0"/>
-      <c r="VO38" s="0"/>
-      <c r="VP38" s="0"/>
-      <c r="VQ38" s="0"/>
-      <c r="VR38" s="0"/>
-      <c r="VS38" s="0"/>
-      <c r="VT38" s="0"/>
-      <c r="VU38" s="0"/>
-      <c r="VV38" s="0"/>
-      <c r="VW38" s="0"/>
-      <c r="VX38" s="0"/>
-      <c r="VY38" s="0"/>
-      <c r="VZ38" s="0"/>
-      <c r="WA38" s="0"/>
-      <c r="WB38" s="0"/>
-      <c r="WC38" s="0"/>
-      <c r="WD38" s="0"/>
-      <c r="WE38" s="0"/>
-      <c r="WF38" s="0"/>
-      <c r="WG38" s="0"/>
-      <c r="WH38" s="0"/>
-      <c r="WI38" s="0"/>
-      <c r="WJ38" s="0"/>
-      <c r="WK38" s="0"/>
-      <c r="WL38" s="0"/>
-      <c r="WM38" s="0"/>
-      <c r="WN38" s="0"/>
-      <c r="WO38" s="0"/>
-      <c r="WP38" s="0"/>
-      <c r="WQ38" s="0"/>
-      <c r="WR38" s="0"/>
-      <c r="WS38" s="0"/>
-      <c r="WT38" s="0"/>
-      <c r="WU38" s="0"/>
-      <c r="WV38" s="0"/>
-      <c r="WW38" s="0"/>
-      <c r="WX38" s="0"/>
-      <c r="WY38" s="0"/>
-      <c r="WZ38" s="0"/>
-      <c r="XA38" s="0"/>
-      <c r="XB38" s="0"/>
-      <c r="XC38" s="0"/>
-      <c r="XD38" s="0"/>
-      <c r="XE38" s="0"/>
-      <c r="XF38" s="0"/>
-      <c r="XG38" s="0"/>
-      <c r="XH38" s="0"/>
-      <c r="XI38" s="0"/>
-      <c r="XJ38" s="0"/>
-      <c r="XK38" s="0"/>
-      <c r="XL38" s="0"/>
-      <c r="XM38" s="0"/>
-      <c r="XN38" s="0"/>
-      <c r="XO38" s="0"/>
-      <c r="XP38" s="0"/>
-      <c r="XQ38" s="0"/>
-      <c r="XR38" s="0"/>
-      <c r="XS38" s="0"/>
-      <c r="XT38" s="0"/>
-      <c r="XU38" s="0"/>
-      <c r="XV38" s="0"/>
-      <c r="XW38" s="0"/>
-      <c r="XX38" s="0"/>
-      <c r="XY38" s="0"/>
-      <c r="XZ38" s="0"/>
-      <c r="YA38" s="0"/>
-      <c r="YB38" s="0"/>
-      <c r="YC38" s="0"/>
-      <c r="YD38" s="0"/>
-      <c r="YE38" s="0"/>
-      <c r="YF38" s="0"/>
-      <c r="YG38" s="0"/>
-      <c r="YH38" s="0"/>
-      <c r="YI38" s="0"/>
-      <c r="YJ38" s="0"/>
-      <c r="YK38" s="0"/>
-      <c r="YL38" s="0"/>
-      <c r="YM38" s="0"/>
-      <c r="YN38" s="0"/>
-      <c r="YO38" s="0"/>
-      <c r="YP38" s="0"/>
-      <c r="YQ38" s="0"/>
-      <c r="YR38" s="0"/>
-      <c r="YS38" s="0"/>
-      <c r="YT38" s="0"/>
-      <c r="YU38" s="0"/>
-      <c r="YV38" s="0"/>
-      <c r="YW38" s="0"/>
-      <c r="YX38" s="0"/>
-      <c r="YY38" s="0"/>
-      <c r="YZ38" s="0"/>
-      <c r="ZA38" s="0"/>
-      <c r="ZB38" s="0"/>
-      <c r="ZC38" s="0"/>
-      <c r="ZD38" s="0"/>
-      <c r="ZE38" s="0"/>
-      <c r="ZF38" s="0"/>
-      <c r="ZG38" s="0"/>
-      <c r="ZH38" s="0"/>
-      <c r="ZI38" s="0"/>
-      <c r="ZJ38" s="0"/>
-      <c r="ZK38" s="0"/>
-      <c r="ZL38" s="0"/>
-      <c r="ZM38" s="0"/>
-      <c r="ZN38" s="0"/>
-      <c r="ZO38" s="0"/>
-      <c r="ZP38" s="0"/>
-      <c r="ZQ38" s="0"/>
-      <c r="ZR38" s="0"/>
-      <c r="ZS38" s="0"/>
-      <c r="ZT38" s="0"/>
-      <c r="ZU38" s="0"/>
-      <c r="ZV38" s="0"/>
-      <c r="ZW38" s="0"/>
-      <c r="ZX38" s="0"/>
-      <c r="ZY38" s="0"/>
-      <c r="ZZ38" s="0"/>
-      <c r="AAA38" s="0"/>
-      <c r="AAB38" s="0"/>
-      <c r="AAC38" s="0"/>
-      <c r="AAD38" s="0"/>
-      <c r="AAE38" s="0"/>
-      <c r="AAF38" s="0"/>
-      <c r="AAG38" s="0"/>
-      <c r="AAH38" s="0"/>
-      <c r="AAI38" s="0"/>
-      <c r="AAJ38" s="0"/>
-      <c r="AAK38" s="0"/>
-      <c r="AAL38" s="0"/>
-      <c r="AAM38" s="0"/>
-      <c r="AAN38" s="0"/>
-      <c r="AAO38" s="0"/>
-      <c r="AAP38" s="0"/>
-      <c r="AAQ38" s="0"/>
-      <c r="AAR38" s="0"/>
-      <c r="AAS38" s="0"/>
-      <c r="AAT38" s="0"/>
-      <c r="AAU38" s="0"/>
-      <c r="AAV38" s="0"/>
-      <c r="AAW38" s="0"/>
-      <c r="AAX38" s="0"/>
-      <c r="AAY38" s="0"/>
-      <c r="AAZ38" s="0"/>
-      <c r="ABA38" s="0"/>
-      <c r="ABB38" s="0"/>
-      <c r="ABC38" s="0"/>
-      <c r="ABD38" s="0"/>
-      <c r="ABE38" s="0"/>
-      <c r="ABF38" s="0"/>
-      <c r="ABG38" s="0"/>
-      <c r="ABH38" s="0"/>
-      <c r="ABI38" s="0"/>
-      <c r="ABJ38" s="0"/>
-      <c r="ABK38" s="0"/>
-      <c r="ABL38" s="0"/>
-      <c r="ABM38" s="0"/>
-      <c r="ABN38" s="0"/>
-      <c r="ABO38" s="0"/>
-      <c r="ABP38" s="0"/>
-      <c r="ABQ38" s="0"/>
-      <c r="ABR38" s="0"/>
-      <c r="ABS38" s="0"/>
-      <c r="ABT38" s="0"/>
-      <c r="ABU38" s="0"/>
-      <c r="ABV38" s="0"/>
-      <c r="ABW38" s="0"/>
-      <c r="ABX38" s="0"/>
-      <c r="ABY38" s="0"/>
-      <c r="ABZ38" s="0"/>
-      <c r="ACA38" s="0"/>
-      <c r="ACB38" s="0"/>
-      <c r="ACC38" s="0"/>
-      <c r="ACD38" s="0"/>
-      <c r="ACE38" s="0"/>
-      <c r="ACF38" s="0"/>
-      <c r="ACG38" s="0"/>
-      <c r="ACH38" s="0"/>
-      <c r="ACI38" s="0"/>
-      <c r="ACJ38" s="0"/>
-      <c r="ACK38" s="0"/>
-      <c r="ACL38" s="0"/>
-      <c r="ACM38" s="0"/>
-      <c r="ACN38" s="0"/>
-      <c r="ACO38" s="0"/>
-      <c r="ACP38" s="0"/>
-      <c r="ACQ38" s="0"/>
-      <c r="ACR38" s="0"/>
-      <c r="ACS38" s="0"/>
-      <c r="ACT38" s="0"/>
-      <c r="ACU38" s="0"/>
-      <c r="ACV38" s="0"/>
-      <c r="ACW38" s="0"/>
-      <c r="ACX38" s="0"/>
-      <c r="ACY38" s="0"/>
-      <c r="ACZ38" s="0"/>
-      <c r="ADA38" s="0"/>
-      <c r="ADB38" s="0"/>
-      <c r="ADC38" s="0"/>
-      <c r="ADD38" s="0"/>
-      <c r="ADE38" s="0"/>
-      <c r="ADF38" s="0"/>
-      <c r="ADG38" s="0"/>
-      <c r="ADH38" s="0"/>
-      <c r="ADI38" s="0"/>
-      <c r="ADJ38" s="0"/>
-      <c r="ADK38" s="0"/>
-      <c r="ADL38" s="0"/>
-      <c r="ADM38" s="0"/>
-      <c r="ADN38" s="0"/>
-      <c r="ADO38" s="0"/>
-      <c r="ADP38" s="0"/>
-      <c r="ADQ38" s="0"/>
-      <c r="ADR38" s="0"/>
-      <c r="ADS38" s="0"/>
-      <c r="ADT38" s="0"/>
-      <c r="ADU38" s="0"/>
-      <c r="ADV38" s="0"/>
-      <c r="ADW38" s="0"/>
-      <c r="ADX38" s="0"/>
-      <c r="ADY38" s="0"/>
-      <c r="ADZ38" s="0"/>
-      <c r="AEA38" s="0"/>
-      <c r="AEB38" s="0"/>
-      <c r="AEC38" s="0"/>
-      <c r="AED38" s="0"/>
-      <c r="AEE38" s="0"/>
-      <c r="AEF38" s="0"/>
-      <c r="AEG38" s="0"/>
-      <c r="AEH38" s="0"/>
-      <c r="AEI38" s="0"/>
-      <c r="AEJ38" s="0"/>
-      <c r="AEK38" s="0"/>
-      <c r="AEL38" s="0"/>
-      <c r="AEM38" s="0"/>
-      <c r="AEN38" s="0"/>
-      <c r="AEO38" s="0"/>
-      <c r="AEP38" s="0"/>
-      <c r="AEQ38" s="0"/>
-      <c r="AER38" s="0"/>
-      <c r="AES38" s="0"/>
-      <c r="AET38" s="0"/>
-      <c r="AEU38" s="0"/>
-      <c r="AEV38" s="0"/>
-      <c r="AEW38" s="0"/>
-      <c r="AEX38" s="0"/>
-      <c r="AEY38" s="0"/>
-      <c r="AEZ38" s="0"/>
-      <c r="AFA38" s="0"/>
-      <c r="AFB38" s="0"/>
-      <c r="AFC38" s="0"/>
-      <c r="AFD38" s="0"/>
-      <c r="AFE38" s="0"/>
-      <c r="AFF38" s="0"/>
-      <c r="AFG38" s="0"/>
-      <c r="AFH38" s="0"/>
-      <c r="AFI38" s="0"/>
-      <c r="AFJ38" s="0"/>
-      <c r="AFK38" s="0"/>
-      <c r="AFL38" s="0"/>
-      <c r="AFM38" s="0"/>
-      <c r="AFN38" s="0"/>
-      <c r="AFO38" s="0"/>
-      <c r="AFP38" s="0"/>
-      <c r="AFQ38" s="0"/>
-      <c r="AFR38" s="0"/>
-      <c r="AFS38" s="0"/>
-      <c r="AFT38" s="0"/>
-      <c r="AFU38" s="0"/>
-      <c r="AFV38" s="0"/>
-      <c r="AFW38" s="0"/>
-      <c r="AFX38" s="0"/>
-      <c r="AFY38" s="0"/>
-      <c r="AFZ38" s="0"/>
-      <c r="AGA38" s="0"/>
-      <c r="AGB38" s="0"/>
-      <c r="AGC38" s="0"/>
-      <c r="AGD38" s="0"/>
-      <c r="AGE38" s="0"/>
-      <c r="AGF38" s="0"/>
-      <c r="AGG38" s="0"/>
-      <c r="AGH38" s="0"/>
-      <c r="AGI38" s="0"/>
-      <c r="AGJ38" s="0"/>
-      <c r="AGK38" s="0"/>
-      <c r="AGL38" s="0"/>
-      <c r="AGM38" s="0"/>
-      <c r="AGN38" s="0"/>
-      <c r="AGO38" s="0"/>
-      <c r="AGP38" s="0"/>
-      <c r="AGQ38" s="0"/>
-      <c r="AGR38" s="0"/>
-      <c r="AGS38" s="0"/>
-      <c r="AGT38" s="0"/>
-      <c r="AGU38" s="0"/>
-      <c r="AGV38" s="0"/>
-      <c r="AGW38" s="0"/>
-      <c r="AGX38" s="0"/>
-      <c r="AGY38" s="0"/>
-      <c r="AGZ38" s="0"/>
-      <c r="AHA38" s="0"/>
-      <c r="AHB38" s="0"/>
-      <c r="AHC38" s="0"/>
-      <c r="AHD38" s="0"/>
-      <c r="AHE38" s="0"/>
-      <c r="AHF38" s="0"/>
-      <c r="AHG38" s="0"/>
-      <c r="AHH38" s="0"/>
-      <c r="AHI38" s="0"/>
-      <c r="AHJ38" s="0"/>
-      <c r="AHK38" s="0"/>
-      <c r="AHL38" s="0"/>
-      <c r="AHM38" s="0"/>
-      <c r="AHN38" s="0"/>
-      <c r="AHO38" s="0"/>
-      <c r="AHP38" s="0"/>
-      <c r="AHQ38" s="0"/>
-      <c r="AHR38" s="0"/>
-      <c r="AHS38" s="0"/>
-      <c r="AHT38" s="0"/>
-      <c r="AHU38" s="0"/>
-      <c r="AHV38" s="0"/>
-      <c r="AHW38" s="0"/>
-      <c r="AHX38" s="0"/>
-      <c r="AHY38" s="0"/>
-      <c r="AHZ38" s="0"/>
-      <c r="AIA38" s="0"/>
-      <c r="AIB38" s="0"/>
-      <c r="AIC38" s="0"/>
-      <c r="AID38" s="0"/>
-      <c r="AIE38" s="0"/>
-      <c r="AIF38" s="0"/>
-      <c r="AIG38" s="0"/>
-      <c r="AIH38" s="0"/>
-      <c r="AII38" s="0"/>
-      <c r="AIJ38" s="0"/>
-      <c r="AIK38" s="0"/>
-      <c r="AIL38" s="0"/>
-      <c r="AIM38" s="0"/>
-      <c r="AIN38" s="0"/>
-      <c r="AIO38" s="0"/>
-      <c r="AIP38" s="0"/>
-      <c r="AIQ38" s="0"/>
-      <c r="AIR38" s="0"/>
-      <c r="AIS38" s="0"/>
-      <c r="AIT38" s="0"/>
-      <c r="AIU38" s="0"/>
-      <c r="AIV38" s="0"/>
-      <c r="AIW38" s="0"/>
-      <c r="AIX38" s="0"/>
-      <c r="AIY38" s="0"/>
-      <c r="AIZ38" s="0"/>
-      <c r="AJA38" s="0"/>
-      <c r="AJB38" s="0"/>
-      <c r="AJC38" s="0"/>
-      <c r="AJD38" s="0"/>
-      <c r="AJE38" s="0"/>
-      <c r="AJF38" s="0"/>
-      <c r="AJG38" s="0"/>
-      <c r="AJH38" s="0"/>
-      <c r="AJI38" s="0"/>
-      <c r="AJJ38" s="0"/>
-      <c r="AJK38" s="0"/>
-      <c r="AJL38" s="0"/>
-      <c r="AJM38" s="0"/>
-      <c r="AJN38" s="0"/>
-      <c r="AJO38" s="0"/>
-      <c r="AJP38" s="0"/>
-      <c r="AJQ38" s="0"/>
-      <c r="AJR38" s="0"/>
-      <c r="AJS38" s="0"/>
-      <c r="AJT38" s="0"/>
-      <c r="AJU38" s="0"/>
-      <c r="AJV38" s="0"/>
-      <c r="AJW38" s="0"/>
-      <c r="AJX38" s="0"/>
-      <c r="AJY38" s="0"/>
-      <c r="AJZ38" s="0"/>
-      <c r="AKA38" s="0"/>
-      <c r="AKB38" s="0"/>
-      <c r="AKC38" s="0"/>
-      <c r="AKD38" s="0"/>
-      <c r="AKE38" s="0"/>
-      <c r="AKF38" s="0"/>
-      <c r="AKG38" s="0"/>
-      <c r="AKH38" s="0"/>
-      <c r="AKI38" s="0"/>
-      <c r="AKJ38" s="0"/>
-      <c r="AKK38" s="0"/>
-      <c r="AKL38" s="0"/>
+        <v>4736866</v>
+      </c>
+      <c r="K38" s="104"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="104"/>
       <c r="AKM38" s="0"/>
       <c r="AKN38" s="0"/>
       <c r="AKO38" s="0"/>
@@ -34945,23 +32825,25 @@
       <c r="AMF38" s="0"/>
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
+      <c r="AMI38" s="0"/>
+      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
       <c r="N39" s="0"/>
       <c r="O39" s="0"/>
       <c r="P39" s="0"/>
@@ -35921,59 +33803,9 @@
       <c r="AKH39" s="0"/>
       <c r="AKI39" s="0"/>
       <c r="AKJ39" s="0"/>
-      <c r="AKK39" s="0"/>
-      <c r="AKL39" s="0"/>
-      <c r="AKM39" s="0"/>
-      <c r="AKN39" s="0"/>
-      <c r="AKO39" s="0"/>
-      <c r="AKP39" s="0"/>
-      <c r="AKQ39" s="0"/>
-      <c r="AKR39" s="0"/>
-      <c r="AKS39" s="0"/>
-      <c r="AKT39" s="0"/>
-      <c r="AKU39" s="0"/>
-      <c r="AKV39" s="0"/>
-      <c r="AKW39" s="0"/>
-      <c r="AKX39" s="0"/>
-      <c r="AKY39" s="0"/>
-      <c r="AKZ39" s="0"/>
-      <c r="ALA39" s="0"/>
-      <c r="ALB39" s="0"/>
-      <c r="ALC39" s="0"/>
-      <c r="ALD39" s="0"/>
-      <c r="ALE39" s="0"/>
-      <c r="ALF39" s="0"/>
-      <c r="ALG39" s="0"/>
-      <c r="ALH39" s="0"/>
-      <c r="ALI39" s="0"/>
-      <c r="ALJ39" s="0"/>
-      <c r="ALK39" s="0"/>
-      <c r="ALL39" s="0"/>
-      <c r="ALM39" s="0"/>
-      <c r="ALN39" s="0"/>
-      <c r="ALO39" s="0"/>
-      <c r="ALP39" s="0"/>
-      <c r="ALQ39" s="0"/>
-      <c r="ALR39" s="0"/>
-      <c r="ALS39" s="0"/>
-      <c r="ALT39" s="0"/>
-      <c r="ALU39" s="0"/>
-      <c r="ALV39" s="0"/>
-      <c r="ALW39" s="0"/>
-      <c r="ALX39" s="0"/>
-      <c r="ALY39" s="0"/>
-      <c r="ALZ39" s="0"/>
-      <c r="AMA39" s="0"/>
-      <c r="AMB39" s="0"/>
-      <c r="AMC39" s="0"/>
-      <c r="AMD39" s="0"/>
-      <c r="AME39" s="0"/>
-      <c r="AMF39" s="0"/>
-      <c r="AMG39" s="0"/>
-      <c r="AMH39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="111" t="s">
         <v>88</v>
       </c>
       <c r="B40" s="67" t="s">
@@ -35982,21 +33814,21 @@
       <c r="C40" s="69" t="n">
         <v>100</v>
       </c>
-      <c r="D40" s="103"/>
+      <c r="D40" s="112"/>
       <c r="E40" s="69" t="n">
         <v>1000</v>
       </c>
-      <c r="F40" s="91" t="n">
+      <c r="F40" s="95" t="n">
         <f aca="false">C40*E40</f>
         <v>100000</v>
       </c>
       <c r="G40" s="69"/>
       <c r="H40" s="69"/>
-      <c r="I40" s="91" t="n">
+      <c r="I40" s="113" t="n">
         <f aca="false">C40*E40</f>
         <v>100000</v>
       </c>
-      <c r="J40" s="91" t="n">
+      <c r="J40" s="114" t="n">
         <f aca="false">I40</f>
         <v>100000</v>
       </c>
@@ -36966,59 +34798,9 @@
       <c r="AKH40" s="0"/>
       <c r="AKI40" s="0"/>
       <c r="AKJ40" s="0"/>
-      <c r="AKK40" s="0"/>
-      <c r="AKL40" s="0"/>
-      <c r="AKM40" s="0"/>
-      <c r="AKN40" s="0"/>
-      <c r="AKO40" s="0"/>
-      <c r="AKP40" s="0"/>
-      <c r="AKQ40" s="0"/>
-      <c r="AKR40" s="0"/>
-      <c r="AKS40" s="0"/>
-      <c r="AKT40" s="0"/>
-      <c r="AKU40" s="0"/>
-      <c r="AKV40" s="0"/>
-      <c r="AKW40" s="0"/>
-      <c r="AKX40" s="0"/>
-      <c r="AKY40" s="0"/>
-      <c r="AKZ40" s="0"/>
-      <c r="ALA40" s="0"/>
-      <c r="ALB40" s="0"/>
-      <c r="ALC40" s="0"/>
-      <c r="ALD40" s="0"/>
-      <c r="ALE40" s="0"/>
-      <c r="ALF40" s="0"/>
-      <c r="ALG40" s="0"/>
-      <c r="ALH40" s="0"/>
-      <c r="ALI40" s="0"/>
-      <c r="ALJ40" s="0"/>
-      <c r="ALK40" s="0"/>
-      <c r="ALL40" s="0"/>
-      <c r="ALM40" s="0"/>
-      <c r="ALN40" s="0"/>
-      <c r="ALO40" s="0"/>
-      <c r="ALP40" s="0"/>
-      <c r="ALQ40" s="0"/>
-      <c r="ALR40" s="0"/>
-      <c r="ALS40" s="0"/>
-      <c r="ALT40" s="0"/>
-      <c r="ALU40" s="0"/>
-      <c r="ALV40" s="0"/>
-      <c r="ALW40" s="0"/>
-      <c r="ALX40" s="0"/>
-      <c r="ALY40" s="0"/>
-      <c r="ALZ40" s="0"/>
-      <c r="AMA40" s="0"/>
-      <c r="AMB40" s="0"/>
-      <c r="AMC40" s="0"/>
-      <c r="AMD40" s="0"/>
-      <c r="AME40" s="0"/>
-      <c r="AMF40" s="0"/>
-      <c r="AMG40" s="0"/>
-      <c r="AMH40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="115" t="s">
         <v>89</v>
       </c>
       <c r="B41" s="67" t="s">
@@ -37027,21 +34809,21 @@
       <c r="C41" s="69" t="n">
         <v>20</v>
       </c>
-      <c r="D41" s="103"/>
+      <c r="D41" s="112"/>
       <c r="E41" s="69" t="n">
         <v>700</v>
       </c>
-      <c r="F41" s="91" t="n">
+      <c r="F41" s="95" t="n">
         <f aca="false">C41*E41</f>
         <v>14000</v>
       </c>
       <c r="G41" s="69"/>
       <c r="H41" s="69"/>
-      <c r="I41" s="91" t="n">
+      <c r="I41" s="113" t="n">
         <f aca="false">C41*E41</f>
         <v>14000</v>
       </c>
-      <c r="J41" s="91" t="n">
+      <c r="J41" s="114" t="n">
         <f aca="false">I41</f>
         <v>14000</v>
       </c>
@@ -38011,59 +35793,9 @@
       <c r="AKH41" s="0"/>
       <c r="AKI41" s="0"/>
       <c r="AKJ41" s="0"/>
-      <c r="AKK41" s="0"/>
-      <c r="AKL41" s="0"/>
-      <c r="AKM41" s="0"/>
-      <c r="AKN41" s="0"/>
-      <c r="AKO41" s="0"/>
-      <c r="AKP41" s="0"/>
-      <c r="AKQ41" s="0"/>
-      <c r="AKR41" s="0"/>
-      <c r="AKS41" s="0"/>
-      <c r="AKT41" s="0"/>
-      <c r="AKU41" s="0"/>
-      <c r="AKV41" s="0"/>
-      <c r="AKW41" s="0"/>
-      <c r="AKX41" s="0"/>
-      <c r="AKY41" s="0"/>
-      <c r="AKZ41" s="0"/>
-      <c r="ALA41" s="0"/>
-      <c r="ALB41" s="0"/>
-      <c r="ALC41" s="0"/>
-      <c r="ALD41" s="0"/>
-      <c r="ALE41" s="0"/>
-      <c r="ALF41" s="0"/>
-      <c r="ALG41" s="0"/>
-      <c r="ALH41" s="0"/>
-      <c r="ALI41" s="0"/>
-      <c r="ALJ41" s="0"/>
-      <c r="ALK41" s="0"/>
-      <c r="ALL41" s="0"/>
-      <c r="ALM41" s="0"/>
-      <c r="ALN41" s="0"/>
-      <c r="ALO41" s="0"/>
-      <c r="ALP41" s="0"/>
-      <c r="ALQ41" s="0"/>
-      <c r="ALR41" s="0"/>
-      <c r="ALS41" s="0"/>
-      <c r="ALT41" s="0"/>
-      <c r="ALU41" s="0"/>
-      <c r="ALV41" s="0"/>
-      <c r="ALW41" s="0"/>
-      <c r="ALX41" s="0"/>
-      <c r="ALY41" s="0"/>
-      <c r="ALZ41" s="0"/>
-      <c r="AMA41" s="0"/>
-      <c r="AMB41" s="0"/>
-      <c r="AMC41" s="0"/>
-      <c r="AMD41" s="0"/>
-      <c r="AME41" s="0"/>
-      <c r="AMF41" s="0"/>
-      <c r="AMG41" s="0"/>
-      <c r="AMH41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="111" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="67" t="s">
@@ -38072,21 +35804,21 @@
       <c r="C42" s="69" t="n">
         <v>500</v>
       </c>
-      <c r="D42" s="103"/>
+      <c r="D42" s="112"/>
       <c r="E42" s="69" t="n">
         <v>1000</v>
       </c>
-      <c r="F42" s="91" t="n">
+      <c r="F42" s="95" t="n">
         <f aca="false">C42*E42</f>
         <v>500000</v>
       </c>
       <c r="G42" s="69"/>
       <c r="H42" s="69"/>
-      <c r="I42" s="91" t="n">
+      <c r="I42" s="113" t="n">
         <f aca="false">C42*E42</f>
         <v>500000</v>
       </c>
-      <c r="J42" s="91" t="n">
+      <c r="J42" s="114" t="n">
         <f aca="false">I42</f>
         <v>500000</v>
       </c>
@@ -39056,59 +36788,9 @@
       <c r="AKH42" s="0"/>
       <c r="AKI42" s="0"/>
       <c r="AKJ42" s="0"/>
-      <c r="AKK42" s="0"/>
-      <c r="AKL42" s="0"/>
-      <c r="AKM42" s="0"/>
-      <c r="AKN42" s="0"/>
-      <c r="AKO42" s="0"/>
-      <c r="AKP42" s="0"/>
-      <c r="AKQ42" s="0"/>
-      <c r="AKR42" s="0"/>
-      <c r="AKS42" s="0"/>
-      <c r="AKT42" s="0"/>
-      <c r="AKU42" s="0"/>
-      <c r="AKV42" s="0"/>
-      <c r="AKW42" s="0"/>
-      <c r="AKX42" s="0"/>
-      <c r="AKY42" s="0"/>
-      <c r="AKZ42" s="0"/>
-      <c r="ALA42" s="0"/>
-      <c r="ALB42" s="0"/>
-      <c r="ALC42" s="0"/>
-      <c r="ALD42" s="0"/>
-      <c r="ALE42" s="0"/>
-      <c r="ALF42" s="0"/>
-      <c r="ALG42" s="0"/>
-      <c r="ALH42" s="0"/>
-      <c r="ALI42" s="0"/>
-      <c r="ALJ42" s="0"/>
-      <c r="ALK42" s="0"/>
-      <c r="ALL42" s="0"/>
-      <c r="ALM42" s="0"/>
-      <c r="ALN42" s="0"/>
-      <c r="ALO42" s="0"/>
-      <c r="ALP42" s="0"/>
-      <c r="ALQ42" s="0"/>
-      <c r="ALR42" s="0"/>
-      <c r="ALS42" s="0"/>
-      <c r="ALT42" s="0"/>
-      <c r="ALU42" s="0"/>
-      <c r="ALV42" s="0"/>
-      <c r="ALW42" s="0"/>
-      <c r="ALX42" s="0"/>
-      <c r="ALY42" s="0"/>
-      <c r="ALZ42" s="0"/>
-      <c r="AMA42" s="0"/>
-      <c r="AMB42" s="0"/>
-      <c r="AMC42" s="0"/>
-      <c r="AMD42" s="0"/>
-      <c r="AME42" s="0"/>
-      <c r="AMF42" s="0"/>
-      <c r="AMG42" s="0"/>
-      <c r="AMH42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="104" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="116" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="67" t="s">
@@ -39117,21 +36799,21 @@
       <c r="C43" s="69" t="n">
         <v>400</v>
       </c>
-      <c r="D43" s="103"/>
+      <c r="D43" s="112"/>
       <c r="E43" s="69" t="n">
         <v>1000</v>
       </c>
-      <c r="F43" s="91" t="n">
+      <c r="F43" s="95" t="n">
         <f aca="false">C43*E43</f>
         <v>400000</v>
       </c>
       <c r="G43" s="69"/>
       <c r="H43" s="69"/>
-      <c r="I43" s="91" t="n">
+      <c r="I43" s="113" t="n">
         <f aca="false">C43*E43</f>
         <v>400000</v>
       </c>
-      <c r="J43" s="91" t="n">
+      <c r="J43" s="114" t="n">
         <f aca="false">I43</f>
         <v>400000</v>
       </c>
@@ -40101,59 +37783,9 @@
       <c r="AKH43" s="0"/>
       <c r="AKI43" s="0"/>
       <c r="AKJ43" s="0"/>
-      <c r="AKK43" s="0"/>
-      <c r="AKL43" s="0"/>
-      <c r="AKM43" s="0"/>
-      <c r="AKN43" s="0"/>
-      <c r="AKO43" s="0"/>
-      <c r="AKP43" s="0"/>
-      <c r="AKQ43" s="0"/>
-      <c r="AKR43" s="0"/>
-      <c r="AKS43" s="0"/>
-      <c r="AKT43" s="0"/>
-      <c r="AKU43" s="0"/>
-      <c r="AKV43" s="0"/>
-      <c r="AKW43" s="0"/>
-      <c r="AKX43" s="0"/>
-      <c r="AKY43" s="0"/>
-      <c r="AKZ43" s="0"/>
-      <c r="ALA43" s="0"/>
-      <c r="ALB43" s="0"/>
-      <c r="ALC43" s="0"/>
-      <c r="ALD43" s="0"/>
-      <c r="ALE43" s="0"/>
-      <c r="ALF43" s="0"/>
-      <c r="ALG43" s="0"/>
-      <c r="ALH43" s="0"/>
-      <c r="ALI43" s="0"/>
-      <c r="ALJ43" s="0"/>
-      <c r="ALK43" s="0"/>
-      <c r="ALL43" s="0"/>
-      <c r="ALM43" s="0"/>
-      <c r="ALN43" s="0"/>
-      <c r="ALO43" s="0"/>
-      <c r="ALP43" s="0"/>
-      <c r="ALQ43" s="0"/>
-      <c r="ALR43" s="0"/>
-      <c r="ALS43" s="0"/>
-      <c r="ALT43" s="0"/>
-      <c r="ALU43" s="0"/>
-      <c r="ALV43" s="0"/>
-      <c r="ALW43" s="0"/>
-      <c r="ALX43" s="0"/>
-      <c r="ALY43" s="0"/>
-      <c r="ALZ43" s="0"/>
-      <c r="AMA43" s="0"/>
-      <c r="AMB43" s="0"/>
-      <c r="AMC43" s="0"/>
-      <c r="AMD43" s="0"/>
-      <c r="AME43" s="0"/>
-      <c r="AMF43" s="0"/>
-      <c r="AMG43" s="0"/>
-      <c r="AMH43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="111" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="67" t="s">
@@ -40162,21 +37794,21 @@
       <c r="C44" s="69" t="n">
         <v>300</v>
       </c>
-      <c r="D44" s="103"/>
+      <c r="D44" s="112"/>
       <c r="E44" s="69" t="n">
         <v>1000</v>
       </c>
-      <c r="F44" s="91" t="n">
+      <c r="F44" s="95" t="n">
         <f aca="false">C44*E44</f>
         <v>300000</v>
       </c>
       <c r="G44" s="69"/>
       <c r="H44" s="69"/>
-      <c r="I44" s="91" t="n">
+      <c r="I44" s="113" t="n">
         <f aca="false">C44*E44</f>
         <v>300000</v>
       </c>
-      <c r="J44" s="91" t="n">
+      <c r="J44" s="114" t="n">
         <f aca="false">I44</f>
         <v>300000</v>
       </c>
@@ -40189,13 +37821,13 @@
       <c r="M44" s="69"/>
     </row>
     <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I45" s="1" t="n">
+      <c r="I45" s="117" t="n">
         <f aca="false">SUM(I38:I44)</f>
-        <v>5100866</v>
-      </c>
-      <c r="J45" s="1" t="n">
+        <v>5550866</v>
+      </c>
+      <c r="J45" s="118" t="n">
         <f aca="false">SUM(J38:J44)</f>
-        <v>5600866</v>
+        <v>6050866</v>
       </c>
     </row>
   </sheetData>

--- a/grantova_zadost_labka__naceneni.xlsx
+++ b/grantova_zadost_labka__naceneni.xlsx
@@ -200,7 +200,7 @@
     <t xml:space="preserve">https://www.alza.cz/macbook-pro-13-retina-cz-2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Dell Latitude E5470 nebo jiné notebooky pro testování</t>
+    <t xml:space="preserve">Dell Latitude E5470 nebo jiné notebooky pro testování – ve stejné cenně víc levnějších</t>
   </si>
   <si>
     <t xml:space="preserve">29496</t>
@@ -400,7 +400,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,14 +415,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFE6E6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFE6E6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -439,8 +451,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -458,7 +482,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6FF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -471,12 +495,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF990000"/>
         <bgColor rgb="FF801900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -685,7 +703,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -802,7 +820,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -814,51 +832,51 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -866,63 +884,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -942,7 +956,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -950,19 +968,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -974,67 +996,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="12" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="14" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1046,67 +1068,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="14" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="15" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="15" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="15" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="15" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="15" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="15" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="15" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1114,27 +1136,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1146,11 +1168,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1190,14 +1212,14 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFE6E6FF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1213,7 +1235,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99FF"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3399FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1221,7 +1243,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1242,27 +1264,26 @@
   </sheetPr>
   <dimension ref="1:45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C12" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E:E"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="80.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.41836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.08163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.28061224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.81632653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.95408163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.484693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="152.964285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="106.663265306122"/>
-    <col collapsed="false" hidden="false" max="972" min="14" style="1" width="13.1683673469388"/>
-    <col collapsed="false" hidden="false" max="974" min="973" style="0" width="8.97959183673469"/>
-    <col collapsed="false" hidden="false" max="1022" min="975" style="0" width="13.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.97959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.25"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.71428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.56632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.75510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="12.25"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.6122448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.265306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="163.367346938776"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="113.979591836735"/>
+    <col collapsed="false" hidden="false" max="972" min="14" style="1" width="14.0816326530612"/>
+    <col collapsed="false" hidden="false" max="974" min="973" style="0" width="9.59183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.59183673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11407,10 +11428,10 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="35" t="s">
@@ -11425,7 +11446,7 @@
       <c r="F13" s="35" t="n">
         <v>50000</v>
       </c>
-      <c r="G13" s="57" t="n">
+      <c r="G13" s="56" t="n">
         <v>50000</v>
       </c>
       <c r="H13" s="36" t="n">
@@ -11443,7 +11464,7 @@
         <v>21</v>
       </c>
       <c r="L13" s="35"/>
-      <c r="M13" s="58"/>
+      <c r="M13" s="57"/>
       <c r="AKK13" s="42"/>
       <c r="AKL13" s="42"/>
       <c r="AKM13" s="0"/>
@@ -11498,10 +11519,10 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -11516,7 +11537,7 @@
       <c r="F14" s="35" t="n">
         <v>30000</v>
       </c>
-      <c r="G14" s="57" t="n">
+      <c r="G14" s="56" t="n">
         <v>30000</v>
       </c>
       <c r="H14" s="36" t="n">
@@ -11534,7 +11555,7 @@
         <v>21</v>
       </c>
       <c r="L14" s="35"/>
-      <c r="M14" s="58"/>
+      <c r="M14" s="57"/>
       <c r="AKK14" s="42"/>
       <c r="AKL14" s="42"/>
       <c r="AKM14" s="0"/>
@@ -11589,10 +11610,10 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="35" t="s">
@@ -11607,7 +11628,7 @@
       <c r="F15" s="35" t="n">
         <v>150000</v>
       </c>
-      <c r="G15" s="57" t="n">
+      <c r="G15" s="56" t="n">
         <v>50000</v>
       </c>
       <c r="H15" s="36" t="n">
@@ -11625,7 +11646,7 @@
         <v>21</v>
       </c>
       <c r="L15" s="35"/>
-      <c r="M15" s="58"/>
+      <c r="M15" s="57"/>
       <c r="AKK15" s="42"/>
       <c r="AKL15" s="42"/>
       <c r="AKM15" s="0"/>
@@ -11680,7 +11701,7 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -11689,19 +11710,19 @@
       <c r="C16" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="59" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="59" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="60" t="s">
         <v>45</v>
       </c>
       <c r="I16" s="27" t="n">
@@ -12682,7 +12703,7 @@
       <c r="AKJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="58" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -12691,7 +12712,7 @@
       <c r="C17" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="59" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="20" t="n">
@@ -12703,7 +12724,7 @@
       <c r="G17" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="62" t="n">
+      <c r="H17" s="61" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="27" t="n">
@@ -12720,7 +12741,7 @@
       <c r="L17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="63"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
       <c r="P17" s="0"/>
@@ -13682,7 +13703,7 @@
       <c r="AKJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="63" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -13704,7 +13725,7 @@
       <c r="G18" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="62" t="n">
+      <c r="H18" s="61" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="27" t="n">
@@ -13721,7 +13742,7 @@
       <c r="L18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="63" t="s">
+      <c r="M18" s="62" t="s">
         <v>50</v>
       </c>
       <c r="N18" s="0"/>
@@ -14724,7 +14745,7 @@
       <c r="L19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="63"/>
+      <c r="M19" s="62"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
       <c r="P19" s="0"/>
@@ -15725,7 +15746,7 @@
       <c r="L20" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="M20" s="63"/>
+      <c r="M20" s="62"/>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
       <c r="P20" s="0"/>
@@ -16696,7 +16717,7 @@
       <c r="C21" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="59" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="20" t="n">
@@ -16705,7 +16726,7 @@
       <c r="F21" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="59" t="s">
         <v>56</v>
       </c>
       <c r="H21" s="26" t="n">
@@ -16725,7 +16746,7 @@
       <c r="L21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="63" t="s">
+      <c r="M21" s="62" t="s">
         <v>57</v>
       </c>
       <c r="N21" s="0"/>
@@ -17698,10 +17719,10 @@
       <c r="C22" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="59" t="s">
         <v>60</v>
       </c>
       <c r="F22" s="24" t="n">
@@ -17728,7 +17749,7 @@
       <c r="L22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="63" t="s">
+      <c r="M22" s="62" t="s">
         <v>61</v>
       </c>
       <c r="N22" s="0"/>
@@ -18692,7 +18713,7 @@
       <c r="AKJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="66" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="30" t="s">
@@ -18701,12 +18722,12 @@
       <c r="C23" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="60"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="20"/>
       <c r="F23" s="24" t="n">
         <v>80000</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="59" t="s">
         <v>63</v>
       </c>
       <c r="H23" s="26" t="n">
@@ -18724,7 +18745,7 @@
         <v>21</v>
       </c>
       <c r="L23" s="20"/>
-      <c r="M23" s="63"/>
+      <c r="M23" s="62"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
       <c r="P23" s="0"/>
@@ -19686,7 +19707,7 @@
       <c r="AKJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="66" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="30" t="s">
@@ -19695,8 +19716,8 @@
       <c r="C24" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="24" t="n">
         <v>350000</v>
       </c>
@@ -19718,7 +19739,7 @@
         <v>21</v>
       </c>
       <c r="L24" s="20"/>
-      <c r="M24" s="63"/>
+      <c r="M24" s="62"/>
       <c r="N24" s="0"/>
       <c r="O24" s="0"/>
       <c r="P24" s="0"/>
@@ -20680,43 +20701,43 @@
       <c r="AKJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="69" t="n">
+      <c r="D25" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="69" t="n">
+      <c r="E25" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="69" t="n">
+      <c r="F25" s="70" t="n">
         <v>50000</v>
       </c>
-      <c r="G25" s="69" t="n">
+      <c r="G25" s="70" t="n">
         <v>50000</v>
       </c>
-      <c r="H25" s="69" t="n">
+      <c r="H25" s="70" t="n">
         <v>80000</v>
       </c>
-      <c r="I25" s="70" t="n">
+      <c r="I25" s="71" t="n">
         <f aca="false">F25+G25+H25</f>
         <v>180000</v>
       </c>
-      <c r="J25" s="71" t="n">
+      <c r="J25" s="72" t="n">
         <f aca="false">F25+G25+H25</f>
         <v>180000</v>
       </c>
-      <c r="K25" s="68" t="s">
+      <c r="K25" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
       <c r="P25" s="0"/>
@@ -21678,38 +21699,38 @@
       <c r="AKJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="74" t="n">
+      <c r="B26" s="74"/>
+      <c r="C26" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74" t="n">
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75" t="n">
         <f aca="false">SUM(F3:F23)</f>
         <v>1852741</v>
       </c>
-      <c r="G26" s="74" t="n">
+      <c r="G26" s="75" t="n">
         <f aca="false">SUM(G3:G23)</f>
         <v>378636</v>
       </c>
-      <c r="H26" s="74" t="n">
+      <c r="H26" s="75" t="n">
         <f aca="false">SUM(H3:H23)</f>
         <v>458636</v>
       </c>
-      <c r="I26" s="75" t="n">
+      <c r="I26" s="76" t="n">
         <f aca="false">SUM(I3:I25)</f>
         <v>4064393</v>
       </c>
-      <c r="J26" s="76" t="n">
+      <c r="J26" s="77" t="n">
         <f aca="false">SUM(J3:J25)</f>
         <v>4064393</v>
       </c>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="77"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="78"/>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
       <c r="P26" s="0"/>
@@ -22671,38 +22692,38 @@
       <c r="AKJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="81" t="n">
+      <c r="C27" s="82" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81" t="n">
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="81" t="n">
+      <c r="G27" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="81" t="n">
+      <c r="H27" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="82" t="n">
+      <c r="I27" s="83" t="n">
         <f aca="false">H27+G27+F27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="83" t="n">
+      <c r="J27" s="84" t="n">
         <v>500000</v>
       </c>
-      <c r="K27" s="84"/>
-      <c r="L27" s="85" t="s">
+      <c r="K27" s="85"/>
+      <c r="L27" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="86"/>
+      <c r="M27" s="87"/>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
       <c r="P27" s="0"/>
@@ -23663,46 +23684,46 @@
       <c r="AKI27" s="0"/>
       <c r="AKJ27" s="0"/>
     </row>
-    <row r="28" s="90" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="87" t="s">
+    <row r="28" s="91" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="69" t="n">
+      <c r="D28" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="69" t="n">
+      <c r="E28" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="69" t="n">
+      <c r="F28" s="70" t="n">
         <v>5000</v>
       </c>
-      <c r="G28" s="69" t="n">
+      <c r="G28" s="70" t="n">
         <v>5000</v>
       </c>
-      <c r="H28" s="69" t="n">
+      <c r="H28" s="70" t="n">
         <v>5000</v>
       </c>
-      <c r="I28" s="88" t="n">
+      <c r="I28" s="89" t="n">
         <f aca="false">H28+G28+F28</f>
         <v>15000</v>
       </c>
-      <c r="J28" s="89" t="n">
+      <c r="J28" s="90" t="n">
         <f aca="false">H28+G28+F28</f>
         <v>15000</v>
       </c>
-      <c r="K28" s="68" t="s">
+      <c r="K28" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="AKK28" s="91"/>
-      <c r="AKL28" s="91"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="AKK28" s="92"/>
+      <c r="AKL28" s="92"/>
       <c r="AKM28" s="0"/>
       <c r="AKN28" s="0"/>
       <c r="AKO28" s="0"/>
@@ -23755,43 +23776,43 @@
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="69" t="n">
+      <c r="D29" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="E29" s="69" t="n">
+      <c r="E29" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="69" t="n">
+      <c r="F29" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="69" t="n">
+      <c r="G29" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="H29" s="69" t="n">
+      <c r="H29" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="88" t="n">
+      <c r="I29" s="89" t="n">
         <f aca="false">H29+G29+F29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="89" t="n">
+      <c r="J29" s="90" t="n">
         <f aca="false">H29+G29+F29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="68" t="s">
+      <c r="K29" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
       <c r="P29" s="0"/>
@@ -24753,43 +24774,43 @@
       <c r="AKJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="69" t="n">
+      <c r="D30" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="E30" s="69" t="n">
+      <c r="E30" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="69" t="n">
+      <c r="F30" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="69" t="n">
+      <c r="G30" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="69" t="n">
+      <c r="H30" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="88" t="n">
+      <c r="I30" s="89" t="n">
         <f aca="false">H30+G30+F30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="89" t="n">
+      <c r="J30" s="90" t="n">
         <f aca="false">H30+G30+F30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="68" t="s">
+      <c r="K30" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
       <c r="P30" s="0"/>
@@ -25751,43 +25772,43 @@
       <c r="AKJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="69" t="n">
+      <c r="D31" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="69" t="n">
+      <c r="E31" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F31" s="69" t="n">
+      <c r="F31" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="69" t="n">
+      <c r="G31" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="69" t="n">
+      <c r="H31" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="88" t="n">
+      <c r="I31" s="89" t="n">
         <f aca="false">H31+G31+F31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="89" t="n">
+      <c r="J31" s="90" t="n">
         <f aca="false">H31+G31+F31</f>
         <v>0</v>
       </c>
-      <c r="K31" s="68" t="s">
+      <c r="K31" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
       <c r="N31" s="0"/>
       <c r="O31" s="0"/>
       <c r="P31" s="0"/>
@@ -26749,43 +26770,43 @@
       <c r="AKJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="69" t="n">
+      <c r="D32" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="E32" s="69" t="n">
+      <c r="E32" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="69" t="n">
+      <c r="F32" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="69" t="n">
+      <c r="G32" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="H32" s="69" t="n">
+      <c r="H32" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="88" t="n">
+      <c r="I32" s="89" t="n">
         <f aca="false">H32+G32+F32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="89" t="n">
+      <c r="J32" s="90" t="n">
         <f aca="false">H32+G32+F32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="68" t="s">
+      <c r="K32" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
       <c r="N32" s="0"/>
       <c r="O32" s="0"/>
       <c r="P32" s="0"/>
@@ -27747,42 +27768,42 @@
       <c r="AKJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="69" t="n">
+      <c r="C33" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="D33" s="69" t="n">
+      <c r="D33" s="70" t="n">
         <v>17871</v>
       </c>
-      <c r="E33" s="69" t="n">
+      <c r="E33" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F33" s="69" t="n">
+      <c r="F33" s="70" t="n">
         <f aca="false">D33*C33</f>
         <v>71484</v>
       </c>
-      <c r="G33" s="69" t="n">
+      <c r="G33" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="H33" s="69" t="n">
+      <c r="H33" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="88" t="n">
+      <c r="I33" s="89" t="n">
         <f aca="false">H33+G33+F33</f>
         <v>71484</v>
       </c>
-      <c r="J33" s="89" t="n">
+      <c r="J33" s="90" t="n">
         <f aca="false">H33+G33+F33</f>
         <v>71484</v>
       </c>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
       <c r="N33" s="0"/>
       <c r="O33" s="0"/>
       <c r="P33" s="0"/>
@@ -28744,46 +28765,46 @@
       <c r="AKJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="69" t="n">
+      <c r="C34" s="70" t="n">
         <v>1000</v>
       </c>
-      <c r="D34" s="69" t="n">
+      <c r="D34" s="70" t="n">
         <v>5</v>
       </c>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69" t="n">
+      <c r="E34" s="70"/>
+      <c r="F34" s="70" t="n">
         <f aca="false">D34*C34</f>
         <v>5000</v>
       </c>
-      <c r="G34" s="69" t="n">
+      <c r="G34" s="70" t="n">
         <f aca="false">D34*C34</f>
         <v>5000</v>
       </c>
-      <c r="H34" s="69" t="n">
+      <c r="H34" s="70" t="n">
         <f aca="false">C34*D34</f>
         <v>5000</v>
       </c>
-      <c r="I34" s="88" t="n">
+      <c r="I34" s="89" t="n">
         <f aca="false">H34+G34+F34</f>
         <v>15000</v>
       </c>
-      <c r="J34" s="89" t="n">
+      <c r="J34" s="90" t="n">
         <f aca="false">H34+G34+F34</f>
         <v>15000</v>
       </c>
-      <c r="K34" s="68" t="s">
+      <c r="K34" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="68" t="s">
+      <c r="L34" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="M34" s="69"/>
+      <c r="M34" s="70"/>
       <c r="N34" s="0"/>
       <c r="O34" s="0"/>
       <c r="P34" s="0"/>
@@ -29745,45 +29766,45 @@
       <c r="AKJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="69" t="n">
+      <c r="D35" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="E35" s="69" t="n">
+      <c r="E35" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F35" s="69" t="n">
+      <c r="F35" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="69" t="n">
+      <c r="G35" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="H35" s="69" t="n">
+      <c r="H35" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="88" t="n">
+      <c r="I35" s="89" t="n">
         <f aca="false">H35+G35+F35</f>
         <v>0</v>
       </c>
-      <c r="J35" s="89" t="n">
+      <c r="J35" s="90" t="n">
         <f aca="false">H35+G35+F35</f>
         <v>0</v>
       </c>
-      <c r="K35" s="68" t="s">
+      <c r="K35" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="68" t="s">
+      <c r="L35" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="M35" s="69"/>
+      <c r="M35" s="70"/>
       <c r="N35" s="0"/>
       <c r="O35" s="0"/>
       <c r="P35" s="0"/>
@@ -30745,45 +30766,45 @@
       <c r="AKJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="95" t="n">
+      <c r="C36" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="95" t="n">
+      <c r="D36" s="96" t="n">
         <v>33462.81</v>
       </c>
-      <c r="E36" s="95" t="n">
+      <c r="E36" s="96" t="n">
         <v>40490</v>
       </c>
-      <c r="F36" s="95" t="n">
+      <c r="F36" s="96" t="n">
         <v>40490</v>
       </c>
-      <c r="G36" s="69" t="n">
+      <c r="G36" s="70" t="n">
         <v>20000</v>
       </c>
-      <c r="H36" s="69" t="n">
+      <c r="H36" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="88" t="n">
+      <c r="I36" s="89" t="n">
         <f aca="false">H36+G36+F36</f>
         <v>60490</v>
       </c>
-      <c r="J36" s="89" t="n">
+      <c r="J36" s="90" t="n">
         <f aca="false">H36+G36+F36</f>
         <v>60490</v>
       </c>
-      <c r="K36" s="68" t="s">
+      <c r="K36" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="68" t="s">
+      <c r="L36" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="M36" s="96" t="s">
+      <c r="M36" s="97" t="s">
         <v>82</v>
       </c>
       <c r="N36" s="0"/>
@@ -31747,45 +31768,45 @@
       <c r="AKJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="95" t="n">
+      <c r="C37" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="97" t="s">
+      <c r="D37" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="97" t="s">
+      <c r="E37" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="97" t="s">
+      <c r="F37" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="69" t="n">
+      <c r="G37" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="H37" s="69" t="n">
+      <c r="H37" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="88" t="n">
+      <c r="I37" s="89" t="n">
         <f aca="false">H37+G37+F37</f>
         <v>10499</v>
       </c>
-      <c r="J37" s="89" t="n">
+      <c r="J37" s="90" t="n">
         <f aca="false">H37+G37+F37</f>
         <v>10499</v>
       </c>
-      <c r="K37" s="68" t="s">
+      <c r="K37" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="68" t="s">
+      <c r="L37" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="98"/>
+      <c r="M37" s="99"/>
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
       <c r="P37" s="0"/>
@@ -32746,37 +32767,37 @@
       <c r="AKI37" s="0"/>
       <c r="AKJ37" s="0"/>
     </row>
-    <row r="38" s="106" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="99" t="s">
+    <row r="38" s="107" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="100"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101" t="n">
+      <c r="B38" s="101"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102" t="n">
         <f aca="false">SUM(F17:F18)</f>
         <v>43280</v>
       </c>
-      <c r="G38" s="101" t="n">
+      <c r="G38" s="102" t="n">
         <f aca="false">SUM(G17:G18)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="101" t="n">
+      <c r="H38" s="102" t="n">
         <f aca="false">SUM(H17:H18)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="102" t="n">
+      <c r="I38" s="103" t="n">
         <f aca="false">SUM(I26:I37)</f>
         <v>4236866</v>
       </c>
-      <c r="J38" s="103" t="n">
+      <c r="J38" s="104" t="n">
         <f aca="false">SUM(J26:J37)</f>
         <v>4736866</v>
       </c>
-      <c r="K38" s="104"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="104"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="105"/>
       <c r="AKM38" s="0"/>
       <c r="AKN38" s="0"/>
       <c r="AKO38" s="0"/>
@@ -32829,21 +32850,21 @@
       <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
       <c r="N39" s="0"/>
       <c r="O39" s="0"/>
       <c r="P39" s="0"/>
@@ -33805,40 +33826,40 @@
       <c r="AKJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="111" t="s">
+      <c r="A40" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="69" t="n">
+      <c r="C40" s="70" t="n">
         <v>100</v>
       </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="69" t="n">
+      <c r="D40" s="113"/>
+      <c r="E40" s="70" t="n">
         <v>1000</v>
       </c>
-      <c r="F40" s="95" t="n">
+      <c r="F40" s="96" t="n">
         <f aca="false">C40*E40</f>
         <v>100000</v>
       </c>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="113" t="n">
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="114" t="n">
         <f aca="false">C40*E40</f>
         <v>100000</v>
       </c>
-      <c r="J40" s="114" t="n">
+      <c r="J40" s="115" t="n">
         <f aca="false">I40</f>
         <v>100000</v>
       </c>
-      <c r="K40" s="68" t="s">
+      <c r="K40" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="68" t="s">
+      <c r="L40" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M40" s="69"/>
+      <c r="M40" s="70"/>
       <c r="N40" s="0"/>
       <c r="O40" s="0"/>
       <c r="P40" s="0"/>
@@ -34800,40 +34821,40 @@
       <c r="AKJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="69" t="n">
+      <c r="C41" s="70" t="n">
         <v>20</v>
       </c>
-      <c r="D41" s="112"/>
-      <c r="E41" s="69" t="n">
+      <c r="D41" s="113"/>
+      <c r="E41" s="70" t="n">
         <v>700</v>
       </c>
-      <c r="F41" s="95" t="n">
+      <c r="F41" s="96" t="n">
         <f aca="false">C41*E41</f>
         <v>14000</v>
       </c>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="113" t="n">
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="114" t="n">
         <f aca="false">C41*E41</f>
         <v>14000</v>
       </c>
-      <c r="J41" s="114" t="n">
+      <c r="J41" s="115" t="n">
         <f aca="false">I41</f>
         <v>14000</v>
       </c>
-      <c r="K41" s="68" t="s">
+      <c r="K41" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="68" t="s">
+      <c r="L41" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M41" s="69"/>
+      <c r="M41" s="70"/>
       <c r="N41" s="0"/>
       <c r="O41" s="0"/>
       <c r="P41" s="0"/>
@@ -35795,40 +35816,40 @@
       <c r="AKJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="69" t="n">
+      <c r="C42" s="70" t="n">
         <v>500</v>
       </c>
-      <c r="D42" s="112"/>
-      <c r="E42" s="69" t="n">
+      <c r="D42" s="113"/>
+      <c r="E42" s="70" t="n">
         <v>1000</v>
       </c>
-      <c r="F42" s="95" t="n">
+      <c r="F42" s="96" t="n">
         <f aca="false">C42*E42</f>
         <v>500000</v>
       </c>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="113" t="n">
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="114" t="n">
         <f aca="false">C42*E42</f>
         <v>500000</v>
       </c>
-      <c r="J42" s="114" t="n">
+      <c r="J42" s="115" t="n">
         <f aca="false">I42</f>
         <v>500000</v>
       </c>
-      <c r="K42" s="68" t="s">
+      <c r="K42" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="68" t="s">
+      <c r="L42" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M42" s="69"/>
+      <c r="M42" s="70"/>
       <c r="N42" s="0"/>
       <c r="O42" s="0"/>
       <c r="P42" s="0"/>
@@ -36790,40 +36811,40 @@
       <c r="AKJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="116" t="s">
+      <c r="A43" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="69" t="n">
+      <c r="C43" s="70" t="n">
         <v>400</v>
       </c>
-      <c r="D43" s="112"/>
-      <c r="E43" s="69" t="n">
+      <c r="D43" s="113"/>
+      <c r="E43" s="70" t="n">
         <v>1000</v>
       </c>
-      <c r="F43" s="95" t="n">
+      <c r="F43" s="96" t="n">
         <f aca="false">C43*E43</f>
         <v>400000</v>
       </c>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="113" t="n">
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="114" t="n">
         <f aca="false">C43*E43</f>
         <v>400000</v>
       </c>
-      <c r="J43" s="114" t="n">
+      <c r="J43" s="115" t="n">
         <f aca="false">I43</f>
         <v>400000</v>
       </c>
-      <c r="K43" s="68" t="s">
+      <c r="K43" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="68" t="s">
+      <c r="L43" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M43" s="69"/>
+      <c r="M43" s="70"/>
       <c r="N43" s="0"/>
       <c r="O43" s="0"/>
       <c r="P43" s="0"/>
@@ -37785,47 +37806,47 @@
       <c r="AKJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="69" t="n">
+      <c r="C44" s="70" t="n">
         <v>300</v>
       </c>
-      <c r="D44" s="112"/>
-      <c r="E44" s="69" t="n">
+      <c r="D44" s="113"/>
+      <c r="E44" s="70" t="n">
         <v>1000</v>
       </c>
-      <c r="F44" s="95" t="n">
+      <c r="F44" s="96" t="n">
         <f aca="false">C44*E44</f>
         <v>300000</v>
       </c>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="113" t="n">
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="114" t="n">
         <f aca="false">C44*E44</f>
         <v>300000</v>
       </c>
-      <c r="J44" s="114" t="n">
+      <c r="J44" s="115" t="n">
         <f aca="false">I44</f>
         <v>300000</v>
       </c>
-      <c r="K44" s="68" t="s">
+      <c r="K44" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="68" t="s">
+      <c r="L44" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M44" s="69"/>
+      <c r="M44" s="70"/>
     </row>
     <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I45" s="117" t="n">
+      <c r="I45" s="118" t="n">
         <f aca="false">SUM(I38:I44)</f>
         <v>5550866</v>
       </c>
-      <c r="J45" s="118" t="n">
+      <c r="J45" s="119" t="n">
         <f aca="false">SUM(J38:J44)</f>
         <v>6050866</v>
       </c>

--- a/grantova_zadost_labka__naceneni.xlsx
+++ b/grantova_zadost_labka__naceneni.xlsx
@@ -17,6 +17,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tato čísla jsou spíše spekulativní</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,26 +1287,27 @@
   </sheetPr>
   <dimension ref="1:45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.71428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.56632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.75510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="12.25"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.6122448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.265306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="163.367346938776"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="113.979591836735"/>
-    <col collapsed="false" hidden="false" max="972" min="14" style="1" width="14.0816326530612"/>
-    <col collapsed="false" hidden="false" max="974" min="973" style="0" width="9.59183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.59183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="91.5357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.02040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.26020408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0255102040816"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.2244897959184"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.1836734693878"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="174.489795918367"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="121.734693877551"/>
+    <col collapsed="false" hidden="false" max="972" min="14" style="1" width="15"/>
+    <col collapsed="false" hidden="false" max="974" min="973" style="0" width="10.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1022" min="975" style="0" width="8.97959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="10.2040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,18 +5312,18 @@
         <v>500000</v>
       </c>
       <c r="G5" s="20" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H5" s="26" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I5" s="27" t="n">
         <f aca="false">F5+G5+H5</f>
-        <v>500000</v>
+        <v>700000</v>
       </c>
       <c r="J5" s="18" t="n">
         <f aca="false">F5+G5+H5</f>
-        <v>500000</v>
+        <v>700000</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>21</v>
@@ -6288,15 +6312,17 @@
         <f aca="false">C6*E6</f>
         <v>200000</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="20" t="n">
+        <v>100000</v>
+      </c>
       <c r="H6" s="26"/>
       <c r="I6" s="27" t="n">
         <f aca="false">F6+G6+H6</f>
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="J6" s="18" t="n">
         <f aca="false">F6+G6+H6</f>
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="20"/>
@@ -8270,11 +8296,14 @@
         <v>600</v>
       </c>
       <c r="F8" s="24" t="n">
-        <f aca="false">C8*E8</f>
-        <v>120000</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="26"/>
+        <v>40000</v>
+      </c>
+      <c r="G8" s="24" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H8" s="24" t="n">
+        <v>40000</v>
+      </c>
       <c r="I8" s="27" t="n">
         <f aca="false">F8+G8+H8</f>
         <v>120000</v>
@@ -9261,10 +9290,11 @@
         <v>1000</v>
       </c>
       <c r="F9" s="24" t="n">
-        <f aca="false">C9*E9</f>
-        <v>200000</v>
-      </c>
-      <c r="G9" s="20"/>
+        <v>150000</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>50000</v>
+      </c>
       <c r="H9" s="26"/>
       <c r="I9" s="27" t="n">
         <f aca="false">F9+G9+H9</f>
@@ -21710,23 +21740,23 @@
       <c r="E26" s="75"/>
       <c r="F26" s="75" t="n">
         <f aca="false">SUM(F3:F23)</f>
-        <v>1852741</v>
+        <v>1722741</v>
       </c>
       <c r="G26" s="75" t="n">
         <f aca="false">SUM(G3:G23)</f>
-        <v>378636</v>
+        <v>668636</v>
       </c>
       <c r="H26" s="75" t="n">
         <f aca="false">SUM(H3:H23)</f>
-        <v>458636</v>
+        <v>598636</v>
       </c>
       <c r="I26" s="76" t="n">
         <f aca="false">SUM(I3:I25)</f>
-        <v>4064393</v>
+        <v>4364393</v>
       </c>
       <c r="J26" s="77" t="n">
         <f aca="false">SUM(J3:J25)</f>
-        <v>4064393</v>
+        <v>4364393</v>
       </c>
       <c r="K26" s="78"/>
       <c r="L26" s="79"/>
@@ -23792,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="70" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G29" s="70" t="n">
         <v>0</v>
@@ -23802,11 +23832,11 @@
       </c>
       <c r="I29" s="89" t="n">
         <f aca="false">H29+G29+F29</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J29" s="90" t="n">
         <f aca="false">H29+G29+F29</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="K29" s="69" t="s">
         <v>21</v>
@@ -24790,7 +24820,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="70" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G30" s="70" t="n">
         <v>0</v>
@@ -24800,11 +24830,11 @@
       </c>
       <c r="I30" s="89" t="n">
         <f aca="false">H30+G30+F30</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="J30" s="90" t="n">
         <f aca="false">H30+G30+F30</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="K30" s="69" t="s">
         <v>21</v>
@@ -26786,7 +26816,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="70" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G32" s="70" t="n">
         <v>0</v>
@@ -26796,11 +26826,11 @@
       </c>
       <c r="I32" s="89" t="n">
         <f aca="false">H32+G32+F32</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J32" s="90" t="n">
         <f aca="false">H32+G32+F32</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="K32" s="69" t="s">
         <v>21</v>
@@ -29782,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="70" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G35" s="70" t="n">
         <v>0</v>
@@ -29792,11 +29822,11 @@
       </c>
       <c r="I35" s="89" t="n">
         <f aca="false">H35+G35+F35</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="J35" s="90" t="n">
         <f aca="false">H35+G35+F35</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="K35" s="69" t="s">
         <v>16</v>
@@ -32789,11 +32819,11 @@
       </c>
       <c r="I38" s="103" t="n">
         <f aca="false">SUM(I26:I37)</f>
-        <v>4236866</v>
+        <v>5286866</v>
       </c>
       <c r="J38" s="104" t="n">
         <f aca="false">SUM(J26:J37)</f>
-        <v>4736866</v>
+        <v>5786866</v>
       </c>
       <c r="K38" s="105"/>
       <c r="L38" s="106"/>
@@ -37844,11 +37874,11 @@
     <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I45" s="118" t="n">
         <f aca="false">SUM(I38:I44)</f>
-        <v>5550866</v>
+        <v>6600866</v>
       </c>
       <c r="J45" s="119" t="n">
         <f aca="false">SUM(J38:J44)</f>
-        <v>6050866</v>
+        <v>7100866</v>
       </c>
     </row>
   </sheetData>
@@ -37856,7 +37886,7 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1" display="https://arxiv.org/pdf/1511.09249v1.pdf"/>
+    <hyperlink ref="M5" r:id="rId2" display="https://arxiv.org/pdf/1511.09249v1.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37865,5 +37895,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/grantova_zadost_labka__naceneni.xlsx
+++ b/grantova_zadost_labka__naceneni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1287,27 +1287,27 @@
   </sheetPr>
   <dimension ref="1:45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="91.5357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.02040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.26020408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0255102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.2244897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.1836734693878"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="174.489795918367"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="121.734693877551"/>
-    <col collapsed="false" hidden="false" max="972" min="14" style="1" width="15"/>
-    <col collapsed="false" hidden="false" max="974" min="973" style="0" width="10.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1022" min="975" style="0" width="8.97959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="10.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="90.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="172.520408163265"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="120.413265306122"/>
+    <col collapsed="false" hidden="false" max="972" min="14" style="1" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="974" min="973" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1022" min="975" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7301,7 +7301,9 @@
       <c r="E7" s="24" t="n">
         <v>1000</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" s="24" t="n">
         <f aca="false">C7*E7/2</f>
         <v>200000</v>
@@ -21739,16 +21741,16 @@
       <c r="D26" s="75"/>
       <c r="E26" s="75"/>
       <c r="F26" s="75" t="n">
-        <f aca="false">SUM(F3:F23)</f>
-        <v>1722741</v>
+        <f aca="false">SUM(F3:F25)</f>
+        <v>2122741</v>
       </c>
       <c r="G26" s="75" t="n">
-        <f aca="false">SUM(G3:G23)</f>
-        <v>668636</v>
+        <f aca="false">SUM(G3:G25)</f>
+        <v>1068636</v>
       </c>
       <c r="H26" s="75" t="n">
-        <f aca="false">SUM(H3:H23)</f>
-        <v>598636</v>
+        <f aca="false">SUM(H3:H25)</f>
+        <v>1028636</v>
       </c>
       <c r="I26" s="76" t="n">
         <f aca="false">SUM(I3:I25)</f>
@@ -32806,16 +32808,16 @@
       <c r="D38" s="102"/>
       <c r="E38" s="102"/>
       <c r="F38" s="102" t="n">
-        <f aca="false">SUM(F17:F18)</f>
-        <v>43280</v>
+        <f aca="false">SUM(F26:F37)</f>
+        <v>2994715</v>
       </c>
       <c r="G38" s="102" t="n">
-        <f aca="false">SUM(G17:G18)</f>
-        <v>0</v>
+        <f aca="false">SUM(G26:G37)</f>
+        <v>1098636</v>
       </c>
       <c r="H38" s="102" t="n">
-        <f aca="false">SUM(H17:H18)</f>
-        <v>0</v>
+        <f aca="false">SUM(H26:H37)</f>
+        <v>1038636</v>
       </c>
       <c r="I38" s="103" t="n">
         <f aca="false">SUM(I26:I37)</f>

--- a/grantova_zadost_labka__naceneni.xlsx
+++ b/grantova_zadost_labka__naceneni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1287,27 +1287,27 @@
   </sheetPr>
   <dimension ref="1:45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="90.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="172.520408163265"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="120.413265306122"/>
-    <col collapsed="false" hidden="false" max="972" min="14" style="1" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="974" min="973" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1022" min="975" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="77.0510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.80102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.11734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.08163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.28061224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="8.61224489795918"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.8367346938776"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.7959183673469"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="184.280612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="128.576530612245"/>
+    <col collapsed="false" hidden="false" max="972" min="14" style="1" width="15.6122448979592"/>
+    <col collapsed="false" hidden="false" max="974" min="973" style="0" width="10.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1022" min="975" style="0" width="9.38775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="10.6122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
